--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>43739</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         <v>45155</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44106</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45099</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43719</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44706</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44578</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>45063</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44337</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44356</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44929</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44742</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44851</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>45028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43378</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>44508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44853</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44904</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44908</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44911</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>45161</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43768</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43784</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43893</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44047</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>44165</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44272</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44355</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>44355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>44368</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44441</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>44491</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>44694</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>44694</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>44742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44742</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44755</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44785</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44890</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>44900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45096</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>43314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>43314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>43321</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>43321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>43333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>43336</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43364</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43381</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43398</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43402</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>43411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>43412</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43439</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43440</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43451</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43451</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43452</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43454</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43454</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43455</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43472</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43472</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43475</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>43476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>43478</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43487</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>43489</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43494</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43514</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43542</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43550</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43571</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43581</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>43584</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>43584</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43594</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43595</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43620</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43640</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>43640</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>43650</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>43651</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>43654</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43654</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43655</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43656</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43656</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43657</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43670</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43676</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43684</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>43686</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>43696</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>43699</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>43703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>43703</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>43718</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>43724</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43725</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>43727</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>43732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43732</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43733</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>43735</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>43738</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>43738</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>43747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>43748</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>43749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>43752</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>43761</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>43762</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>43768</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>43770</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>43770</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>43773</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43776</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43781</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43781</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>43794</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>43802</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>43809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>43817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>43838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43840</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>43840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>43840</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>43861</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43871</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43871</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43895</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43901</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>43906</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>43909</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>43910</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>43917</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>43928</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>43943</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>43944</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>43978</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>43986</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>43992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44027</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44055</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44057</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18068,7 +18068,7 @@
         <v>44076</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>44077</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>44077</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>44082</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>44090</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44106</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44110</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         <v>44113</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         <v>44118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         <v>44118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18787,7 +18787,7 @@
         <v>44118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18844,7 +18844,7 @@
         <v>44123</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44126</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44126</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44140</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44140</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44141</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44141</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44151</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44152</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44173</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44174</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44174</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>44174</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44180</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44180</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44186</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>44200</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44200</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>44208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         <v>44214</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         <v>44229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         <v>44236</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>44238</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>44259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44270</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44270</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44298</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44299</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44316</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44320</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44322</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44323</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44328</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44335</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>44336</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         <v>44340</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21593,7 +21593,7 @@
         <v>44340</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>44347</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44347</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44349</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>44349</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>44355</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44362</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44368</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44378</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44405</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44414</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44425</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44427</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44428</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44430</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44432</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
         <v>44434</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>44434</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>44441</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>44441</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44448</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44466</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44475</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44501</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44515</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44516</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>44533</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>44539</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44540</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>44540</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>44544</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44550</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>44550</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>44553</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44561</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44566</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44579</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44580</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44585</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44594</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44607</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44609</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44613</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44635</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44637</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44643</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44655</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44665</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44680</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44706</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44711</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44721</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44722</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44734</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44735</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44743</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44750</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44755</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44799</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         <v>44817</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27125,7 +27125,7 @@
         <v>44820</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>44838</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44840</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44851</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44861</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>44868</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>44872</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44880</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44882</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>44889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>44894</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>44907</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28528,7 +28528,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28585,7 +28585,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44928</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44952</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29445,7 +29445,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29502,7 +29502,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29559,7 +29559,7 @@
         <v>44956</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>44957</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44966</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44970</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30035,7 +30035,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>44977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30154,7 +30154,7 @@
         <v>44986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44993</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>45000</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>45002</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30506,7 +30506,7 @@
         <v>45004</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>45008</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45012</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45022</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>45028</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>45049</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45057</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>45077</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>45082</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45084</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45089</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31723,7 +31723,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45092</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>45096</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>45099</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>45106</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32526,7 +32526,7 @@
         <v>45107</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45112</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>45117</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32754,7 +32754,7 @@
         <v>45118</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32811,7 +32811,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>45125</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>45149</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45154</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45159</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>45161</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33220,7 +33220,7 @@
         <v>45163</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>45166</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>45169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -565,59 +565,179 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>A 37096-2023</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>45155</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>21</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>32</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Fjällfotad musseron
+Grantickeporing
+Knärot
+Läderdoftande fingersvamp
+Skäggvaxskivling
+Smalskaftslav
+Sprickporing
+Barrviolspindling
+Flattoppad klubbsvamp
+Garnlav
+Granticka
+Gultoppig fingersvamp
+Luddfingersvamp
+Lunglav
+Rödbrun klubbdyna
+Skogsfru
+Spillkråka
+Tretåig hackspett
+Ullticka
+Vitterspindling
+Äggvaxskivling
+Dropptaggsvamp
+Finbräken
+Guckusko
+Skinnlav
+Skogsknipprot
+Svavelriska
+Trådticka
+Tvåblad
+Brudsporre
+Fläcknycklar
+Ängsnycklar</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 37096-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 37096-2023.png")</f>
+        <v/>
+      </c>
+      <c r="U2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 37096-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 37096-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 37096-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 37096-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 37096-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>A 29992-2023</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B3" s="1" t="n">
         <v>45109</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="C3" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>93.3</v>
       </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" t="n">
         <v>11</v>
       </c>
-      <c r="J2" t="n">
-        <v>10</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K3" t="n">
         <v>3</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>14</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>16</v>
+      </c>
+      <c r="P3" t="n">
         <v>4</v>
       </c>
-      <c r="Q2" t="n">
-        <v>28</v>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>30</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Blylav
 Knärot
@@ -629,10 +749,12 @@
 Harticka
 Lunglav
 Skrovellav
+Talltita
 Tretåig hackspett
 Ullticka
 Vedskivlav
 Vedtrappmossa
+Äggvaxskivling
 Bårdlav
 Finbräken
 Guckusko
@@ -649,96 +771,96 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 29992-2023.png")</f>
         <v/>
       </c>
-      <c r="U2">
+      <c r="U3">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 29992-2023.png")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 29992-2023.docx")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 29992-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>A 51192-2019</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>43739</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="C4" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>14.6</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>11</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>12</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>6</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>7</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q4" t="n">
         <v>23</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Granticka
@@ -765,141 +887,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 51192-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 51192-2019.png")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 51192-2019.png")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 51192-2019.docx")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 51192-2019.docx")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 51192-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 51192-2019.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 37096-2023</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45155</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>21</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Fjällfotad musseron
-Knärot
-Läderdoftande fingersvamp
-Skäggvaxskivling
-Smalskaftslav
-Flattoppad klubbsvamp
-Luddfingersvamp
-Rödbrun klubbdyna
-Skogsfru
-Vitterspindling
-Äggvaxskivling
-Dropptaggsvamp
-Finbräken
-Guckusko
-Skinnlav
-Skogsknipprot
-Svavelriska
-Tvåblad
-Brudsporre
-Fläcknycklar
-Ängsnycklar</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 37096-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 37096-2023.png")</f>
-        <v/>
-      </c>
-      <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 37096-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 37096-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 37096-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 37096-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 37096-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -913,7 +926,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1030,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,7 +1135,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1222,7 +1235,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1321,7 +1334,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1420,7 +1433,7 @@
         <v>44817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1522,7 +1535,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1642,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1730,7 +1743,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1831,7 +1844,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1926,7 +1939,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2030,7 +2043,7 @@
         <v>44106</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2124,7 +2137,7 @@
         <v>45099</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2218,7 +2231,7 @@
         <v>43719</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2311,7 +2324,7 @@
         <v>44706</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2408,7 +2421,7 @@
         <v>44578</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2500,7 +2513,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2592,7 +2605,7 @@
         <v>45063</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2688,7 +2701,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2789,7 +2802,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2880,7 +2893,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2975,7 +2988,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3070,7 +3083,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3161,7 +3174,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3256,7 +3269,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3352,7 +3365,7 @@
         <v>44337</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3442,7 +3455,7 @@
         <v>44356</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3536,7 +3549,7 @@
         <v>44929</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3626,7 +3639,7 @@
         <v>44742</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3720,7 +3733,7 @@
         <v>44851</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3813,7 +3826,7 @@
         <v>44889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3907,7 +3920,7 @@
         <v>45028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3996,7 +4009,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4084,7 +4097,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4172,7 +4185,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4265,7 +4278,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4352,7 +4365,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4444,7 +4457,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4536,7 +4549,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4623,7 +4636,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4714,7 +4727,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4801,7 +4814,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4892,7 +4905,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4979,7 +4992,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5066,7 +5079,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5153,7 +5166,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5244,7 +5257,7 @@
         <v>43378</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5330,7 +5343,7 @@
         <v>43446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5416,7 +5429,7 @@
         <v>43656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5507,7 +5520,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5593,7 +5606,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5679,7 +5692,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5765,7 +5778,7 @@
         <v>44508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5856,7 +5869,7 @@
         <v>44693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5946,7 +5959,7 @@
         <v>44853</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6036,7 +6049,7 @@
         <v>44904</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6122,7 +6135,7 @@
         <v>44908</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6208,7 +6221,7 @@
         <v>44911</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6294,7 +6307,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6380,7 +6393,7 @@
         <v>45161</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6466,7 +6479,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6556,7 +6569,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6646,7 +6659,7 @@
         <v>43768</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6731,7 +6744,7 @@
         <v>43784</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6816,7 +6829,7 @@
         <v>43893</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6901,7 +6914,7 @@
         <v>44047</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6990,7 +7003,7 @@
         <v>44165</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7075,7 +7088,7 @@
         <v>44272</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7160,7 +7173,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7245,7 +7258,7 @@
         <v>44355</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7330,7 +7343,7 @@
         <v>44355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7415,7 +7428,7 @@
         <v>44368</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7500,7 +7513,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7590,7 +7603,7 @@
         <v>44441</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7675,7 +7688,7 @@
         <v>44476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7760,7 +7773,7 @@
         <v>44491</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7850,7 +7863,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7940,7 +7953,7 @@
         <v>44623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8025,7 +8038,7 @@
         <v>44694</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8115,7 +8128,7 @@
         <v>44694</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8205,7 +8218,7 @@
         <v>44742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8299,7 +8312,7 @@
         <v>44742</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8389,7 +8402,7 @@
         <v>44755</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8479,7 +8492,7 @@
         <v>44785</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8564,7 +8577,7 @@
         <v>44844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8654,7 +8667,7 @@
         <v>44890</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8744,7 +8757,7 @@
         <v>44900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8829,7 +8842,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8919,7 +8932,7 @@
         <v>45096</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9004,7 +9017,7 @@
         <v>43314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9061,7 +9074,7 @@
         <v>43314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9118,7 +9131,7 @@
         <v>43321</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9175,7 +9188,7 @@
         <v>43321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9232,7 +9245,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9289,7 +9302,7 @@
         <v>43333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9346,7 +9359,7 @@
         <v>43336</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9408,7 +9421,7 @@
         <v>43364</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9465,7 +9478,7 @@
         <v>43364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9522,7 +9535,7 @@
         <v>43371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9579,7 +9592,7 @@
         <v>43371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9636,7 +9649,7 @@
         <v>43371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9693,7 +9706,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9750,7 +9763,7 @@
         <v>43381</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9807,7 +9820,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9869,7 +9882,7 @@
         <v>43398</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9931,7 +9944,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9988,7 +10001,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10045,7 +10058,7 @@
         <v>43402</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10102,7 +10115,7 @@
         <v>43411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10159,7 +10172,7 @@
         <v>43412</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10216,7 +10229,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10273,7 +10286,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10330,7 +10343,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10387,7 +10400,7 @@
         <v>43426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10444,7 +10457,7 @@
         <v>43439</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10501,7 +10514,7 @@
         <v>43440</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10558,7 +10571,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10615,7 +10628,7 @@
         <v>43451</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10672,7 +10685,7 @@
         <v>43451</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10729,7 +10742,7 @@
         <v>43452</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10786,7 +10799,7 @@
         <v>43454</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10843,7 +10856,7 @@
         <v>43454</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10900,7 +10913,7 @@
         <v>43455</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10957,7 +10970,7 @@
         <v>43472</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11014,7 +11027,7 @@
         <v>43472</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11071,7 +11084,7 @@
         <v>43475</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11128,7 +11141,7 @@
         <v>43476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11185,7 +11198,7 @@
         <v>43478</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11242,7 +11255,7 @@
         <v>43487</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11299,7 +11312,7 @@
         <v>43489</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11356,7 +11369,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11413,7 +11426,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11470,7 +11483,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11527,7 +11540,7 @@
         <v>43494</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11584,7 +11597,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11641,7 +11654,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11698,7 +11711,7 @@
         <v>43503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11755,7 +11768,7 @@
         <v>43514</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11812,7 +11825,7 @@
         <v>43530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11869,7 +11882,7 @@
         <v>43542</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11926,7 +11939,7 @@
         <v>43550</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11983,7 +11996,7 @@
         <v>43571</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12040,7 +12053,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12097,7 +12110,7 @@
         <v>43581</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12159,7 +12172,7 @@
         <v>43584</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12216,7 +12229,7 @@
         <v>43584</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12273,7 +12286,7 @@
         <v>43594</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12330,7 +12343,7 @@
         <v>43595</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12392,7 +12405,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12449,7 +12462,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12506,7 +12519,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12563,7 +12576,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12620,7 +12633,7 @@
         <v>43620</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12677,7 +12690,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12734,7 +12747,7 @@
         <v>43635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12791,7 +12804,7 @@
         <v>43636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12853,7 +12866,7 @@
         <v>43640</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12910,7 +12923,7 @@
         <v>43640</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12967,7 +12980,7 @@
         <v>43650</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13024,7 +13037,7 @@
         <v>43651</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13086,7 +13099,7 @@
         <v>43654</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13148,7 +13161,7 @@
         <v>43654</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13205,7 +13218,7 @@
         <v>43655</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13262,7 +13275,7 @@
         <v>43656</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13319,7 +13332,7 @@
         <v>43656</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13376,7 +13389,7 @@
         <v>43657</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13433,7 +13446,7 @@
         <v>43670</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13490,7 +13503,7 @@
         <v>43676</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13547,7 +13560,7 @@
         <v>43684</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13604,7 +13617,7 @@
         <v>43686</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13661,7 +13674,7 @@
         <v>43696</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13723,7 +13736,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13785,7 +13798,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13842,7 +13855,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13904,7 +13917,7 @@
         <v>43699</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13961,7 +13974,7 @@
         <v>43703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14018,7 +14031,7 @@
         <v>43703</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14075,7 +14088,7 @@
         <v>43718</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14137,7 +14150,7 @@
         <v>43724</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14199,7 +14212,7 @@
         <v>43725</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14261,7 +14274,7 @@
         <v>43727</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14318,7 +14331,7 @@
         <v>43732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14380,7 +14393,7 @@
         <v>43732</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14437,7 +14450,7 @@
         <v>43733</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14499,7 +14512,7 @@
         <v>43735</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14556,7 +14569,7 @@
         <v>43738</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14618,7 +14631,7 @@
         <v>43738</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14675,7 +14688,7 @@
         <v>43747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14732,7 +14745,7 @@
         <v>43748</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14789,7 +14802,7 @@
         <v>43749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14846,7 +14859,7 @@
         <v>43752</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14908,7 +14921,7 @@
         <v>43761</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14965,7 +14978,7 @@
         <v>43762</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15027,7 +15040,7 @@
         <v>43768</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15084,7 +15097,7 @@
         <v>43770</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15141,7 +15154,7 @@
         <v>43770</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15198,7 +15211,7 @@
         <v>43773</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15255,7 +15268,7 @@
         <v>43776</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15312,7 +15325,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15369,7 +15382,7 @@
         <v>43781</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15426,7 +15439,7 @@
         <v>43781</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15483,7 +15496,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15540,7 +15553,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15602,7 +15615,7 @@
         <v>43794</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15659,7 +15672,7 @@
         <v>43802</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15716,7 +15729,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15773,7 +15786,7 @@
         <v>43809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15830,7 +15843,7 @@
         <v>43809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15887,7 +15900,7 @@
         <v>43817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15944,7 +15957,7 @@
         <v>43838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16001,7 +16014,7 @@
         <v>43840</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16058,7 +16071,7 @@
         <v>43840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16115,7 +16128,7 @@
         <v>43840</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16172,7 +16185,7 @@
         <v>43861</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16229,7 +16242,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16286,7 +16299,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16343,7 +16356,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16400,7 +16413,7 @@
         <v>43871</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16457,7 +16470,7 @@
         <v>43871</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16514,7 +16527,7 @@
         <v>43875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16571,7 +16584,7 @@
         <v>43895</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16628,7 +16641,7 @@
         <v>43901</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16685,7 +16698,7 @@
         <v>43906</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16742,7 +16755,7 @@
         <v>43909</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16799,7 +16812,7 @@
         <v>43910</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16861,7 +16874,7 @@
         <v>43917</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16918,7 +16931,7 @@
         <v>43928</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16975,7 +16988,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17032,7 +17045,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17089,7 +17102,7 @@
         <v>43943</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17146,7 +17159,7 @@
         <v>43944</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17203,7 +17216,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17260,7 +17273,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17317,7 +17330,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17374,7 +17387,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17431,7 +17444,7 @@
         <v>43978</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17488,7 +17501,7 @@
         <v>43986</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17545,7 +17558,7 @@
         <v>43992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17602,7 +17615,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17659,7 +17672,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17716,7 +17729,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17773,7 +17786,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17830,7 +17843,7 @@
         <v>44027</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17892,7 +17905,7 @@
         <v>44035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17949,7 +17962,7 @@
         <v>44055</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18006,7 +18019,7 @@
         <v>44057</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18068,7 +18081,7 @@
         <v>44076</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18125,7 +18138,7 @@
         <v>44077</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18187,7 +18200,7 @@
         <v>44077</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18249,7 +18262,7 @@
         <v>44082</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18306,7 +18319,7 @@
         <v>44090</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18368,7 +18381,7 @@
         <v>44106</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18430,7 +18443,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18492,7 +18505,7 @@
         <v>44106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18554,7 +18567,7 @@
         <v>44110</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18616,7 +18629,7 @@
         <v>44113</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18673,7 +18686,7 @@
         <v>44118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18730,7 +18743,7 @@
         <v>44118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18787,7 +18800,7 @@
         <v>44118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18844,7 +18857,7 @@
         <v>44123</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18906,7 +18919,7 @@
         <v>44125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18963,7 +18976,7 @@
         <v>44126</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19020,7 +19033,7 @@
         <v>44126</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19077,7 +19090,7 @@
         <v>44133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19134,7 +19147,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19191,7 +19204,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19253,7 +19266,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19315,7 +19328,7 @@
         <v>44140</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19377,7 +19390,7 @@
         <v>44140</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19439,7 +19452,7 @@
         <v>44141</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19501,7 +19514,7 @@
         <v>44141</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19563,7 +19576,7 @@
         <v>44151</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19625,7 +19638,7 @@
         <v>44152</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19682,7 +19695,7 @@
         <v>44173</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19744,7 +19757,7 @@
         <v>44174</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19806,7 +19819,7 @@
         <v>44174</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19868,7 +19881,7 @@
         <v>44174</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19930,7 +19943,7 @@
         <v>44180</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19987,7 +20000,7 @@
         <v>44180</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20044,7 +20057,7 @@
         <v>44186</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20101,7 +20114,7 @@
         <v>44187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20158,7 +20171,7 @@
         <v>44200</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20215,7 +20228,7 @@
         <v>44200</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20272,7 +20285,7 @@
         <v>44208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20329,7 +20342,7 @@
         <v>44214</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20386,7 +20399,7 @@
         <v>44229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20443,7 +20456,7 @@
         <v>44236</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20500,7 +20513,7 @@
         <v>44238</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20557,7 +20570,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20614,7 +20627,7 @@
         <v>44259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20671,7 +20684,7 @@
         <v>44259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20733,7 +20746,7 @@
         <v>44270</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20790,7 +20803,7 @@
         <v>44270</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20847,7 +20860,7 @@
         <v>44298</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20904,7 +20917,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20961,7 +20974,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21018,7 +21031,7 @@
         <v>44299</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21075,7 +21088,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21137,7 +21150,7 @@
         <v>44316</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21194,7 +21207,7 @@
         <v>44320</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21251,7 +21264,7 @@
         <v>44322</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21308,7 +21321,7 @@
         <v>44323</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21365,7 +21378,7 @@
         <v>44328</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21422,7 +21435,7 @@
         <v>44335</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21479,7 +21492,7 @@
         <v>44336</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21536,7 +21549,7 @@
         <v>44340</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21593,7 +21606,7 @@
         <v>44340</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21650,7 +21663,7 @@
         <v>44347</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21707,7 +21720,7 @@
         <v>44347</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21764,7 +21777,7 @@
         <v>44349</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21821,7 +21834,7 @@
         <v>44349</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21878,7 +21891,7 @@
         <v>44355</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21935,7 +21948,7 @@
         <v>44362</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21992,7 +22005,7 @@
         <v>44368</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22049,7 +22062,7 @@
         <v>44375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22106,7 +22119,7 @@
         <v>44375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22163,7 +22176,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22220,7 +22233,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22277,7 +22290,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22334,7 +22347,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22391,7 +22404,7 @@
         <v>44378</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22448,7 +22461,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22505,7 +22518,7 @@
         <v>44405</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22562,7 +22575,7 @@
         <v>44414</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22619,7 +22632,7 @@
         <v>44425</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22676,7 +22689,7 @@
         <v>44427</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22733,7 +22746,7 @@
         <v>44428</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22790,7 +22803,7 @@
         <v>44430</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22847,7 +22860,7 @@
         <v>44432</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22909,7 +22922,7 @@
         <v>44434</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22966,7 +22979,7 @@
         <v>44434</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23023,7 +23036,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23080,7 +23093,7 @@
         <v>44441</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23137,7 +23150,7 @@
         <v>44441</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23194,7 +23207,7 @@
         <v>44448</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23251,7 +23264,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23308,7 +23321,7 @@
         <v>44466</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23365,7 +23378,7 @@
         <v>44475</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23422,7 +23435,7 @@
         <v>44501</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23479,7 +23492,7 @@
         <v>44515</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23541,7 +23554,7 @@
         <v>44516</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23598,7 +23611,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23655,7 +23668,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23712,7 +23725,7 @@
         <v>44533</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23769,7 +23782,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23826,7 +23839,7 @@
         <v>44539</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23883,7 +23896,7 @@
         <v>44540</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23940,7 +23953,7 @@
         <v>44540</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23997,7 +24010,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24054,7 +24067,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24111,7 +24124,7 @@
         <v>44544</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24168,7 +24181,7 @@
         <v>44547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24225,7 +24238,7 @@
         <v>44550</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24282,7 +24295,7 @@
         <v>44550</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24339,7 +24352,7 @@
         <v>44553</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24396,7 +24409,7 @@
         <v>44561</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24453,7 +24466,7 @@
         <v>44566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24510,7 +24523,7 @@
         <v>44566</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24567,7 +24580,7 @@
         <v>44579</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24624,7 +24637,7 @@
         <v>44580</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24686,7 +24699,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24743,7 +24756,7 @@
         <v>44585</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24800,7 +24813,7 @@
         <v>44594</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24857,7 +24870,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24914,7 +24927,7 @@
         <v>44607</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24971,7 +24984,7 @@
         <v>44609</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25028,7 +25041,7 @@
         <v>44613</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25085,7 +25098,7 @@
         <v>44635</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25142,7 +25155,7 @@
         <v>44637</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25199,7 +25212,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25256,7 +25269,7 @@
         <v>44643</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25313,7 +25326,7 @@
         <v>44655</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25370,7 +25383,7 @@
         <v>44665</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25427,7 +25440,7 @@
         <v>44680</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25484,7 +25497,7 @@
         <v>44690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25541,7 +25554,7 @@
         <v>44706</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25598,7 +25611,7 @@
         <v>44711</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25655,7 +25668,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25712,7 +25725,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25769,7 +25782,7 @@
         <v>44721</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25826,7 +25839,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25883,7 +25896,7 @@
         <v>44722</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25945,7 +25958,7 @@
         <v>44734</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26002,7 +26015,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26059,7 +26072,7 @@
         <v>44735</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26116,7 +26129,7 @@
         <v>44742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26178,7 +26191,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26235,7 +26248,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26317,7 +26330,7 @@
         <v>44743</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26374,7 +26387,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26431,7 +26444,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26488,7 +26501,7 @@
         <v>44750</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26545,7 +26558,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26602,7 +26615,7 @@
         <v>44755</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26664,7 +26677,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26726,7 +26739,7 @@
         <v>44790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26783,7 +26796,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26840,7 +26853,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26897,7 +26910,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26954,7 +26967,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27011,7 +27024,7 @@
         <v>44799</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27068,7 +27081,7 @@
         <v>44817</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27125,7 +27138,7 @@
         <v>44820</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27182,7 +27195,7 @@
         <v>44838</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27244,7 +27257,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27306,7 +27319,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27368,7 +27381,7 @@
         <v>44840</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27425,7 +27438,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27482,7 +27495,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27539,7 +27552,7 @@
         <v>44851</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27596,7 +27609,7 @@
         <v>44852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27653,7 +27666,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27710,7 +27723,7 @@
         <v>44861</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27772,7 +27785,7 @@
         <v>44868</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27829,7 +27842,7 @@
         <v>44872</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27886,7 +27899,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27948,7 +27961,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28005,7 +28018,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28062,7 +28075,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28119,7 +28132,7 @@
         <v>44880</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28176,7 +28189,7 @@
         <v>44882</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28233,7 +28246,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28290,7 +28303,7 @@
         <v>44889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28347,7 +28360,7 @@
         <v>44894</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28404,7 +28417,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28466,7 +28479,7 @@
         <v>44907</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28528,7 +28541,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28585,7 +28598,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28642,7 +28655,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28704,7 +28717,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28761,7 +28774,7 @@
         <v>44922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28818,7 +28831,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28875,7 +28888,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28932,7 +28945,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28989,7 +29002,7 @@
         <v>44928</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29046,7 +29059,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29103,7 +29116,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29160,7 +29173,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29217,7 +29230,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29274,7 +29287,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29331,7 +29344,7 @@
         <v>44952</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29388,7 +29401,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29445,7 +29458,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29502,7 +29515,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29559,7 +29572,7 @@
         <v>44956</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29616,7 +29629,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29673,7 +29686,7 @@
         <v>44957</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29730,7 +29743,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29792,7 +29805,7 @@
         <v>44966</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29854,7 +29867,7 @@
         <v>44970</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29911,7 +29924,7 @@
         <v>44971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29973,7 +29986,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30035,7 +30048,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30092,7 +30105,7 @@
         <v>44977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30154,7 +30167,7 @@
         <v>44986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30216,7 +30229,7 @@
         <v>44993</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30273,7 +30286,7 @@
         <v>45000</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30330,7 +30343,7 @@
         <v>45002</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30387,7 +30400,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30444,7 +30457,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30506,7 +30519,7 @@
         <v>45004</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30563,7 +30576,7 @@
         <v>45008</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30620,7 +30633,7 @@
         <v>45012</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30677,7 +30690,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30734,7 +30747,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30791,7 +30804,7 @@
         <v>45022</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30853,7 +30866,7 @@
         <v>45028</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30910,7 +30923,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30967,7 +30980,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31024,7 +31037,7 @@
         <v>45037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31081,7 +31094,7 @@
         <v>45049</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31138,7 +31151,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31195,7 +31208,7 @@
         <v>45057</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31252,7 +31265,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31314,7 +31327,7 @@
         <v>45077</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31371,7 +31384,7 @@
         <v>45082</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31433,7 +31446,7 @@
         <v>45084</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31490,7 +31503,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31547,7 +31560,7 @@
         <v>45089</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31604,7 +31617,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31666,7 +31679,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31723,7 +31736,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31780,7 +31793,7 @@
         <v>45092</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31837,7 +31850,7 @@
         <v>45096</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31894,7 +31907,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31951,7 +31964,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32008,7 +32021,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32065,7 +32078,7 @@
         <v>45099</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32122,7 +32135,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32179,7 +32192,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32236,7 +32249,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32293,7 +32306,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32350,7 +32363,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32407,7 +32420,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32469,7 +32482,7 @@
         <v>45106</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32526,7 +32539,7 @@
         <v>45107</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32583,7 +32596,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32640,7 +32653,7 @@
         <v>45112</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32697,7 +32710,7 @@
         <v>45117</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32754,7 +32767,7 @@
         <v>45118</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32811,7 +32824,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32868,7 +32881,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32925,7 +32938,7 @@
         <v>45125</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32982,7 +32995,7 @@
         <v>45149</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33039,7 +33052,7 @@
         <v>45154</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33101,7 +33114,7 @@
         <v>45159</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33163,7 +33176,7 @@
         <v>45161</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33220,7 +33233,7 @@
         <v>45163</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33277,7 +33290,7 @@
         <v>45166</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33339,7 +33352,7 @@
         <v>45169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>44106</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45099</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43719</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44706</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>44578</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45063</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44337</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44356</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44929</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44742</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44851</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>45028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43378</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>44693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44853</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44904</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>44908</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>44911</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45161</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>43768</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43784</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43893</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44047</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>44165</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44272</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>44355</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>44368</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>44441</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44491</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>44694</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>44694</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>44742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>44742</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>44755</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44785</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44890</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>45096</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43321</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>43333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43336</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43364</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>43371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>43371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43381</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43398</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43402</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43412</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43439</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43440</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43451</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43451</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43452</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43454</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43454</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43455</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43472</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43472</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43475</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43478</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43487</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43489</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43494</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43514</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43542</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43550</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43571</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>43581</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43584</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>43584</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>43594</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43595</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43620</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>43640</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>43640</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>43650</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>43651</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43654</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43654</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43655</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43656</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43656</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43657</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43670</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43676</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43684</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43686</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43696</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43699</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>43703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>43703</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>43718</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>43724</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43725</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43727</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43732</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43733</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43735</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43738</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>43738</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>43748</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>43749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>43752</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>43761</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>43762</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>43768</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>43770</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>43770</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>43773</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>43776</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>43781</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>43781</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43794</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43802</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43840</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43840</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43861</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43871</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43871</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43895</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43901</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43906</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43909</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43910</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>43917</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>43928</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>43943</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>43944</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>43978</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43986</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>44027</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44055</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44057</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44076</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44077</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44077</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44082</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>44090</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44106</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>44110</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>44113</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18686,7 +18686,7 @@
         <v>44118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18743,7 +18743,7 @@
         <v>44118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44123</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44126</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44126</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>44140</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44140</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44141</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>44141</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44151</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44152</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>44173</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>44174</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>44174</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44174</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>44180</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>44180</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>44186</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>44187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>44200</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>44200</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>44208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>44214</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>44229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>44236</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>44238</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20570,7 +20570,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>44259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>44259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>44270</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>44270</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>44298</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>44299</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21150,7 +21150,7 @@
         <v>44316</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>44320</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>44322</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44323</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>44328</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44335</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44336</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44340</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44340</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44347</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>44347</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44349</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44349</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44355</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44362</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44368</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>44375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22119,7 +22119,7 @@
         <v>44375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>44378</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>44405</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>44414</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>44425</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>44427</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44428</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44430</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>44432</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>44434</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>44434</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>44441</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>44441</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44448</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>44466</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>44475</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>44501</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>44515</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44516</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>44533</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44539</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>44540</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>44540</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44544</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44550</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>44550</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>44553</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>44561</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>44566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>44566</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>44579</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>44580</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>44585</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44594</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24927,7 +24927,7 @@
         <v>44607</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>44609</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44613</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44635</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44637</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44643</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>44655</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>44665</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44680</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>44690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>44706</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25611,7 +25611,7 @@
         <v>44711</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>44721</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44722</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44734</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44735</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26129,7 +26129,7 @@
         <v>44742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26330,7 +26330,7 @@
         <v>44743</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26387,7 +26387,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26444,7 +26444,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44750</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44755</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>44790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26796,7 +26796,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26910,7 +26910,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27024,7 +27024,7 @@
         <v>44799</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>44817</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27138,7 +27138,7 @@
         <v>44820</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>44838</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44840</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44851</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44861</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44868</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>44872</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27961,7 +27961,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28018,7 +28018,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28075,7 +28075,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28132,7 +28132,7 @@
         <v>44880</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28189,7 +28189,7 @@
         <v>44882</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>44894</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44907</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44928</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44952</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44956</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44957</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44966</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>44970</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>44971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30048,7 +30048,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>44993</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>45000</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>45002</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>45004</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>45008</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45012</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>45022</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>45028</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>45037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>45049</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31151,7 +31151,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31208,7 +31208,7 @@
         <v>45057</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31265,7 +31265,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>45077</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31384,7 +31384,7 @@
         <v>45082</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>45084</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>45089</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>45092</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>45096</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>45099</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32420,7 +32420,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32482,7 +32482,7 @@
         <v>45106</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>45107</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32596,7 +32596,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32653,7 +32653,7 @@
         <v>45112</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32710,7 +32710,7 @@
         <v>45117</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>45118</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45125</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         <v>45149</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33052,7 +33052,7 @@
         <v>45154</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>45159</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>45161</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>45163</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>45166</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33352,7 +33352,7 @@
         <v>45169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>44106</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45099</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43719</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44706</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>44578</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45063</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44337</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44356</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44929</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44742</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44851</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>45028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43378</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>44693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44853</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44904</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>44908</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>44911</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45161</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>43768</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43784</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43893</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44047</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>44165</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44272</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>44355</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>44368</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>44441</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44491</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>44694</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>44694</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>44742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>44742</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>44755</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44785</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44890</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>45096</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43321</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>43333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43336</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43364</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>43371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>43371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43381</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43398</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43402</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43412</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43439</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43440</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43451</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43451</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43452</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43454</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43454</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43455</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43472</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43472</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43475</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43478</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43487</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43489</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43494</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43514</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43542</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43550</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43571</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>43581</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43584</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>43584</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>43594</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43595</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43620</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>43640</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>43640</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>43650</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>43651</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43654</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43654</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43655</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43656</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43656</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43657</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43670</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43676</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43684</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43686</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43696</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43699</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>43703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>43703</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>43718</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>43724</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43725</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43727</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43732</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43733</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43735</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43738</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>43738</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>43748</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>43749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>43752</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>43761</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>43762</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>43768</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>43770</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>43770</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>43773</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>43776</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>43781</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>43781</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43794</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43802</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43840</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43840</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43861</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43871</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43871</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43895</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43901</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43906</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43909</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43910</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>43917</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>43928</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>43943</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>43944</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>43978</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43986</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>44027</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44055</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44057</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44076</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44077</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44077</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44082</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>44090</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44106</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>44110</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>44113</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18686,7 +18686,7 @@
         <v>44118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18743,7 +18743,7 @@
         <v>44118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44123</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44126</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44126</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>44140</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44140</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44141</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>44141</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44151</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44152</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>44173</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>44174</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>44174</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44174</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>44180</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>44180</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>44186</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>44187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>44200</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>44200</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>44208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>44214</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>44229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>44236</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>44238</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20570,7 +20570,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>44259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>44259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>44270</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>44270</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>44298</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>44299</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21150,7 +21150,7 @@
         <v>44316</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>44320</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>44322</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44323</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>44328</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44335</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44336</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44340</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44340</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44347</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>44347</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44349</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44349</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44355</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44362</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44368</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>44375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22119,7 +22119,7 @@
         <v>44375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>44378</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>44405</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>44414</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>44425</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>44427</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44428</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44430</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>44432</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>44434</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>44434</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>44441</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>44441</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44448</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>44466</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>44475</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>44501</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>44515</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44516</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>44533</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44539</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>44540</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>44540</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44544</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44550</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>44550</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>44553</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>44561</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>44566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>44566</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>44579</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>44580</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>44585</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44594</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24927,7 +24927,7 @@
         <v>44607</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>44609</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44613</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44635</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44637</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44643</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>44655</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>44665</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44680</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>44690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>44706</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25611,7 +25611,7 @@
         <v>44711</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>44721</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44722</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44734</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44735</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26129,7 +26129,7 @@
         <v>44742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26330,7 +26330,7 @@
         <v>44743</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26387,7 +26387,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26444,7 +26444,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44750</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44755</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>44790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26796,7 +26796,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26910,7 +26910,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27024,7 +27024,7 @@
         <v>44799</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>44817</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27138,7 +27138,7 @@
         <v>44820</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>44838</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44840</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44851</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44861</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44868</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>44872</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27961,7 +27961,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28018,7 +28018,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28075,7 +28075,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28132,7 +28132,7 @@
         <v>44880</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28189,7 +28189,7 @@
         <v>44882</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>44894</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44907</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44928</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44952</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44956</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44957</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44966</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>44970</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>44971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30048,7 +30048,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>44993</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>45000</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>45002</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>45004</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>45008</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45012</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>45022</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>45028</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>45037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>45049</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31151,7 +31151,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31208,7 +31208,7 @@
         <v>45057</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31265,7 +31265,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>45077</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31384,7 +31384,7 @@
         <v>45082</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>45084</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>45089</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>45092</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>45096</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>45099</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32420,7 +32420,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32482,7 +32482,7 @@
         <v>45106</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>45107</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32596,7 +32596,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32653,7 +32653,7 @@
         <v>45112</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32710,7 +32710,7 @@
         <v>45117</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>45118</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45125</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         <v>45149</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33052,7 +33052,7 @@
         <v>45154</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>45159</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>45161</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>45163</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>45166</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33352,7 +33352,7 @@
         <v>45169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>44106</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45099</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43719</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44706</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>44578</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45063</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44337</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44356</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44929</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44742</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44851</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>45028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43378</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>44693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44853</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44904</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>44908</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>44911</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45161</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>43768</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43784</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43893</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44047</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>44165</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44272</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>44355</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>44368</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>44441</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44491</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>44694</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>44694</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>44742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>44742</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>44755</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44785</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44890</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>45096</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43321</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>43333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43336</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43364</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>43371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>43371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43381</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43398</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43402</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43412</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43439</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43440</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43451</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43451</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43452</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43454</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43454</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43455</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43472</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43472</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43475</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43478</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43487</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43489</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43494</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43514</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43542</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43550</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43571</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>43581</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43584</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>43584</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>43594</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43595</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43620</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>43640</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>43640</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>43650</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>43651</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43654</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43654</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43655</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43656</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43656</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43657</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43670</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43676</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43684</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43686</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43696</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43699</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>43703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>43703</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>43718</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>43724</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43725</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43727</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43732</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43733</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43735</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43738</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>43738</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>43748</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>43749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>43752</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>43761</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>43762</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>43768</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>43770</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>43770</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>43773</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>43776</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>43781</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>43781</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43794</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43802</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43840</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43840</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43861</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43871</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43871</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43895</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43901</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43906</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43909</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43910</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>43917</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>43928</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>43943</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>43944</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>43978</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43986</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>44027</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44055</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44057</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44076</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44077</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44077</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44082</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>44090</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44106</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>44110</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>44113</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18686,7 +18686,7 @@
         <v>44118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18743,7 +18743,7 @@
         <v>44118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44123</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44126</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44126</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>44140</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44140</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44141</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>44141</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44151</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44152</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>44173</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>44174</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>44174</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44174</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>44180</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>44180</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>44186</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>44187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>44200</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>44200</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>44208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>44214</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>44229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>44236</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>44238</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20570,7 +20570,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>44259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>44259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>44270</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>44270</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>44298</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>44299</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21150,7 +21150,7 @@
         <v>44316</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>44320</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>44322</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44323</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>44328</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44335</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44336</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44340</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44340</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44347</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>44347</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44349</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44349</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44355</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44362</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44368</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>44375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22119,7 +22119,7 @@
         <v>44375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>44378</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>44405</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>44414</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>44425</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>44427</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44428</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44430</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>44432</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>44434</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>44434</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>44441</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>44441</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44448</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>44466</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>44475</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>44501</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>44515</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44516</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>44533</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44539</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>44540</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>44540</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44544</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44550</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>44550</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>44553</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>44561</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>44566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>44566</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>44579</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>44580</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>44585</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44594</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24927,7 +24927,7 @@
         <v>44607</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>44609</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44613</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44635</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44637</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44643</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>44655</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>44665</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44680</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>44690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>44706</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25611,7 +25611,7 @@
         <v>44711</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>44721</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44722</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44734</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44735</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26129,7 +26129,7 @@
         <v>44742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26330,7 +26330,7 @@
         <v>44743</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26387,7 +26387,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26444,7 +26444,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44750</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44755</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>44790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26796,7 +26796,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26910,7 +26910,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27024,7 +27024,7 @@
         <v>44799</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>44817</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27138,7 +27138,7 @@
         <v>44820</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>44838</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44840</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44851</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44861</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44868</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>44872</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27961,7 +27961,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28018,7 +28018,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28075,7 +28075,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28132,7 +28132,7 @@
         <v>44880</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28189,7 +28189,7 @@
         <v>44882</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>44894</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44907</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44928</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44952</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44956</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44957</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44966</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>44970</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>44971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30048,7 +30048,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>44993</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>45000</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>45002</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>45004</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>45008</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45012</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>45022</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>45028</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>45037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>45049</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31151,7 +31151,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31208,7 +31208,7 @@
         <v>45057</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31265,7 +31265,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>45077</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31384,7 +31384,7 @@
         <v>45082</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>45084</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>45089</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>45092</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>45096</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>45099</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32420,7 +32420,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32482,7 +32482,7 @@
         <v>45106</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>45107</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32596,7 +32596,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32653,7 +32653,7 @@
         <v>45112</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32710,7 +32710,7 @@
         <v>45117</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>45118</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45125</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         <v>45149</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33052,7 +33052,7 @@
         <v>45154</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>45159</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>45161</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>45163</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>45166</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33352,7 +33352,7 @@
         <v>45169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -963,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
@@ -979,6 +979,7 @@
 Grangråticka
 Läderdoftande fingersvamp
 Rynkskinn
+Siljansspindling
 Spricktaggsvamp
 Svartfjällig musseron
 Taggfingersvamp
@@ -1030,7 +1031,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1135,7 +1136,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1236,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1334,7 +1335,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1433,7 +1434,7 @@
         <v>44817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1535,7 +1536,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1643,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1743,7 +1744,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1844,7 +1845,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1940,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2043,7 +2044,7 @@
         <v>44106</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2137,7 +2138,7 @@
         <v>45099</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2231,7 +2232,7 @@
         <v>43719</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2324,7 +2325,7 @@
         <v>44706</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2421,7 +2422,7 @@
         <v>44578</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2513,7 +2514,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2605,7 +2606,7 @@
         <v>45063</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2702,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2802,7 +2803,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2893,7 +2894,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2988,7 +2989,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3083,7 +3084,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3174,7 +3175,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3269,7 +3270,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3365,7 +3366,7 @@
         <v>44337</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3455,7 +3456,7 @@
         <v>44356</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3549,7 +3550,7 @@
         <v>44929</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3639,7 +3640,7 @@
         <v>44742</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3733,7 +3734,7 @@
         <v>44851</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3826,7 +3827,7 @@
         <v>44889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3920,7 +3921,7 @@
         <v>45028</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4009,7 +4010,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4097,7 +4098,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4185,7 +4186,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4278,7 +4279,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4365,7 +4366,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4457,7 +4458,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4549,7 +4550,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4636,7 +4637,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4727,7 +4728,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4814,7 +4815,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4905,7 +4906,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4992,7 +4993,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5079,7 +5080,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5167,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5257,7 +5258,7 @@
         <v>43378</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5343,7 +5344,7 @@
         <v>43446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5429,7 +5430,7 @@
         <v>43656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5520,7 +5521,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5606,7 +5607,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5692,7 +5693,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5778,7 +5779,7 @@
         <v>44508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5869,7 +5870,7 @@
         <v>44693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5959,7 +5960,7 @@
         <v>44853</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6049,7 +6050,7 @@
         <v>44904</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6135,7 +6136,7 @@
         <v>44908</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6221,7 +6222,7 @@
         <v>44911</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6307,7 +6308,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6393,7 +6394,7 @@
         <v>45161</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6479,7 +6480,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6569,7 +6570,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6659,7 +6660,7 @@
         <v>43768</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6744,7 +6745,7 @@
         <v>43784</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6829,7 +6830,7 @@
         <v>43893</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6914,7 +6915,7 @@
         <v>44047</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7003,7 +7004,7 @@
         <v>44165</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7088,7 +7089,7 @@
         <v>44272</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7173,7 +7174,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7258,7 +7259,7 @@
         <v>44355</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7343,7 +7344,7 @@
         <v>44355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7428,7 +7429,7 @@
         <v>44368</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7513,7 +7514,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7603,7 +7604,7 @@
         <v>44441</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7688,7 +7689,7 @@
         <v>44476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7773,7 +7774,7 @@
         <v>44491</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7863,7 +7864,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7953,7 +7954,7 @@
         <v>44623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8038,7 +8039,7 @@
         <v>44694</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8128,7 +8129,7 @@
         <v>44694</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8218,7 +8219,7 @@
         <v>44742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8312,7 +8313,7 @@
         <v>44742</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8402,7 +8403,7 @@
         <v>44755</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8492,7 +8493,7 @@
         <v>44785</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8577,7 +8578,7 @@
         <v>44844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8667,7 +8668,7 @@
         <v>44890</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8757,7 +8758,7 @@
         <v>44900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8842,7 +8843,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8932,7 +8933,7 @@
         <v>45096</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9017,7 +9018,7 @@
         <v>43314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9074,7 +9075,7 @@
         <v>43314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9131,7 +9132,7 @@
         <v>43321</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9188,7 +9189,7 @@
         <v>43321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9245,7 +9246,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9302,7 +9303,7 @@
         <v>43333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9359,7 +9360,7 @@
         <v>43336</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9421,7 +9422,7 @@
         <v>43364</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9478,7 +9479,7 @@
         <v>43364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9535,7 +9536,7 @@
         <v>43371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9592,7 +9593,7 @@
         <v>43371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9649,7 +9650,7 @@
         <v>43371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9706,7 +9707,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9763,7 +9764,7 @@
         <v>43381</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9820,7 +9821,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9882,7 +9883,7 @@
         <v>43398</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9944,7 +9945,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10001,7 +10002,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10058,7 +10059,7 @@
         <v>43402</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10115,7 +10116,7 @@
         <v>43411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10172,7 +10173,7 @@
         <v>43412</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10229,7 +10230,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10286,7 +10287,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10343,7 +10344,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10400,7 +10401,7 @@
         <v>43426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10457,7 +10458,7 @@
         <v>43439</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10514,7 +10515,7 @@
         <v>43440</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10571,7 +10572,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10628,7 +10629,7 @@
         <v>43451</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10685,7 +10686,7 @@
         <v>43451</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10742,7 +10743,7 @@
         <v>43452</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10799,7 +10800,7 @@
         <v>43454</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10856,7 +10857,7 @@
         <v>43454</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10913,7 +10914,7 @@
         <v>43455</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10970,7 +10971,7 @@
         <v>43472</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11027,7 +11028,7 @@
         <v>43472</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11084,7 +11085,7 @@
         <v>43475</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11141,7 +11142,7 @@
         <v>43476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11198,7 +11199,7 @@
         <v>43478</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11255,7 +11256,7 @@
         <v>43487</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11312,7 +11313,7 @@
         <v>43489</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11369,7 +11370,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11426,7 +11427,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11483,7 +11484,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11540,7 +11541,7 @@
         <v>43494</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11597,7 +11598,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11654,7 +11655,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11711,7 +11712,7 @@
         <v>43503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11768,7 +11769,7 @@
         <v>43514</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11825,7 +11826,7 @@
         <v>43530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11882,7 +11883,7 @@
         <v>43542</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11939,7 +11940,7 @@
         <v>43550</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11996,7 +11997,7 @@
         <v>43571</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12053,7 +12054,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12110,7 +12111,7 @@
         <v>43581</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12172,7 +12173,7 @@
         <v>43584</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12229,7 +12230,7 @@
         <v>43584</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12286,7 +12287,7 @@
         <v>43594</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12343,7 +12344,7 @@
         <v>43595</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12405,7 +12406,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12462,7 +12463,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12519,7 +12520,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12576,7 +12577,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12633,7 +12634,7 @@
         <v>43620</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12690,7 +12691,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12747,7 +12748,7 @@
         <v>43635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12804,7 +12805,7 @@
         <v>43636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12866,7 +12867,7 @@
         <v>43640</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12923,7 +12924,7 @@
         <v>43640</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12980,7 +12981,7 @@
         <v>43650</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13037,7 +13038,7 @@
         <v>43651</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13099,7 +13100,7 @@
         <v>43654</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13161,7 +13162,7 @@
         <v>43654</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13218,7 +13219,7 @@
         <v>43655</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13275,7 +13276,7 @@
         <v>43656</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13332,7 +13333,7 @@
         <v>43656</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13389,7 +13390,7 @@
         <v>43657</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13446,7 +13447,7 @@
         <v>43670</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13503,7 +13504,7 @@
         <v>43676</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13560,7 +13561,7 @@
         <v>43684</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13617,7 +13618,7 @@
         <v>43686</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13674,7 +13675,7 @@
         <v>43696</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13736,7 +13737,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13798,7 +13799,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13855,7 +13856,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13917,7 +13918,7 @@
         <v>43699</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13974,7 +13975,7 @@
         <v>43703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14031,7 +14032,7 @@
         <v>43703</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14088,7 +14089,7 @@
         <v>43718</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14150,7 +14151,7 @@
         <v>43724</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14212,7 +14213,7 @@
         <v>43725</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14274,7 +14275,7 @@
         <v>43727</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14331,7 +14332,7 @@
         <v>43732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14393,7 +14394,7 @@
         <v>43732</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14450,7 +14451,7 @@
         <v>43733</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14512,7 +14513,7 @@
         <v>43735</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14569,7 +14570,7 @@
         <v>43738</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14631,7 +14632,7 @@
         <v>43738</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14688,7 +14689,7 @@
         <v>43747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14745,7 +14746,7 @@
         <v>43748</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14802,7 +14803,7 @@
         <v>43749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14859,7 +14860,7 @@
         <v>43752</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14921,7 +14922,7 @@
         <v>43761</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14978,7 +14979,7 @@
         <v>43762</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15040,7 +15041,7 @@
         <v>43768</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15097,7 +15098,7 @@
         <v>43770</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15154,7 +15155,7 @@
         <v>43770</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15211,7 +15212,7 @@
         <v>43773</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15268,7 +15269,7 @@
         <v>43776</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15325,7 +15326,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15382,7 +15383,7 @@
         <v>43781</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15439,7 +15440,7 @@
         <v>43781</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15496,7 +15497,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15553,7 +15554,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15615,7 +15616,7 @@
         <v>43794</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15672,7 +15673,7 @@
         <v>43802</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15729,7 +15730,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15786,7 +15787,7 @@
         <v>43809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15843,7 +15844,7 @@
         <v>43809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15900,7 +15901,7 @@
         <v>43817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15957,7 +15958,7 @@
         <v>43838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16014,7 +16015,7 @@
         <v>43840</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16071,7 +16072,7 @@
         <v>43840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16128,7 +16129,7 @@
         <v>43840</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16185,7 +16186,7 @@
         <v>43861</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16242,7 +16243,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16299,7 +16300,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16356,7 +16357,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16413,7 +16414,7 @@
         <v>43871</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16470,7 +16471,7 @@
         <v>43871</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16527,7 +16528,7 @@
         <v>43875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16584,7 +16585,7 @@
         <v>43895</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16641,7 +16642,7 @@
         <v>43901</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16698,7 +16699,7 @@
         <v>43906</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16755,7 +16756,7 @@
         <v>43909</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16812,7 +16813,7 @@
         <v>43910</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16874,7 +16875,7 @@
         <v>43917</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16931,7 +16932,7 @@
         <v>43928</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16988,7 +16989,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17045,7 +17046,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17102,7 +17103,7 @@
         <v>43943</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17159,7 +17160,7 @@
         <v>43944</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17216,7 +17217,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17273,7 +17274,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17330,7 +17331,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17387,7 +17388,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17444,7 +17445,7 @@
         <v>43978</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17501,7 +17502,7 @@
         <v>43986</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17558,7 +17559,7 @@
         <v>43992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17615,7 +17616,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17672,7 +17673,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17729,7 +17730,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17786,7 +17787,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17843,7 +17844,7 @@
         <v>44027</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17905,7 +17906,7 @@
         <v>44035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17962,7 +17963,7 @@
         <v>44055</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18019,7 +18020,7 @@
         <v>44057</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18081,7 +18082,7 @@
         <v>44076</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18138,7 +18139,7 @@
         <v>44077</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18200,7 +18201,7 @@
         <v>44077</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18262,7 +18263,7 @@
         <v>44082</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18319,7 +18320,7 @@
         <v>44090</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18381,7 +18382,7 @@
         <v>44106</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18443,7 +18444,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18505,7 +18506,7 @@
         <v>44106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18567,7 +18568,7 @@
         <v>44110</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18629,7 +18630,7 @@
         <v>44113</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18686,7 +18687,7 @@
         <v>44118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18743,7 +18744,7 @@
         <v>44118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18800,7 +18801,7 @@
         <v>44118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18857,7 +18858,7 @@
         <v>44123</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18919,7 +18920,7 @@
         <v>44125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18976,7 +18977,7 @@
         <v>44126</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19033,7 +19034,7 @@
         <v>44126</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19090,7 +19091,7 @@
         <v>44133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19147,7 +19148,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19204,7 +19205,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19266,7 +19267,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19328,7 +19329,7 @@
         <v>44140</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19390,7 +19391,7 @@
         <v>44140</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19452,7 +19453,7 @@
         <v>44141</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19514,7 +19515,7 @@
         <v>44141</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19576,7 +19577,7 @@
         <v>44151</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19638,7 +19639,7 @@
         <v>44152</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19695,7 +19696,7 @@
         <v>44173</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19757,7 +19758,7 @@
         <v>44174</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19819,7 +19820,7 @@
         <v>44174</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19881,7 +19882,7 @@
         <v>44174</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19943,7 +19944,7 @@
         <v>44180</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20000,7 +20001,7 @@
         <v>44180</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20057,7 +20058,7 @@
         <v>44186</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20114,7 +20115,7 @@
         <v>44187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20171,7 +20172,7 @@
         <v>44200</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20228,7 +20229,7 @@
         <v>44200</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20285,7 +20286,7 @@
         <v>44208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20342,7 +20343,7 @@
         <v>44214</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20399,7 +20400,7 @@
         <v>44229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20456,7 +20457,7 @@
         <v>44236</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20513,7 +20514,7 @@
         <v>44238</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20570,7 +20571,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20627,7 +20628,7 @@
         <v>44259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20684,7 +20685,7 @@
         <v>44259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20746,7 +20747,7 @@
         <v>44270</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20803,7 +20804,7 @@
         <v>44270</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20860,7 +20861,7 @@
         <v>44298</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20917,7 +20918,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20974,7 +20975,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21031,7 +21032,7 @@
         <v>44299</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21088,7 +21089,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21150,7 +21151,7 @@
         <v>44316</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21207,7 +21208,7 @@
         <v>44320</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21264,7 +21265,7 @@
         <v>44322</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21321,7 +21322,7 @@
         <v>44323</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21378,7 +21379,7 @@
         <v>44328</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21435,7 +21436,7 @@
         <v>44335</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21492,7 +21493,7 @@
         <v>44336</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21549,7 +21550,7 @@
         <v>44340</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21606,7 +21607,7 @@
         <v>44340</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21663,7 +21664,7 @@
         <v>44347</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21720,7 +21721,7 @@
         <v>44347</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21777,7 +21778,7 @@
         <v>44349</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21834,7 +21835,7 @@
         <v>44349</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21891,7 +21892,7 @@
         <v>44355</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21948,7 +21949,7 @@
         <v>44362</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22005,7 +22006,7 @@
         <v>44368</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22062,7 +22063,7 @@
         <v>44375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22119,7 +22120,7 @@
         <v>44375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22176,7 +22177,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22233,7 +22234,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22290,7 +22291,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22347,7 +22348,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22404,7 +22405,7 @@
         <v>44378</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22461,7 +22462,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22518,7 +22519,7 @@
         <v>44405</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22575,7 +22576,7 @@
         <v>44414</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22632,7 +22633,7 @@
         <v>44425</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22689,7 +22690,7 @@
         <v>44427</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22746,7 +22747,7 @@
         <v>44428</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22803,7 +22804,7 @@
         <v>44430</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22860,7 +22861,7 @@
         <v>44432</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22922,7 +22923,7 @@
         <v>44434</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22979,7 +22980,7 @@
         <v>44434</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23036,7 +23037,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23093,7 +23094,7 @@
         <v>44441</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23150,7 +23151,7 @@
         <v>44441</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23207,7 +23208,7 @@
         <v>44448</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23264,7 +23265,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23321,7 +23322,7 @@
         <v>44466</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23378,7 +23379,7 @@
         <v>44475</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23435,7 +23436,7 @@
         <v>44501</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23492,7 +23493,7 @@
         <v>44515</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23554,7 +23555,7 @@
         <v>44516</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23611,7 +23612,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23668,7 +23669,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23725,7 +23726,7 @@
         <v>44533</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23782,7 +23783,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23839,7 +23840,7 @@
         <v>44539</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23896,7 +23897,7 @@
         <v>44540</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23953,7 +23954,7 @@
         <v>44540</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24010,7 +24011,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24067,7 +24068,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24124,7 +24125,7 @@
         <v>44544</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24181,7 +24182,7 @@
         <v>44547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24238,7 +24239,7 @@
         <v>44550</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24295,7 +24296,7 @@
         <v>44550</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24352,7 +24353,7 @@
         <v>44553</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24409,7 +24410,7 @@
         <v>44561</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24466,7 +24467,7 @@
         <v>44566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24523,7 +24524,7 @@
         <v>44566</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24580,7 +24581,7 @@
         <v>44579</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24637,7 +24638,7 @@
         <v>44580</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24699,7 +24700,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24756,7 +24757,7 @@
         <v>44585</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24813,7 +24814,7 @@
         <v>44594</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24870,7 +24871,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24927,7 +24928,7 @@
         <v>44607</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24984,7 +24985,7 @@
         <v>44609</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25041,7 +25042,7 @@
         <v>44613</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25098,7 +25099,7 @@
         <v>44635</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25155,7 +25156,7 @@
         <v>44637</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25212,7 +25213,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25269,7 +25270,7 @@
         <v>44643</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25326,7 +25327,7 @@
         <v>44655</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25383,7 +25384,7 @@
         <v>44665</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25440,7 +25441,7 @@
         <v>44680</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25497,7 +25498,7 @@
         <v>44690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25554,7 +25555,7 @@
         <v>44706</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25611,7 +25612,7 @@
         <v>44711</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25668,7 +25669,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25725,7 +25726,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25782,7 +25783,7 @@
         <v>44721</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25839,7 +25840,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25896,7 +25897,7 @@
         <v>44722</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25958,7 +25959,7 @@
         <v>44734</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26015,7 +26016,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26072,7 +26073,7 @@
         <v>44735</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26129,7 +26130,7 @@
         <v>44742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26191,7 +26192,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26248,7 +26249,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26330,7 +26331,7 @@
         <v>44743</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26387,7 +26388,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26444,7 +26445,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26501,7 +26502,7 @@
         <v>44750</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26558,7 +26559,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26615,7 +26616,7 @@
         <v>44755</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26677,7 +26678,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26739,7 +26740,7 @@
         <v>44790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26796,7 +26797,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26853,7 +26854,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26910,7 +26911,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26967,7 +26968,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27024,7 +27025,7 @@
         <v>44799</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27081,7 +27082,7 @@
         <v>44817</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27138,7 +27139,7 @@
         <v>44820</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27195,7 +27196,7 @@
         <v>44838</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27257,7 +27258,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27319,7 +27320,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27381,7 +27382,7 @@
         <v>44840</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27438,7 +27439,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27495,7 +27496,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27552,7 +27553,7 @@
         <v>44851</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27609,7 +27610,7 @@
         <v>44852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27666,7 +27667,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27723,7 +27724,7 @@
         <v>44861</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27785,7 +27786,7 @@
         <v>44868</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27842,7 +27843,7 @@
         <v>44872</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27899,7 +27900,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27961,7 +27962,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28018,7 +28019,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28075,7 +28076,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28132,7 +28133,7 @@
         <v>44880</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28189,7 +28190,7 @@
         <v>44882</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28246,7 +28247,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28303,7 +28304,7 @@
         <v>44889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28360,7 +28361,7 @@
         <v>44894</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28417,7 +28418,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28479,7 +28480,7 @@
         <v>44907</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28541,7 +28542,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28598,7 +28599,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28655,7 +28656,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28717,7 +28718,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28774,7 +28775,7 @@
         <v>44922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28831,7 +28832,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28888,7 +28889,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28945,7 +28946,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29002,7 +29003,7 @@
         <v>44928</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29059,7 +29060,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29116,7 +29117,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29173,7 +29174,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29230,7 +29231,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29287,7 +29288,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29344,7 +29345,7 @@
         <v>44952</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29401,7 +29402,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29458,7 +29459,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29515,7 +29516,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29572,7 +29573,7 @@
         <v>44956</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29629,7 +29630,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29686,7 +29687,7 @@
         <v>44957</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29743,7 +29744,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29805,7 +29806,7 @@
         <v>44966</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29867,7 +29868,7 @@
         <v>44970</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29924,7 +29925,7 @@
         <v>44971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29986,7 +29987,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30048,7 +30049,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30105,7 +30106,7 @@
         <v>44977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30167,7 +30168,7 @@
         <v>44986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30229,7 +30230,7 @@
         <v>44993</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30286,7 +30287,7 @@
         <v>45000</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30343,7 +30344,7 @@
         <v>45002</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30400,7 +30401,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30457,7 +30458,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30519,7 +30520,7 @@
         <v>45004</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30576,7 +30577,7 @@
         <v>45008</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30633,7 +30634,7 @@
         <v>45012</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30690,7 +30691,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30747,7 +30748,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30804,7 +30805,7 @@
         <v>45022</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30866,7 +30867,7 @@
         <v>45028</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30923,7 +30924,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30980,7 +30981,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31037,7 +31038,7 @@
         <v>45037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31094,7 +31095,7 @@
         <v>45049</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31151,7 +31152,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31208,7 +31209,7 @@
         <v>45057</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31265,7 +31266,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31327,7 +31328,7 @@
         <v>45077</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31384,7 +31385,7 @@
         <v>45082</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31446,7 +31447,7 @@
         <v>45084</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31503,7 +31504,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31560,7 +31561,7 @@
         <v>45089</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31617,7 +31618,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31679,7 +31680,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31736,7 +31737,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31793,7 +31794,7 @@
         <v>45092</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31850,7 +31851,7 @@
         <v>45096</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31907,7 +31908,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31964,7 +31965,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32021,7 +32022,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32078,7 +32079,7 @@
         <v>45099</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32135,7 +32136,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32192,7 +32193,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32249,7 +32250,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32306,7 +32307,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32363,7 +32364,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32420,7 +32421,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32482,7 +32483,7 @@
         <v>45106</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32539,7 +32540,7 @@
         <v>45107</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32596,7 +32597,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32653,7 +32654,7 @@
         <v>45112</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32710,7 +32711,7 @@
         <v>45117</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32767,7 +32768,7 @@
         <v>45118</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32824,7 +32825,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32881,7 +32882,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32938,7 +32939,7 @@
         <v>45125</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32995,7 +32996,7 @@
         <v>45149</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33052,7 +33053,7 @@
         <v>45154</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33114,7 +33115,7 @@
         <v>45159</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33176,7 +33177,7 @@
         <v>45161</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33233,7 +33234,7 @@
         <v>45163</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33290,7 +33291,7 @@
         <v>45166</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33352,7 +33353,7 @@
         <v>45169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -963,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
@@ -977,6 +977,7 @@
 Fjällfotad fingersvamp
 Fjällfotad musseron
 Grangråticka
+Kejsarskivling
 Läderdoftande fingersvamp
 Rynkskinn
 Siljansspindling
@@ -1031,7 +1032,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1136,7 +1137,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1236,7 +1237,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1335,7 +1336,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1434,7 +1435,7 @@
         <v>44817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1536,7 +1537,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1643,7 +1644,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1744,7 +1745,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1845,7 +1846,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1940,7 +1941,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2044,7 +2045,7 @@
         <v>44106</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2138,7 +2139,7 @@
         <v>45099</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2232,7 +2233,7 @@
         <v>43719</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2325,7 +2326,7 @@
         <v>44706</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2422,7 +2423,7 @@
         <v>44578</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2514,7 +2515,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2606,7 +2607,7 @@
         <v>45063</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2702,7 +2703,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2803,7 +2804,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2894,7 +2895,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2989,7 +2990,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3084,7 +3085,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3175,7 +3176,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3270,7 +3271,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3359,14 +3360,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 24523-2021</t>
+          <t>A 16688-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44337</v>
+        <v>45028</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3379,10 +3380,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>9.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -3394,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3403,15 +3404,106 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
+        <v>3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>7</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>Trolldruvemätare
+Grantaggsvamp
+Persiljespindling
+Kransrams
+Svart trolldruva
+Underviol
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 16688-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 16688-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 16688-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 16688-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 16688-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 16688-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>A 24523-2021</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>44337</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H31" t="n">
         <v>2</v>
       </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="I31" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>6</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Spillkråka
@@ -3421,87 +3513,87 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 24523-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 24523-2021.png")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 24523-2021.docx")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 24523-2021.docx")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 24523-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 24523-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>A 28512-2021</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B32" s="1" t="n">
         <v>44356</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
+      <c r="C32" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
         <v>1.5</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>2</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J32" t="n">
         <v>5</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>5</v>
       </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>6</v>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Lunglav
@@ -3511,91 +3603,91 @@
 Luddlav</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 28512-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 28512-2021.png")</f>
         <v/>
       </c>
-      <c r="U31">
+      <c r="U32">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 28512-2021.png")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 28512-2021.docx")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 28512-2021.docx")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 28512-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 28512-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>A 376-2023</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B33" s="1" t="n">
         <v>44929</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
+      <c r="C33" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>11.5</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>2</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J33" t="n">
         <v>5</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>5</v>
       </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>6</v>
       </c>
-      <c r="R32" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Lunglav
@@ -3605,92 +3697,92 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S32">
+      <c r="S33">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 376-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T32">
+      <c r="T33">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 376-2023.png")</f>
         <v/>
       </c>
-      <c r="V32">
+      <c r="V33">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 376-2023.docx")</f>
         <v/>
       </c>
-      <c r="W32">
+      <c r="W33">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 376-2023.docx")</f>
         <v/>
       </c>
-      <c r="X32">
+      <c r="X33">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 376-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 376-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>A 27577-2022</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B34" s="1" t="n">
         <v>44742</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="C34" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G34" t="n">
         <v>12</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>2</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I34" t="n">
         <v>3</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>5</v>
       </c>
-      <c r="R33" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Tibast
@@ -3699,87 +3791,87 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="S34">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 27577-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T33">
+      <c r="T34">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 27577-2022.png")</f>
         <v/>
       </c>
-      <c r="V33">
+      <c r="V34">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 27577-2022.docx")</f>
         <v/>
       </c>
-      <c r="W33">
+      <c r="W34">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 27577-2022.docx")</f>
         <v/>
       </c>
-      <c r="X33">
+      <c r="X34">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 27577-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 27577-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>A 47392-2022</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B35" s="1" t="n">
         <v>44851</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
+      <c r="C35" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>1.6</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>3</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>3</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K35" t="n">
         <v>1</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>2</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P35" t="n">
         <v>1</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q35" t="n">
         <v>5</v>
       </c>
-      <c r="R34" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Garnlav
@@ -3788,96 +3880,96 @@
 Trådfräken</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 47392-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T34">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 47392-2022.png")</f>
         <v/>
       </c>
-      <c r="U34">
+      <c r="U35">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 47392-2022.png")</f>
         <v/>
       </c>
-      <c r="V34">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 47392-2022.docx")</f>
         <v/>
       </c>
-      <c r="W34">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 47392-2022.docx")</f>
         <v/>
       </c>
-      <c r="X34">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 47392-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 47392-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>A 56096-2022</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B36" s="1" t="n">
         <v>44889</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="C36" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G36" t="n">
         <v>15.1</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>4</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>4</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>5</v>
       </c>
-      <c r="R35" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>Brunklöver
 Dvärgbägarlav
@@ -3886,117 +3978,28 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S35">
+      <c r="S36">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 56096-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T35">
+      <c r="T36">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 56096-2022.png")</f>
         <v/>
       </c>
-      <c r="V35">
+      <c r="V36">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 56096-2022.docx")</f>
         <v/>
       </c>
-      <c r="W35">
+      <c r="W36">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 56096-2022.docx")</f>
         <v/>
       </c>
-      <c r="X35">
+      <c r="X36">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 56096-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 56096-2022.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>A 16688-2023</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>45028</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>5</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>Trolldruvemätare
-Kransrams
-Svart trolldruva
-Underviol
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 16688-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 16688-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 16688-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 16688-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 16688-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 16688-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -4010,7 +4013,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4098,7 +4101,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4186,7 +4189,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4279,7 +4282,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4366,7 +4369,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4458,7 +4461,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4550,7 +4553,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4637,7 +4640,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4728,7 +4731,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4815,7 +4818,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4906,7 +4909,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4993,7 +4996,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5080,7 +5083,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5167,7 +5170,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5258,7 +5261,7 @@
         <v>43378</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5344,7 +5347,7 @@
         <v>43446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5430,7 +5433,7 @@
         <v>43656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5521,7 +5524,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5607,7 +5610,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5693,7 +5696,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5779,7 +5782,7 @@
         <v>44508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5870,7 +5873,7 @@
         <v>44693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5960,7 +5963,7 @@
         <v>44853</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6050,7 +6053,7 @@
         <v>44904</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6136,7 +6139,7 @@
         <v>44908</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6222,7 +6225,7 @@
         <v>44911</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6308,7 +6311,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6394,7 +6397,7 @@
         <v>45161</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6480,7 +6483,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6570,7 +6573,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6660,7 +6663,7 @@
         <v>43768</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6745,7 +6748,7 @@
         <v>43784</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6830,7 +6833,7 @@
         <v>43893</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6915,7 +6918,7 @@
         <v>44047</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7004,7 +7007,7 @@
         <v>44165</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7089,7 +7092,7 @@
         <v>44272</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7174,7 +7177,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7259,7 +7262,7 @@
         <v>44355</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7344,7 +7347,7 @@
         <v>44355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7429,7 +7432,7 @@
         <v>44368</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7514,7 +7517,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7604,7 +7607,7 @@
         <v>44441</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7689,7 +7692,7 @@
         <v>44476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7774,7 +7777,7 @@
         <v>44491</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7864,7 +7867,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7954,7 +7957,7 @@
         <v>44623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8039,7 +8042,7 @@
         <v>44694</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8129,7 +8132,7 @@
         <v>44694</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8219,7 +8222,7 @@
         <v>44742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8313,7 +8316,7 @@
         <v>44742</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8403,7 +8406,7 @@
         <v>44755</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8493,7 +8496,7 @@
         <v>44785</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8578,7 +8581,7 @@
         <v>44844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8668,7 +8671,7 @@
         <v>44890</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8758,7 +8761,7 @@
         <v>44900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8843,7 +8846,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8933,7 +8936,7 @@
         <v>45096</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9018,7 +9021,7 @@
         <v>43314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9075,7 +9078,7 @@
         <v>43314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9132,7 +9135,7 @@
         <v>43321</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9189,7 +9192,7 @@
         <v>43321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9246,7 +9249,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9303,7 +9306,7 @@
         <v>43333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9360,7 +9363,7 @@
         <v>43336</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9422,7 +9425,7 @@
         <v>43364</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9479,7 +9482,7 @@
         <v>43364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9536,7 +9539,7 @@
         <v>43371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9593,7 +9596,7 @@
         <v>43371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9650,7 +9653,7 @@
         <v>43371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9707,7 +9710,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9764,7 +9767,7 @@
         <v>43381</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9821,7 +9824,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9883,7 +9886,7 @@
         <v>43398</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9945,7 +9948,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10002,7 +10005,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10059,7 +10062,7 @@
         <v>43402</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10116,7 +10119,7 @@
         <v>43411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10173,7 +10176,7 @@
         <v>43412</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10230,7 +10233,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10287,7 +10290,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10344,7 +10347,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10401,7 +10404,7 @@
         <v>43426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10458,7 +10461,7 @@
         <v>43439</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10515,7 +10518,7 @@
         <v>43440</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10572,7 +10575,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10629,7 +10632,7 @@
         <v>43451</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10686,7 +10689,7 @@
         <v>43451</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10743,7 +10746,7 @@
         <v>43452</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10800,7 +10803,7 @@
         <v>43454</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10857,7 +10860,7 @@
         <v>43454</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10914,7 +10917,7 @@
         <v>43455</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10971,7 +10974,7 @@
         <v>43472</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11028,7 +11031,7 @@
         <v>43472</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11085,7 +11088,7 @@
         <v>43475</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11142,7 +11145,7 @@
         <v>43476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11199,7 +11202,7 @@
         <v>43478</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11256,7 +11259,7 @@
         <v>43487</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11313,7 +11316,7 @@
         <v>43489</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11370,7 +11373,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11427,7 +11430,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11484,7 +11487,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11541,7 +11544,7 @@
         <v>43494</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11598,7 +11601,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11655,7 +11658,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11712,7 +11715,7 @@
         <v>43503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11769,7 +11772,7 @@
         <v>43514</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11826,7 +11829,7 @@
         <v>43530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11883,7 +11886,7 @@
         <v>43542</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11940,7 +11943,7 @@
         <v>43550</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11997,7 +12000,7 @@
         <v>43571</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12054,7 +12057,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12111,7 +12114,7 @@
         <v>43581</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12173,7 +12176,7 @@
         <v>43584</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12230,7 +12233,7 @@
         <v>43584</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12287,7 +12290,7 @@
         <v>43594</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12344,7 +12347,7 @@
         <v>43595</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12406,7 +12409,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12463,7 +12466,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12520,7 +12523,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12577,7 +12580,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12634,7 +12637,7 @@
         <v>43620</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12691,7 +12694,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12748,7 +12751,7 @@
         <v>43635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12805,7 +12808,7 @@
         <v>43636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12867,7 +12870,7 @@
         <v>43640</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12924,7 +12927,7 @@
         <v>43640</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12981,7 +12984,7 @@
         <v>43650</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13038,7 +13041,7 @@
         <v>43651</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13100,7 +13103,7 @@
         <v>43654</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13162,7 +13165,7 @@
         <v>43654</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13219,7 +13222,7 @@
         <v>43655</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13276,7 +13279,7 @@
         <v>43656</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13333,7 +13336,7 @@
         <v>43656</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13390,7 +13393,7 @@
         <v>43657</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13447,7 +13450,7 @@
         <v>43670</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13504,7 +13507,7 @@
         <v>43676</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13561,7 +13564,7 @@
         <v>43684</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13618,7 +13621,7 @@
         <v>43686</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13675,7 +13678,7 @@
         <v>43696</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13737,7 +13740,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13799,7 +13802,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13856,7 +13859,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13918,7 +13921,7 @@
         <v>43699</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13975,7 +13978,7 @@
         <v>43703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14032,7 +14035,7 @@
         <v>43703</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14089,7 +14092,7 @@
         <v>43718</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14151,7 +14154,7 @@
         <v>43724</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14213,7 +14216,7 @@
         <v>43725</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14275,7 +14278,7 @@
         <v>43727</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14332,7 +14335,7 @@
         <v>43732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14394,7 +14397,7 @@
         <v>43732</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14451,7 +14454,7 @@
         <v>43733</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14513,7 +14516,7 @@
         <v>43735</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14570,7 +14573,7 @@
         <v>43738</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14632,7 +14635,7 @@
         <v>43738</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14689,7 +14692,7 @@
         <v>43747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14746,7 +14749,7 @@
         <v>43748</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14803,7 +14806,7 @@
         <v>43749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14860,7 +14863,7 @@
         <v>43752</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14922,7 +14925,7 @@
         <v>43761</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14979,7 +14982,7 @@
         <v>43762</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15041,7 +15044,7 @@
         <v>43768</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15098,7 +15101,7 @@
         <v>43770</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15155,7 +15158,7 @@
         <v>43770</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15212,7 +15215,7 @@
         <v>43773</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15269,7 +15272,7 @@
         <v>43776</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15326,7 +15329,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15383,7 +15386,7 @@
         <v>43781</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15440,7 +15443,7 @@
         <v>43781</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15497,7 +15500,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15554,7 +15557,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15616,7 +15619,7 @@
         <v>43794</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15673,7 +15676,7 @@
         <v>43802</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15730,7 +15733,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15787,7 +15790,7 @@
         <v>43809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15844,7 +15847,7 @@
         <v>43809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15901,7 +15904,7 @@
         <v>43817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15958,7 +15961,7 @@
         <v>43838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16015,7 +16018,7 @@
         <v>43840</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16072,7 +16075,7 @@
         <v>43840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16129,7 +16132,7 @@
         <v>43840</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16186,7 +16189,7 @@
         <v>43861</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16243,7 +16246,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16300,7 +16303,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16357,7 +16360,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16414,7 +16417,7 @@
         <v>43871</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16471,7 +16474,7 @@
         <v>43871</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16528,7 +16531,7 @@
         <v>43875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16585,7 +16588,7 @@
         <v>43895</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16642,7 +16645,7 @@
         <v>43901</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16699,7 +16702,7 @@
         <v>43906</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16756,7 +16759,7 @@
         <v>43909</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16813,7 +16816,7 @@
         <v>43910</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16875,7 +16878,7 @@
         <v>43917</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16932,7 +16935,7 @@
         <v>43928</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16989,7 +16992,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17046,7 +17049,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17103,7 +17106,7 @@
         <v>43943</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17160,7 +17163,7 @@
         <v>43944</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17217,7 +17220,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17274,7 +17277,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17331,7 +17334,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17388,7 +17391,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17445,7 +17448,7 @@
         <v>43978</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17502,7 +17505,7 @@
         <v>43986</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17559,7 +17562,7 @@
         <v>43992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17616,7 +17619,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17673,7 +17676,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17730,7 +17733,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17787,7 +17790,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17844,7 +17847,7 @@
         <v>44027</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17906,7 +17909,7 @@
         <v>44035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17963,7 +17966,7 @@
         <v>44055</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18020,7 +18023,7 @@
         <v>44057</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18082,7 +18085,7 @@
         <v>44076</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18139,7 +18142,7 @@
         <v>44077</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18201,7 +18204,7 @@
         <v>44077</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18263,7 +18266,7 @@
         <v>44082</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18320,7 +18323,7 @@
         <v>44090</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18382,7 +18385,7 @@
         <v>44106</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18444,7 +18447,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18506,7 +18509,7 @@
         <v>44106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18568,7 +18571,7 @@
         <v>44110</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18630,7 +18633,7 @@
         <v>44113</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18687,7 +18690,7 @@
         <v>44118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18744,7 +18747,7 @@
         <v>44118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18801,7 +18804,7 @@
         <v>44118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18858,7 +18861,7 @@
         <v>44123</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18920,7 +18923,7 @@
         <v>44125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18977,7 +18980,7 @@
         <v>44126</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19034,7 +19037,7 @@
         <v>44126</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19091,7 +19094,7 @@
         <v>44133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19148,7 +19151,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19205,7 +19208,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19267,7 +19270,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19329,7 +19332,7 @@
         <v>44140</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19391,7 +19394,7 @@
         <v>44140</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19453,7 +19456,7 @@
         <v>44141</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19515,7 +19518,7 @@
         <v>44141</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19577,7 +19580,7 @@
         <v>44151</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19639,7 +19642,7 @@
         <v>44152</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19696,7 +19699,7 @@
         <v>44173</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19758,7 +19761,7 @@
         <v>44174</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19820,7 +19823,7 @@
         <v>44174</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19882,7 +19885,7 @@
         <v>44174</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19944,7 +19947,7 @@
         <v>44180</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20001,7 +20004,7 @@
         <v>44180</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20058,7 +20061,7 @@
         <v>44186</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20115,7 +20118,7 @@
         <v>44187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20172,7 +20175,7 @@
         <v>44200</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20229,7 +20232,7 @@
         <v>44200</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20286,7 +20289,7 @@
         <v>44208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20343,7 +20346,7 @@
         <v>44214</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20400,7 +20403,7 @@
         <v>44229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20457,7 +20460,7 @@
         <v>44236</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20514,7 +20517,7 @@
         <v>44238</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20571,7 +20574,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20628,7 +20631,7 @@
         <v>44259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20685,7 +20688,7 @@
         <v>44259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20747,7 +20750,7 @@
         <v>44270</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20804,7 +20807,7 @@
         <v>44270</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20861,7 +20864,7 @@
         <v>44298</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20918,7 +20921,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20975,7 +20978,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21032,7 +21035,7 @@
         <v>44299</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21089,7 +21092,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21151,7 +21154,7 @@
         <v>44316</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21208,7 +21211,7 @@
         <v>44320</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21265,7 +21268,7 @@
         <v>44322</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21322,7 +21325,7 @@
         <v>44323</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21379,7 +21382,7 @@
         <v>44328</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21436,7 +21439,7 @@
         <v>44335</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21493,7 +21496,7 @@
         <v>44336</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21550,7 +21553,7 @@
         <v>44340</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21607,7 +21610,7 @@
         <v>44340</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21664,7 +21667,7 @@
         <v>44347</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21721,7 +21724,7 @@
         <v>44347</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21778,7 +21781,7 @@
         <v>44349</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21835,7 +21838,7 @@
         <v>44349</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21892,7 +21895,7 @@
         <v>44355</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21949,7 +21952,7 @@
         <v>44362</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22006,7 +22009,7 @@
         <v>44368</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22063,7 +22066,7 @@
         <v>44375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22120,7 +22123,7 @@
         <v>44375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22177,7 +22180,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22234,7 +22237,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22291,7 +22294,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22348,7 +22351,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22405,7 +22408,7 @@
         <v>44378</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22462,7 +22465,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22519,7 +22522,7 @@
         <v>44405</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22576,7 +22579,7 @@
         <v>44414</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22633,7 +22636,7 @@
         <v>44425</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22690,7 +22693,7 @@
         <v>44427</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22747,7 +22750,7 @@
         <v>44428</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22804,7 +22807,7 @@
         <v>44430</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22861,7 +22864,7 @@
         <v>44432</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22923,7 +22926,7 @@
         <v>44434</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22980,7 +22983,7 @@
         <v>44434</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23037,7 +23040,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23094,7 +23097,7 @@
         <v>44441</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23151,7 +23154,7 @@
         <v>44441</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23208,7 +23211,7 @@
         <v>44448</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23265,7 +23268,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23322,7 +23325,7 @@
         <v>44466</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23379,7 +23382,7 @@
         <v>44475</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23436,7 +23439,7 @@
         <v>44501</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23493,7 +23496,7 @@
         <v>44515</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23555,7 +23558,7 @@
         <v>44516</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23612,7 +23615,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23669,7 +23672,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23726,7 +23729,7 @@
         <v>44533</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23783,7 +23786,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23840,7 +23843,7 @@
         <v>44539</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23897,7 +23900,7 @@
         <v>44540</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23954,7 +23957,7 @@
         <v>44540</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24011,7 +24014,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24068,7 +24071,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24125,7 +24128,7 @@
         <v>44544</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24182,7 +24185,7 @@
         <v>44547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24239,7 +24242,7 @@
         <v>44550</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24296,7 +24299,7 @@
         <v>44550</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24353,7 +24356,7 @@
         <v>44553</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24410,7 +24413,7 @@
         <v>44561</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24467,7 +24470,7 @@
         <v>44566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24524,7 +24527,7 @@
         <v>44566</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24581,7 +24584,7 @@
         <v>44579</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24638,7 +24641,7 @@
         <v>44580</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24700,7 +24703,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24757,7 +24760,7 @@
         <v>44585</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24814,7 +24817,7 @@
         <v>44594</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24871,7 +24874,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24928,7 +24931,7 @@
         <v>44607</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24985,7 +24988,7 @@
         <v>44609</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25042,7 +25045,7 @@
         <v>44613</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25099,7 +25102,7 @@
         <v>44635</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25156,7 +25159,7 @@
         <v>44637</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25213,7 +25216,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25270,7 +25273,7 @@
         <v>44643</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25327,7 +25330,7 @@
         <v>44655</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25384,7 +25387,7 @@
         <v>44665</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25441,7 +25444,7 @@
         <v>44680</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25498,7 +25501,7 @@
         <v>44690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25555,7 +25558,7 @@
         <v>44706</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25612,7 +25615,7 @@
         <v>44711</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25669,7 +25672,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25726,7 +25729,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25783,7 +25786,7 @@
         <v>44721</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25840,7 +25843,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25897,7 +25900,7 @@
         <v>44722</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25959,7 +25962,7 @@
         <v>44734</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26016,7 +26019,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26073,7 +26076,7 @@
         <v>44735</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26130,7 +26133,7 @@
         <v>44742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26192,7 +26195,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26249,7 +26252,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26331,7 +26334,7 @@
         <v>44743</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26388,7 +26391,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26445,7 +26448,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26502,7 +26505,7 @@
         <v>44750</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26559,7 +26562,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26616,7 +26619,7 @@
         <v>44755</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26678,7 +26681,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26740,7 +26743,7 @@
         <v>44790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26797,7 +26800,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26854,7 +26857,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26911,7 +26914,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26968,7 +26971,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27025,7 +27028,7 @@
         <v>44799</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27082,7 +27085,7 @@
         <v>44817</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27139,7 +27142,7 @@
         <v>44820</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27196,7 +27199,7 @@
         <v>44838</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27258,7 +27261,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27320,7 +27323,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27382,7 +27385,7 @@
         <v>44840</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27439,7 +27442,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27496,7 +27499,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27553,7 +27556,7 @@
         <v>44851</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27610,7 +27613,7 @@
         <v>44852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27667,7 +27670,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27724,7 +27727,7 @@
         <v>44861</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27786,7 +27789,7 @@
         <v>44868</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27843,7 +27846,7 @@
         <v>44872</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27900,7 +27903,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27962,7 +27965,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28019,7 +28022,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28076,7 +28079,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28133,7 +28136,7 @@
         <v>44880</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28190,7 +28193,7 @@
         <v>44882</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28247,7 +28250,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28304,7 +28307,7 @@
         <v>44889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28361,7 +28364,7 @@
         <v>44894</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28418,7 +28421,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28480,7 +28483,7 @@
         <v>44907</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28542,7 +28545,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28599,7 +28602,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28656,7 +28659,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28718,7 +28721,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28775,7 +28778,7 @@
         <v>44922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28832,7 +28835,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28889,7 +28892,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28946,7 +28949,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29003,7 +29006,7 @@
         <v>44928</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29060,7 +29063,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29117,7 +29120,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29174,7 +29177,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29231,7 +29234,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29288,7 +29291,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29345,7 +29348,7 @@
         <v>44952</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29402,7 +29405,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29459,7 +29462,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29516,7 +29519,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29573,7 +29576,7 @@
         <v>44956</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29630,7 +29633,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29687,7 +29690,7 @@
         <v>44957</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29744,7 +29747,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29806,7 +29809,7 @@
         <v>44966</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29868,7 +29871,7 @@
         <v>44970</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29925,7 +29928,7 @@
         <v>44971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29987,7 +29990,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30049,7 +30052,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30106,7 +30109,7 @@
         <v>44977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30168,7 +30171,7 @@
         <v>44986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30230,7 +30233,7 @@
         <v>44993</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30287,7 +30290,7 @@
         <v>45000</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30344,7 +30347,7 @@
         <v>45002</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30401,7 +30404,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30458,7 +30461,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30520,7 +30523,7 @@
         <v>45004</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30577,7 +30580,7 @@
         <v>45008</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30634,7 +30637,7 @@
         <v>45012</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30691,7 +30694,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30748,7 +30751,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30805,7 +30808,7 @@
         <v>45022</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30867,7 +30870,7 @@
         <v>45028</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30924,7 +30927,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30981,7 +30984,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31038,7 +31041,7 @@
         <v>45037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31095,7 +31098,7 @@
         <v>45049</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31152,7 +31155,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31209,7 +31212,7 @@
         <v>45057</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31266,7 +31269,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31328,7 +31331,7 @@
         <v>45077</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31385,7 +31388,7 @@
         <v>45082</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31447,7 +31450,7 @@
         <v>45084</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31504,7 +31507,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31561,7 +31564,7 @@
         <v>45089</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31618,7 +31621,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31680,7 +31683,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31737,7 +31740,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31794,7 +31797,7 @@
         <v>45092</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31851,7 +31854,7 @@
         <v>45096</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31908,7 +31911,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31965,7 +31968,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32022,7 +32025,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32079,7 +32082,7 @@
         <v>45099</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32136,7 +32139,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32193,7 +32196,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32250,7 +32253,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32307,7 +32310,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32364,7 +32367,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32421,7 +32424,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32483,7 +32486,7 @@
         <v>45106</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32540,7 +32543,7 @@
         <v>45107</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32597,7 +32600,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32654,7 +32657,7 @@
         <v>45112</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32711,7 +32714,7 @@
         <v>45117</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32768,7 +32771,7 @@
         <v>45118</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32825,7 +32828,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32882,7 +32885,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32939,7 +32942,7 @@
         <v>45125</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32996,7 +32999,7 @@
         <v>45149</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33053,7 +33056,7 @@
         <v>45154</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33115,7 +33118,7 @@
         <v>45159</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33177,7 +33180,7 @@
         <v>45161</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33234,7 +33237,7 @@
         <v>45163</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33291,7 +33294,7 @@
         <v>45166</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33353,7 +33356,7 @@
         <v>45169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         <v>44106</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45099</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>43719</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44706</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44578</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45063</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45028</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44337</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>44356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>44929</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44742</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43378</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>44508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>44853</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44904</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>44908</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44911</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>45161</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43768</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43784</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43893</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44047</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>44165</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44272</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44355</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>44355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44368</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>44441</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>44476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>44491</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>44623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
         <v>44694</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44694</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44742</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44755</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44785</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>44890</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>45096</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>43314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>43314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>43321</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>43336</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43364</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>43371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>43381</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43398</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43402</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43412</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>43439</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>43440</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43451</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>43451</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>43452</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>43454</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>43454</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43455</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43472</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43472</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43475</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43478</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>43487</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>43489</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>43494</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43514</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43542</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43550</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>43571</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>43581</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43584</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43584</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43594</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43595</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43620</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43640</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43640</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43650</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43651</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43654</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43654</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43655</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43656</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43656</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>43657</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>43670</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>43676</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43684</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43686</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43696</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>43699</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>43703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43703</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>43718</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43724</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43725</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>43727</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>43732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>43732</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>43733</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>43735</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>43738</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43738</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43748</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43752</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43761</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43762</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>43768</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>43770</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>43770</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>43773</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43776</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>43781</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>43781</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>43794</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>43802</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>43809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>43809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>43817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>43838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>43840</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>43840</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>43861</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16417,7 +16417,7 @@
         <v>43871</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
         <v>43871</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>43875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>43895</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
         <v>43901</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>43906</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>43909</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>43910</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>43917</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>43928</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>43943</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>43944</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>43978</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>43986</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>43992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44027</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44055</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44057</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44076</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44077</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44077</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44082</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44090</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44106</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44110</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44113</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44123</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44126</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44126</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44140</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44140</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44141</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44141</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44151</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>44152</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44173</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44174</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44174</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44174</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>44180</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44180</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44186</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44200</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44200</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44214</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44236</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44238</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>44270</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44270</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>44298</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44299</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44316</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44320</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44322</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44323</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44328</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44335</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44336</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44340</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44340</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44347</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44347</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44349</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44349</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44355</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44362</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44368</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44378</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44405</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44414</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44425</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44427</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44428</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44430</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>44432</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>44434</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22983,7 +22983,7 @@
         <v>44434</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23040,7 +23040,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23097,7 +23097,7 @@
         <v>44441</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23154,7 +23154,7 @@
         <v>44441</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>44448</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23268,7 +23268,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23325,7 +23325,7 @@
         <v>44466</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23382,7 +23382,7 @@
         <v>44475</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23439,7 +23439,7 @@
         <v>44501</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23496,7 +23496,7 @@
         <v>44515</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44516</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44533</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44539</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44540</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44540</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24014,7 +24014,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>44544</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>44547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44550</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44550</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44553</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44561</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44566</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44579</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44580</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44585</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44594</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44607</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>44609</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>44613</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>44635</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>44637</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44643</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44655</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44665</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44680</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44706</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44711</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44721</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44722</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44734</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44735</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>44743</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>44750</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44755</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44799</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44817</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>44820</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>44838</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>44840</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27499,7 +27499,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>44851</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44861</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44868</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44872</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27903,7 +27903,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28022,7 +28022,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28079,7 +28079,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28136,7 +28136,7 @@
         <v>44880</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>44882</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>44889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>44894</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28421,7 +28421,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28483,7 +28483,7 @@
         <v>44907</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44928</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29348,7 +29348,7 @@
         <v>44952</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29405,7 +29405,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29462,7 +29462,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         <v>44956</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29633,7 +29633,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         <v>44957</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29747,7 +29747,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44966</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44970</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29928,7 +29928,7 @@
         <v>44971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30171,7 +30171,7 @@
         <v>44986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30233,7 +30233,7 @@
         <v>44993</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>45000</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45002</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30404,7 +30404,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30461,7 +30461,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>45004</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>45008</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30637,7 +30637,7 @@
         <v>45012</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>45022</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>45028</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>45037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>45049</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>45057</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>45077</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31388,7 +31388,7 @@
         <v>45082</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>45084</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>45089</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31683,7 +31683,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31740,7 +31740,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         <v>45092</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31854,7 +31854,7 @@
         <v>45096</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31968,7 +31968,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32025,7 +32025,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32082,7 +32082,7 @@
         <v>45099</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32139,7 +32139,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32196,7 +32196,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32253,7 +32253,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32367,7 +32367,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32486,7 +32486,7 @@
         <v>45106</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>45107</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32600,7 +32600,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>45112</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>45117</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>45118</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>45125</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>45149</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>45154</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33118,7 +33118,7 @@
         <v>45159</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
         <v>45161</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>45163</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>45166</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>45169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y514"/>
+  <dimension ref="A1:Y515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2038,14 +2038,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 49729-2020</t>
+          <t>A 32699-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44106</v>
+        <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2057,40 +2057,144 @@
           <t>ÖSTERSUND</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>12.4</v>
+        <v>7.2</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
       </c>
       <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>11</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Flattoppad klubbsvamp
+Garnlav
+Granticka
+Ullticka
+Äggvaxskivling
+Norrlandslav
+Spindelblomster
+Trådticka
+Blåsippa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 32699-2023.png")</f>
+        <v/>
+      </c>
+      <c r="U16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 32699-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 32699-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 32699-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 49729-2020</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44106</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
         <v>4</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>5</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>4</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q17" t="n">
         <v>10</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Kopparspindling
 Läderdoftande fingersvamp
@@ -2104,87 +2208,87 @@
 Nattviol</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 49729-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 49729-2020.png")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 49729-2020.docx")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 49729-2020.docx")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 49729-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 49729-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 30201-2023</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45099</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C18" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>6.5</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>3</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>7</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>2</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>10</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Trolldruvemätare
 Granticka
@@ -2198,87 +2302,87 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 30201-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 30201-2023.png")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 30201-2023.docx")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 30201-2023.docx")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 30201-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 30201-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 46584-2019</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>43719</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C19" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>10.1</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J19" t="n">
         <v>6</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>7</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q19" t="n">
         <v>9</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Rynkskinn
 Doftskinn
@@ -2291,87 +2395,87 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 46584-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 46584-2019.png")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 46584-2019.docx")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 46584-2019.docx")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 46584-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 46584-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 21511-2022</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>44706</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="C20" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>24.7</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>3</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J20" t="n">
         <v>6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K20" t="n">
         <v>1</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>7</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P20" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q20" t="n">
         <v>9</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Garnlav
@@ -2384,91 +2488,91 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 21511-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 21511-2022.png")</f>
         <v/>
       </c>
-      <c r="U19">
+      <c r="U20">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 21511-2022.png")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 21511-2022.docx")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 21511-2022.docx")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 21511-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 21511-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 2237-2022</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>44578</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="C21" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>13.5</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>3</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J21" t="n">
         <v>3</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K21" t="n">
         <v>2</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>5</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P21" t="n">
         <v>2</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q21" t="n">
         <v>8</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Bitter taggsvamp
 Doftticka
@@ -2480,87 +2584,87 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 2237-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 2237-2022.png")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 2237-2022.docx")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 2237-2022.docx")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 2237-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 2237-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 20976-2022</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>44701</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C22" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>16.3</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>3</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>7</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>8</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Finbräken
 Grönkulla
@@ -2572,87 +2676,87 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 20976-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 20976-2022.png")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 20976-2022.docx")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 20976-2022.docx")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 20976-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 20976-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 21753-2023</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>45063</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="C23" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>6.1</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>4</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J23" t="n">
         <v>3</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>4</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q23" t="n">
         <v>8</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Flattoppad klubbsvamp
@@ -2664,133 +2768,32 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 21753-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 21753-2023.png")</f>
         <v/>
       </c>
-      <c r="U22">
+      <c r="U23">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 21753-2023.png")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 21753-2023.docx")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 21753-2023.docx")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 21753-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 21753-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 32699-2023</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45121</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ÖSTERSUND</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>8</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Garnlav
-Granticka
-Norrlandslav
-Spindelblomster
-Trådticka
-Blåsippa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 32699-2023.png")</f>
-        <v/>
-      </c>
-      <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 32699-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 32699-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 32699-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -2804,7 +2807,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2895,7 +2898,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2990,7 +2993,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3085,7 +3088,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3176,7 +3179,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3271,7 +3274,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3367,7 +3370,7 @@
         <v>45028</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3458,7 +3461,7 @@
         <v>44337</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3548,7 +3551,7 @@
         <v>44356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3642,7 +3645,7 @@
         <v>44929</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3732,7 +3735,7 @@
         <v>44742</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3826,7 +3829,7 @@
         <v>44851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3919,7 +3922,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4013,7 +4016,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4101,7 +4104,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4189,7 +4192,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4282,7 +4285,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4369,7 +4372,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4461,7 +4464,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4553,7 +4556,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4640,7 +4643,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4731,7 +4734,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4818,7 +4821,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4909,7 +4912,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4996,7 +4999,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5083,7 +5086,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5170,7 +5173,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5261,7 +5264,7 @@
         <v>43378</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5347,7 +5350,7 @@
         <v>43446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5433,7 +5436,7 @@
         <v>43656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5524,7 +5527,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5610,7 +5613,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5696,7 +5699,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5782,7 +5785,7 @@
         <v>44508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5873,7 +5876,7 @@
         <v>44693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5963,7 +5966,7 @@
         <v>44853</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6053,7 +6056,7 @@
         <v>44904</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6139,7 +6142,7 @@
         <v>44908</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6225,7 +6228,7 @@
         <v>44911</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6311,7 +6314,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6397,7 +6400,7 @@
         <v>45161</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6483,7 +6486,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6573,7 +6576,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6663,7 +6666,7 @@
         <v>43768</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6748,7 +6751,7 @@
         <v>43784</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6833,7 +6836,7 @@
         <v>43893</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6918,7 +6921,7 @@
         <v>44047</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7007,7 +7010,7 @@
         <v>44165</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7092,7 +7095,7 @@
         <v>44272</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7177,7 +7180,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7262,7 +7265,7 @@
         <v>44355</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7347,7 +7350,7 @@
         <v>44355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7432,7 +7435,7 @@
         <v>44368</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7517,7 +7520,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7607,7 +7610,7 @@
         <v>44441</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7692,7 +7695,7 @@
         <v>44476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7777,7 +7780,7 @@
         <v>44491</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7867,7 +7870,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7957,7 +7960,7 @@
         <v>44623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8042,7 +8045,7 @@
         <v>44694</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8132,7 +8135,7 @@
         <v>44694</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8222,7 +8225,7 @@
         <v>44742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8316,7 +8319,7 @@
         <v>44742</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8406,7 +8409,7 @@
         <v>44755</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8496,7 +8499,7 @@
         <v>44785</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8581,7 +8584,7 @@
         <v>44844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8671,7 +8674,7 @@
         <v>44890</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8761,7 +8764,7 @@
         <v>44900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8846,7 +8849,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8936,7 +8939,7 @@
         <v>45096</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9021,7 +9024,7 @@
         <v>43314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9078,7 +9081,7 @@
         <v>43314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9135,7 +9138,7 @@
         <v>43321</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9192,7 +9195,7 @@
         <v>43321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9249,7 +9252,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9306,7 +9309,7 @@
         <v>43333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9363,7 +9366,7 @@
         <v>43336</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9425,7 +9428,7 @@
         <v>43364</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9482,7 +9485,7 @@
         <v>43364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9539,7 +9542,7 @@
         <v>43371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9596,7 +9599,7 @@
         <v>43371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9653,7 +9656,7 @@
         <v>43371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9710,7 +9713,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9767,7 +9770,7 @@
         <v>43381</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9824,7 +9827,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9886,7 +9889,7 @@
         <v>43398</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9948,7 +9951,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10005,7 +10008,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10062,7 +10065,7 @@
         <v>43402</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10119,7 +10122,7 @@
         <v>43411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10176,7 +10179,7 @@
         <v>43412</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10233,7 +10236,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10290,7 +10293,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10347,7 +10350,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10404,7 +10407,7 @@
         <v>43426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10461,7 +10464,7 @@
         <v>43439</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10518,7 +10521,7 @@
         <v>43440</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10575,7 +10578,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10632,7 +10635,7 @@
         <v>43451</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10689,7 +10692,7 @@
         <v>43451</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10746,7 +10749,7 @@
         <v>43452</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10803,7 +10806,7 @@
         <v>43454</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10860,7 +10863,7 @@
         <v>43454</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10917,7 +10920,7 @@
         <v>43455</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10974,7 +10977,7 @@
         <v>43472</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11031,7 +11034,7 @@
         <v>43472</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11088,7 +11091,7 @@
         <v>43475</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11145,7 +11148,7 @@
         <v>43476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11202,7 +11205,7 @@
         <v>43478</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11259,7 +11262,7 @@
         <v>43487</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11316,7 +11319,7 @@
         <v>43489</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11373,7 +11376,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11430,7 +11433,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11487,7 +11490,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11544,7 +11547,7 @@
         <v>43494</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11601,7 +11604,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11658,7 +11661,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11715,7 +11718,7 @@
         <v>43503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11772,7 +11775,7 @@
         <v>43514</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11829,7 +11832,7 @@
         <v>43530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11886,7 +11889,7 @@
         <v>43542</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11943,7 +11946,7 @@
         <v>43550</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12000,7 +12003,7 @@
         <v>43571</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12057,7 +12060,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12114,7 +12117,7 @@
         <v>43581</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12176,7 +12179,7 @@
         <v>43584</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12233,7 +12236,7 @@
         <v>43584</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12290,7 +12293,7 @@
         <v>43594</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12347,7 +12350,7 @@
         <v>43595</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12409,7 +12412,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12466,7 +12469,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12523,7 +12526,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12580,7 +12583,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12637,7 +12640,7 @@
         <v>43620</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12694,7 +12697,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12751,7 +12754,7 @@
         <v>43635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12808,7 +12811,7 @@
         <v>43636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12870,7 +12873,7 @@
         <v>43640</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12927,7 +12930,7 @@
         <v>43640</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12984,7 +12987,7 @@
         <v>43650</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13041,7 +13044,7 @@
         <v>43651</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13103,7 +13106,7 @@
         <v>43654</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13165,7 +13168,7 @@
         <v>43654</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13222,7 +13225,7 @@
         <v>43655</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13279,7 +13282,7 @@
         <v>43656</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13336,7 +13339,7 @@
         <v>43656</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13393,7 +13396,7 @@
         <v>43657</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13450,7 +13453,7 @@
         <v>43670</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13507,7 +13510,7 @@
         <v>43676</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13564,7 +13567,7 @@
         <v>43684</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13621,7 +13624,7 @@
         <v>43686</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13678,7 +13681,7 @@
         <v>43696</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13740,7 +13743,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13802,7 +13805,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13859,7 +13862,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13921,7 +13924,7 @@
         <v>43699</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13978,7 +13981,7 @@
         <v>43703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14035,7 +14038,7 @@
         <v>43703</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14092,7 +14095,7 @@
         <v>43718</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14154,7 +14157,7 @@
         <v>43724</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14216,7 +14219,7 @@
         <v>43725</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14278,7 +14281,7 @@
         <v>43727</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14335,7 +14338,7 @@
         <v>43732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14397,7 +14400,7 @@
         <v>43732</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14454,7 +14457,7 @@
         <v>43733</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14516,7 +14519,7 @@
         <v>43735</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14573,7 +14576,7 @@
         <v>43738</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14635,7 +14638,7 @@
         <v>43738</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14692,7 +14695,7 @@
         <v>43747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14749,7 +14752,7 @@
         <v>43748</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14806,7 +14809,7 @@
         <v>43749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14863,7 +14866,7 @@
         <v>43752</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14925,7 +14928,7 @@
         <v>43761</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14982,7 +14985,7 @@
         <v>43762</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15044,7 +15047,7 @@
         <v>43768</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15101,7 +15104,7 @@
         <v>43770</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15158,7 +15161,7 @@
         <v>43770</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15215,7 +15218,7 @@
         <v>43773</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15272,7 +15275,7 @@
         <v>43776</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15329,7 +15332,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15386,7 +15389,7 @@
         <v>43781</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15443,7 +15446,7 @@
         <v>43781</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15500,7 +15503,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15557,7 +15560,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15619,7 +15622,7 @@
         <v>43794</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15676,7 +15679,7 @@
         <v>43802</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15733,7 +15736,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15790,7 +15793,7 @@
         <v>43809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15847,7 +15850,7 @@
         <v>43809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15904,7 +15907,7 @@
         <v>43817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15961,7 +15964,7 @@
         <v>43838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16018,7 +16021,7 @@
         <v>43840</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16075,7 +16078,7 @@
         <v>43840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16132,7 +16135,7 @@
         <v>43840</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16189,7 +16192,7 @@
         <v>43861</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16246,7 +16249,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16303,7 +16306,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16360,7 +16363,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16417,7 +16420,7 @@
         <v>43871</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16474,7 +16477,7 @@
         <v>43871</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16531,7 +16534,7 @@
         <v>43875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16588,7 +16591,7 @@
         <v>43895</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16645,7 +16648,7 @@
         <v>43901</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16702,7 +16705,7 @@
         <v>43906</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16759,7 +16762,7 @@
         <v>43909</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16816,7 +16819,7 @@
         <v>43910</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16878,7 +16881,7 @@
         <v>43917</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16935,7 +16938,7 @@
         <v>43928</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16992,7 +16995,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17049,7 +17052,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17106,7 +17109,7 @@
         <v>43943</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17163,7 +17166,7 @@
         <v>43944</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17220,7 +17223,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17277,7 +17280,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17334,7 +17337,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17391,7 +17394,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17448,7 +17451,7 @@
         <v>43978</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17505,7 +17508,7 @@
         <v>43986</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17562,7 +17565,7 @@
         <v>43992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17619,7 +17622,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17676,7 +17679,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17733,7 +17736,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17790,7 +17793,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17847,7 +17850,7 @@
         <v>44027</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17909,7 +17912,7 @@
         <v>44035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17966,7 +17969,7 @@
         <v>44055</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18023,7 +18026,7 @@
         <v>44057</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18085,7 +18088,7 @@
         <v>44076</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18142,7 +18145,7 @@
         <v>44077</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18204,7 +18207,7 @@
         <v>44077</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18266,7 +18269,7 @@
         <v>44082</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18323,7 +18326,7 @@
         <v>44090</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18385,7 +18388,7 @@
         <v>44106</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18447,7 +18450,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18509,7 +18512,7 @@
         <v>44106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18571,7 +18574,7 @@
         <v>44110</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18633,7 +18636,7 @@
         <v>44113</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18690,7 +18693,7 @@
         <v>44118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18747,7 +18750,7 @@
         <v>44118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18804,7 +18807,7 @@
         <v>44118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18861,7 +18864,7 @@
         <v>44123</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18923,7 +18926,7 @@
         <v>44125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18980,7 +18983,7 @@
         <v>44126</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19037,7 +19040,7 @@
         <v>44126</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19094,7 +19097,7 @@
         <v>44133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19151,7 +19154,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19208,7 +19211,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19270,7 +19273,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19332,7 +19335,7 @@
         <v>44140</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19394,7 +19397,7 @@
         <v>44140</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19456,7 +19459,7 @@
         <v>44141</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19518,7 +19521,7 @@
         <v>44141</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19580,7 +19583,7 @@
         <v>44151</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19642,7 +19645,7 @@
         <v>44152</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19699,7 +19702,7 @@
         <v>44173</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19761,7 +19764,7 @@
         <v>44174</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19823,7 +19826,7 @@
         <v>44174</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19885,7 +19888,7 @@
         <v>44174</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19947,7 +19950,7 @@
         <v>44180</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20004,7 +20007,7 @@
         <v>44180</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20061,7 +20064,7 @@
         <v>44186</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20118,7 +20121,7 @@
         <v>44187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20175,7 +20178,7 @@
         <v>44200</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20232,7 +20235,7 @@
         <v>44200</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20289,7 +20292,7 @@
         <v>44208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20346,7 +20349,7 @@
         <v>44214</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20403,7 +20406,7 @@
         <v>44229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20460,7 +20463,7 @@
         <v>44236</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20517,7 +20520,7 @@
         <v>44238</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20574,7 +20577,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20631,7 +20634,7 @@
         <v>44259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20688,7 +20691,7 @@
         <v>44259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20750,7 +20753,7 @@
         <v>44270</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20807,7 +20810,7 @@
         <v>44270</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20864,7 +20867,7 @@
         <v>44298</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20921,7 +20924,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20978,7 +20981,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21035,7 +21038,7 @@
         <v>44299</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21092,7 +21095,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21154,7 +21157,7 @@
         <v>44316</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21211,7 +21214,7 @@
         <v>44320</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21268,7 +21271,7 @@
         <v>44322</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21325,7 +21328,7 @@
         <v>44323</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21382,7 +21385,7 @@
         <v>44328</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21439,7 +21442,7 @@
         <v>44335</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21496,7 +21499,7 @@
         <v>44336</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21553,7 +21556,7 @@
         <v>44340</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21610,7 +21613,7 @@
         <v>44340</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21667,7 +21670,7 @@
         <v>44347</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21724,7 +21727,7 @@
         <v>44347</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21781,7 +21784,7 @@
         <v>44349</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21838,7 +21841,7 @@
         <v>44349</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21895,7 +21898,7 @@
         <v>44355</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21952,7 +21955,7 @@
         <v>44362</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22009,7 +22012,7 @@
         <v>44368</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22066,7 +22069,7 @@
         <v>44375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22123,7 +22126,7 @@
         <v>44375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22180,7 +22183,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22237,7 +22240,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22294,7 +22297,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22351,7 +22354,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22408,7 +22411,7 @@
         <v>44378</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22465,7 +22468,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22522,7 +22525,7 @@
         <v>44405</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22579,7 +22582,7 @@
         <v>44414</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22636,7 +22639,7 @@
         <v>44425</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22693,7 +22696,7 @@
         <v>44427</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22750,7 +22753,7 @@
         <v>44428</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22807,7 +22810,7 @@
         <v>44430</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22864,7 +22867,7 @@
         <v>44432</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22926,7 +22929,7 @@
         <v>44434</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22983,7 +22986,7 @@
         <v>44434</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23040,7 +23043,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23097,7 +23100,7 @@
         <v>44441</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23154,7 +23157,7 @@
         <v>44441</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23211,7 +23214,7 @@
         <v>44448</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23268,7 +23271,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23325,7 +23328,7 @@
         <v>44466</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23382,7 +23385,7 @@
         <v>44475</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23439,7 +23442,7 @@
         <v>44501</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23496,7 +23499,7 @@
         <v>44515</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23558,7 +23561,7 @@
         <v>44516</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23615,7 +23618,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23672,7 +23675,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23729,7 +23732,7 @@
         <v>44533</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23786,7 +23789,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23843,7 +23846,7 @@
         <v>44539</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23900,7 +23903,7 @@
         <v>44540</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23957,7 +23960,7 @@
         <v>44540</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24014,7 +24017,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24071,7 +24074,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24128,7 +24131,7 @@
         <v>44544</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24185,7 +24188,7 @@
         <v>44547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24242,7 +24245,7 @@
         <v>44550</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24299,7 +24302,7 @@
         <v>44550</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24356,7 +24359,7 @@
         <v>44553</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24413,7 +24416,7 @@
         <v>44561</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24470,7 +24473,7 @@
         <v>44566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24527,7 +24530,7 @@
         <v>44566</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24584,7 +24587,7 @@
         <v>44579</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24641,7 +24644,7 @@
         <v>44580</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24703,7 +24706,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24760,7 +24763,7 @@
         <v>44585</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24817,7 +24820,7 @@
         <v>44594</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24874,7 +24877,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24931,7 +24934,7 @@
         <v>44607</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24988,7 +24991,7 @@
         <v>44609</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25045,7 +25048,7 @@
         <v>44613</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25102,7 +25105,7 @@
         <v>44635</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25159,7 +25162,7 @@
         <v>44637</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25216,7 +25219,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25273,7 +25276,7 @@
         <v>44643</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25330,7 +25333,7 @@
         <v>44655</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25387,7 +25390,7 @@
         <v>44665</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25444,7 +25447,7 @@
         <v>44680</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25501,7 +25504,7 @@
         <v>44690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25558,7 +25561,7 @@
         <v>44706</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25615,7 +25618,7 @@
         <v>44711</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25672,7 +25675,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25729,7 +25732,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25786,7 +25789,7 @@
         <v>44721</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25843,7 +25846,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25900,7 +25903,7 @@
         <v>44722</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25962,7 +25965,7 @@
         <v>44734</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26019,7 +26022,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26076,7 +26079,7 @@
         <v>44735</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26133,7 +26136,7 @@
         <v>44742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26195,7 +26198,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26252,7 +26255,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26334,7 +26337,7 @@
         <v>44743</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26391,7 +26394,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26448,7 +26451,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26505,7 +26508,7 @@
         <v>44750</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26562,7 +26565,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26619,7 +26622,7 @@
         <v>44755</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26681,7 +26684,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26743,7 +26746,7 @@
         <v>44790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26800,7 +26803,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26857,7 +26860,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26914,7 +26917,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26971,7 +26974,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27028,7 +27031,7 @@
         <v>44799</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27085,7 +27088,7 @@
         <v>44817</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27142,7 +27145,7 @@
         <v>44820</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27199,7 +27202,7 @@
         <v>44838</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27261,7 +27264,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27323,7 +27326,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27385,7 +27388,7 @@
         <v>44840</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27442,7 +27445,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27499,7 +27502,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27556,7 +27559,7 @@
         <v>44851</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27613,7 +27616,7 @@
         <v>44852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27670,7 +27673,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27727,7 +27730,7 @@
         <v>44861</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27789,7 +27792,7 @@
         <v>44868</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27846,7 +27849,7 @@
         <v>44872</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27903,7 +27906,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27965,7 +27968,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28022,7 +28025,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28079,7 +28082,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28136,7 +28139,7 @@
         <v>44880</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28193,7 +28196,7 @@
         <v>44882</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28250,7 +28253,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28307,7 +28310,7 @@
         <v>44889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28364,7 +28367,7 @@
         <v>44894</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28421,7 +28424,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28483,7 +28486,7 @@
         <v>44907</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28545,7 +28548,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28602,7 +28605,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28659,7 +28662,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28721,7 +28724,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28778,7 +28781,7 @@
         <v>44922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28835,7 +28838,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28892,7 +28895,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28949,7 +28952,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29006,7 +29009,7 @@
         <v>44928</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29063,7 +29066,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29120,7 +29123,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29177,7 +29180,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29234,7 +29237,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29291,7 +29294,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29348,7 +29351,7 @@
         <v>44952</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29405,7 +29408,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29462,7 +29465,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29519,7 +29522,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29576,7 +29579,7 @@
         <v>44956</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29633,7 +29636,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29690,7 +29693,7 @@
         <v>44957</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29747,7 +29750,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29809,7 +29812,7 @@
         <v>44966</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29871,7 +29874,7 @@
         <v>44970</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29928,7 +29931,7 @@
         <v>44971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29990,7 +29993,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30052,7 +30055,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30109,7 +30112,7 @@
         <v>44977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30171,7 +30174,7 @@
         <v>44986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30233,7 +30236,7 @@
         <v>44993</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30290,7 +30293,7 @@
         <v>45000</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30347,7 +30350,7 @@
         <v>45002</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30404,7 +30407,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30461,7 +30464,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30523,7 +30526,7 @@
         <v>45004</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30580,7 +30583,7 @@
         <v>45008</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30637,7 +30640,7 @@
         <v>45012</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30694,7 +30697,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30751,7 +30754,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30808,7 +30811,7 @@
         <v>45022</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30870,7 +30873,7 @@
         <v>45028</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30927,7 +30930,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30984,7 +30987,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31041,7 +31044,7 @@
         <v>45037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31098,7 +31101,7 @@
         <v>45049</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31155,7 +31158,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31212,7 +31215,7 @@
         <v>45057</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31269,7 +31272,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31331,7 +31334,7 @@
         <v>45077</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31388,7 +31391,7 @@
         <v>45082</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31450,7 +31453,7 @@
         <v>45084</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31507,7 +31510,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31564,7 +31567,7 @@
         <v>45089</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31621,7 +31624,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31683,7 +31686,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31740,7 +31743,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31797,7 +31800,7 @@
         <v>45092</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31854,7 +31857,7 @@
         <v>45096</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31911,7 +31914,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31968,7 +31971,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32025,7 +32028,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32082,7 +32085,7 @@
         <v>45099</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32139,7 +32142,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32196,7 +32199,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32253,7 +32256,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32310,7 +32313,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32367,7 +32370,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32424,7 +32427,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32486,7 +32489,7 @@
         <v>45106</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32543,7 +32546,7 @@
         <v>45107</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32600,7 +32603,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32657,7 +32660,7 @@
         <v>45112</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32714,7 +32717,7 @@
         <v>45117</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32771,7 +32774,7 @@
         <v>45118</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32828,7 +32831,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32885,7 +32888,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32942,7 +32945,7 @@
         <v>45125</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32999,7 +33002,7 @@
         <v>45149</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33056,7 +33059,7 @@
         <v>45154</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33118,7 +33121,7 @@
         <v>45159</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33180,7 +33183,7 @@
         <v>45161</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33237,7 +33240,7 @@
         <v>45163</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33294,7 +33297,7 @@
         <v>45166</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33346,7 +33349,7 @@
       </c>
       <c r="R513" s="2" t="inlineStr"/>
     </row>
-    <row r="514">
+    <row r="514" ht="15" customHeight="1">
       <c r="A514" t="inlineStr">
         <is>
           <t>A 40423-2023</t>
@@ -33356,7 +33359,7 @@
         <v>45169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33407,6 +33410,63 @@
         <v>0</v>
       </c>
       <c r="R514" s="2" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>A 43252-2023</t>
+        </is>
+      </c>
+      <c r="B515" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C515" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G515" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0</v>
+      </c>
+      <c r="J515" t="n">
+        <v>0</v>
+      </c>
+      <c r="K515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N515" t="n">
+        <v>0</v>
+      </c>
+      <c r="O515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R515" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 37096-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 37096-2023.xlsx", "A 37096-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 37096-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 37096-2023.png", "A 37096-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 37096-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 37096-2023.png", "A 37096-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 37096-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 37096-2023.docx", "A 37096-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 37096-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 37096-2023.docx", "A 37096-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 37096-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 37096-2023.docx", "A 37096-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 37096-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 37096-2023.docx", "A 37096-2023")</f>
         <v/>
       </c>
     </row>
@@ -692,7 +692,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -729,13 +729,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
@@ -744,6 +744,7 @@
 Rynkskinn
 Smalskaftslav
 Barrviolspindling
+Flattoppad klubbsvamp
 Garnlav
 Granticka
 Harticka
@@ -772,31 +773,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 29992-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 29992-2023.png", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 29992-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 29992-2023.png", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
     </row>
@@ -810,7 +811,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,31 +889,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 51192-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 51192-2019.xlsx", "A 51192-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 51192-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 51192-2019.png", "A 51192-2019")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 51192-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 51192-2019.png", "A 51192-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 51192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 51192-2019.docx", "A 51192-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 51192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 51192-2019.docx", "A 51192-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 51192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 51192-2019.docx", "A 51192-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 51192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 51192-2019.docx", "A 51192-2019")</f>
         <v/>
       </c>
     </row>
@@ -926,7 +927,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,27 +999,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 60950-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 60950-2019.xlsx", "A 60950-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 60950-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 60950-2019.png", "A 60950-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 60950-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 60950-2019.docx", "A 60950-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 60950-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 60950-2019.docx", "A 60950-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 60950-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 60950-2019.docx", "A 60950-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 60950-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 60950-2019.docx", "A 60950-2019")</f>
         <v/>
       </c>
     </row>
@@ -1032,7 +1033,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1099,31 +1100,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 26155-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 26155-2021.xlsx", "A 26155-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 26155-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 26155-2021.png", "A 26155-2021")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 26155-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 26155-2021.png", "A 26155-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 26155-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 26155-2021.docx", "A 26155-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 26155-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 26155-2021.docx", "A 26155-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 26155-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 26155-2021.docx", "A 26155-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 26155-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 26155-2021.docx", "A 26155-2021")</f>
         <v/>
       </c>
     </row>
@@ -1137,7 +1138,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1203,27 +1204,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 67457-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 67457-2019.xlsx", "A 67457-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 67457-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 67457-2019.png", "A 67457-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 67457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 67457-2019.docx", "A 67457-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 67457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 67457-2019.docx", "A 67457-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 67457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 67457-2019.docx", "A 67457-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 67457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 67457-2019.docx", "A 67457-2019")</f>
         <v/>
       </c>
     </row>
@@ -1237,7 +1238,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1302,27 +1303,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 47280-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 47280-2020.xlsx", "A 47280-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 47280-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 47280-2020.png", "A 47280-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 47280-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 47280-2020.docx", "A 47280-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 47280-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 47280-2020.docx", "A 47280-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 47280-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 47280-2020.docx", "A 47280-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 47280-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 47280-2020.docx", "A 47280-2020")</f>
         <v/>
       </c>
     </row>
@@ -1336,7 +1337,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1401,27 +1402,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 30683-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 30683-2023.png", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
     </row>
@@ -1435,7 +1436,7 @@
         <v>44817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1499,31 +1500,31 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 39568-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 39568-2022.xlsx", "A 39568-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 39568-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 39568-2022.png", "A 39568-2022")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 39568-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 39568-2022.png", "A 39568-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 39568-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 39568-2022.docx", "A 39568-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 39568-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 39568-2022.docx", "A 39568-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 39568-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 39568-2022.docx", "A 39568-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 39568-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 39568-2022.docx", "A 39568-2022")</f>
         <v/>
       </c>
     </row>
@@ -1537,7 +1538,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1606,31 +1607,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 55075-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 55075-2022.xlsx", "A 55075-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 55075-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 55075-2022.png", "A 55075-2022")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 55075-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 55075-2022.png", "A 55075-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 55075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 55075-2022.docx", "A 55075-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 55075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 55075-2022.docx", "A 55075-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 55075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 55075-2022.docx", "A 55075-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 55075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 55075-2022.docx", "A 55075-2022")</f>
         <v/>
       </c>
     </row>
@@ -1644,7 +1645,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1707,31 +1708,31 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 47367-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 47367-2022.xlsx", "A 47367-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 47367-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 47367-2022.png", "A 47367-2022")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 47367-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 47367-2022.png", "A 47367-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 47367-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 47367-2022.docx", "A 47367-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 47367-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 47367-2022.docx", "A 47367-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 47367-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 47367-2022.docx", "A 47367-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 47367-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 47367-2022.docx", "A 47367-2022")</f>
         <v/>
       </c>
     </row>
@@ -1745,7 +1746,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1808,31 +1809,31 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 2979-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 2979-2023.xlsx", "A 2979-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 2979-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 2979-2023.png", "A 2979-2023")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 2979-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 2979-2023.png", "A 2979-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 2979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 2979-2023.docx", "A 2979-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 2979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 2979-2023.docx", "A 2979-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 2979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 2979-2023.docx", "A 2979-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 2979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 2979-2023.docx", "A 2979-2023")</f>
         <v/>
       </c>
     </row>
@@ -1846,7 +1847,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1907,27 +1908,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 12943-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 12943-2022.xlsx", "A 12943-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 12943-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 12943-2022.png", "A 12943-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 12943-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 12943-2022.docx", "A 12943-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 12943-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 12943-2022.docx", "A 12943-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 12943-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 12943-2022.docx", "A 12943-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 12943-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 12943-2022.docx", "A 12943-2022")</f>
         <v/>
       </c>
     </row>
@@ -1941,7 +1942,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2007,31 +2008,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 56241-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 56241-2022.xlsx", "A 56241-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 56241-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 56241-2022.png", "A 56241-2022")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 56241-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 56241-2022.png", "A 56241-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 56241-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 56241-2022.docx", "A 56241-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 56241-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 56241-2022.docx", "A 56241-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 56241-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 56241-2022.docx", "A 56241-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 56241-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 56241-2022.docx", "A 56241-2022")</f>
         <v/>
       </c>
     </row>
@@ -2045,7 +2046,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2111,31 +2112,31 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 32699-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 32699-2023.png", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 32699-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 32699-2023.png", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
     </row>
@@ -2149,7 +2150,7 @@
         <v>44106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2209,27 +2210,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 49729-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 49729-2020.xlsx", "A 49729-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 49729-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 49729-2020.png", "A 49729-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 49729-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 49729-2020.docx", "A 49729-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 49729-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 49729-2020.docx", "A 49729-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 49729-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 49729-2020.docx", "A 49729-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 49729-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 49729-2020.docx", "A 49729-2020")</f>
         <v/>
       </c>
     </row>
@@ -2243,7 +2244,7 @@
         <v>45099</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2303,27 +2304,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 30201-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 30201-2023.xlsx", "A 30201-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 30201-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 30201-2023.png", "A 30201-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 30201-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 30201-2023.docx", "A 30201-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 30201-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 30201-2023.docx", "A 30201-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 30201-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 30201-2023.docx", "A 30201-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 30201-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 30201-2023.docx", "A 30201-2023")</f>
         <v/>
       </c>
     </row>
@@ -2337,7 +2338,7 @@
         <v>43719</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2396,27 +2397,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 46584-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 46584-2019.xlsx", "A 46584-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 46584-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 46584-2019.png", "A 46584-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 46584-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 46584-2019.docx", "A 46584-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 46584-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 46584-2019.docx", "A 46584-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 46584-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 46584-2019.docx", "A 46584-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 46584-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 46584-2019.docx", "A 46584-2019")</f>
         <v/>
       </c>
     </row>
@@ -2430,7 +2431,7 @@
         <v>44706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2489,31 +2490,31 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 21511-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 21511-2022.xlsx", "A 21511-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 21511-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 21511-2022.png", "A 21511-2022")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 21511-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 21511-2022.png", "A 21511-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 21511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 21511-2022.docx", "A 21511-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 21511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 21511-2022.docx", "A 21511-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 21511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 21511-2022.docx", "A 21511-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 21511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 21511-2022.docx", "A 21511-2022")</f>
         <v/>
       </c>
     </row>
@@ -2527,7 +2528,7 @@
         <v>44578</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2585,27 +2586,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 2237-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 2237-2022.xlsx", "A 2237-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 2237-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 2237-2022.png", "A 2237-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 2237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 2237-2022.docx", "A 2237-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 2237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 2237-2022.docx", "A 2237-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 2237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 2237-2022.docx", "A 2237-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 2237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 2237-2022.docx", "A 2237-2022")</f>
         <v/>
       </c>
     </row>
@@ -2619,7 +2620,7 @@
         <v>44701</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2677,27 +2678,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 20976-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 20976-2022.xlsx", "A 20976-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 20976-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 20976-2022.png", "A 20976-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 20976-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 20976-2022.docx", "A 20976-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 20976-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 20976-2022.docx", "A 20976-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 20976-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 20976-2022.docx", "A 20976-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 20976-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 20976-2022.docx", "A 20976-2022")</f>
         <v/>
       </c>
     </row>
@@ -2711,7 +2712,7 @@
         <v>45063</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2769,31 +2770,31 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 21753-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 21753-2023.xlsx", "A 21753-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 21753-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 21753-2023.png", "A 21753-2023")</f>
         <v/>
       </c>
       <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 21753-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 21753-2023.png", "A 21753-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 21753-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 21753-2023.docx", "A 21753-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 21753-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 21753-2023.docx", "A 21753-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 21753-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 21753-2023.docx", "A 21753-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 21753-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 21753-2023.docx", "A 21753-2023")</f>
         <v/>
       </c>
     </row>
@@ -2807,7 +2808,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2864,27 +2865,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 50716-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 50716-2018.xlsx", "A 50716-2018")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 50716-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 50716-2018.png", "A 50716-2018")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 50716-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 50716-2018.docx", "A 50716-2018")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 50716-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 50716-2018.docx", "A 50716-2018")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 50716-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 50716-2018.docx", "A 50716-2018")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 50716-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 50716-2018.docx", "A 50716-2018")</f>
         <v/>
       </c>
     </row>
@@ -2898,7 +2899,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2955,31 +2956,31 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 8023-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 8023-2019.xlsx", "A 8023-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 8023-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 8023-2019.png", "A 8023-2019")</f>
         <v/>
       </c>
       <c r="U25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 8023-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 8023-2019.png", "A 8023-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 8023-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 8023-2019.docx", "A 8023-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 8023-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 8023-2019.docx", "A 8023-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 8023-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 8023-2019.docx", "A 8023-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 8023-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 8023-2019.docx", "A 8023-2019")</f>
         <v/>
       </c>
     </row>
@@ -2993,7 +2994,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3050,31 +3051,31 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 65938-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 65938-2021.xlsx", "A 65938-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 65938-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 65938-2021.png", "A 65938-2021")</f>
         <v/>
       </c>
       <c r="U26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 65938-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 65938-2021.png", "A 65938-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 65938-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 65938-2021.docx", "A 65938-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 65938-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 65938-2021.docx", "A 65938-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 65938-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 65938-2021.docx", "A 65938-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 65938-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 65938-2021.docx", "A 65938-2021")</f>
         <v/>
       </c>
     </row>
@@ -3088,7 +3089,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3145,27 +3146,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 3341-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 3341-2023.xlsx", "A 3341-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 3341-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 3341-2023.png", "A 3341-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 3341-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 3341-2023.docx", "A 3341-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 3341-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 3341-2023.docx", "A 3341-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 3341-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 3341-2023.docx", "A 3341-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 3341-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 3341-2023.docx", "A 3341-2023")</f>
         <v/>
       </c>
     </row>
@@ -3179,7 +3180,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3236,31 +3237,31 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 8120-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 8120-2023.xlsx", "A 8120-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 8120-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 8120-2023.png", "A 8120-2023")</f>
         <v/>
       </c>
       <c r="U28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 8120-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 8120-2023.png", "A 8120-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 8120-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 8120-2023.docx", "A 8120-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 8120-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 8120-2023.docx", "A 8120-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 8120-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 8120-2023.docx", "A 8120-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 8120-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 8120-2023.docx", "A 8120-2023")</f>
         <v/>
       </c>
     </row>
@@ -3274,7 +3275,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3336,27 +3337,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 16369-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 16369-2023.xlsx", "A 16369-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 16369-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 16369-2023.png", "A 16369-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 16369-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 16369-2023.docx", "A 16369-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 16369-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 16369-2023.docx", "A 16369-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 16369-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 16369-2023.docx", "A 16369-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 16369-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 16369-2023.docx", "A 16369-2023")</f>
         <v/>
       </c>
     </row>
@@ -3370,7 +3371,7 @@
         <v>45028</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3427,27 +3428,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 16688-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 16688-2023.xlsx", "A 16688-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 16688-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 16688-2023.png", "A 16688-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 16688-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 16688-2023.docx", "A 16688-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 16688-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 16688-2023.docx", "A 16688-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 16688-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 16688-2023.docx", "A 16688-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 16688-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 16688-2023.docx", "A 16688-2023")</f>
         <v/>
       </c>
     </row>
@@ -3461,7 +3462,7 @@
         <v>44337</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3517,27 +3518,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 24523-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 24523-2021.xlsx", "A 24523-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 24523-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 24523-2021.png", "A 24523-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 24523-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 24523-2021.docx", "A 24523-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 24523-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 24523-2021.docx", "A 24523-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 24523-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 24523-2021.docx", "A 24523-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 24523-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 24523-2021.docx", "A 24523-2021")</f>
         <v/>
       </c>
     </row>
@@ -3551,7 +3552,7 @@
         <v>44356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3607,31 +3608,31 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 28512-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 28512-2021.xlsx", "A 28512-2021")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 28512-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 28512-2021.png", "A 28512-2021")</f>
         <v/>
       </c>
       <c r="U32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 28512-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 28512-2021.png", "A 28512-2021")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 28512-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 28512-2021.docx", "A 28512-2021")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 28512-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 28512-2021.docx", "A 28512-2021")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 28512-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 28512-2021.docx", "A 28512-2021")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 28512-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 28512-2021.docx", "A 28512-2021")</f>
         <v/>
       </c>
     </row>
@@ -3645,7 +3646,7 @@
         <v>44929</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3701,27 +3702,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 376-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 376-2023.xlsx", "A 376-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 376-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 376-2023.png", "A 376-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 376-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 376-2023.docx", "A 376-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 376-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 376-2023.docx", "A 376-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 376-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 376-2023.docx", "A 376-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 376-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 376-2023.docx", "A 376-2023")</f>
         <v/>
       </c>
     </row>
@@ -3735,7 +3736,7 @@
         <v>44742</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3795,27 +3796,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 27577-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 27577-2022.xlsx", "A 27577-2022")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 27577-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 27577-2022.png", "A 27577-2022")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 27577-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 27577-2022.docx", "A 27577-2022")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 27577-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 27577-2022.docx", "A 27577-2022")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 27577-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 27577-2022.docx", "A 27577-2022")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 27577-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 27577-2022.docx", "A 27577-2022")</f>
         <v/>
       </c>
     </row>
@@ -3829,7 +3830,7 @@
         <v>44851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3884,31 +3885,31 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 47392-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 47392-2022.xlsx", "A 47392-2022")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 47392-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 47392-2022.png", "A 47392-2022")</f>
         <v/>
       </c>
       <c r="U35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 47392-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 47392-2022.png", "A 47392-2022")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 47392-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 47392-2022.docx", "A 47392-2022")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 47392-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 47392-2022.docx", "A 47392-2022")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 47392-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 47392-2022.docx", "A 47392-2022")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 47392-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 47392-2022.docx", "A 47392-2022")</f>
         <v/>
       </c>
     </row>
@@ -3922,7 +3923,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3982,27 +3983,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 56096-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 56096-2022.xlsx", "A 56096-2022")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 56096-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 56096-2022.png", "A 56096-2022")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 56096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 56096-2022.docx", "A 56096-2022")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 56096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 56096-2022.docx", "A 56096-2022")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 56096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 56096-2022.docx", "A 56096-2022")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 56096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 56096-2022.docx", "A 56096-2022")</f>
         <v/>
       </c>
     </row>
@@ -4016,7 +4017,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4070,27 +4071,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 29135-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 29135-2022.xlsx", "A 29135-2022")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 29135-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 29135-2022.png", "A 29135-2022")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 29135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 29135-2022.docx", "A 29135-2022")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 29135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 29135-2022.docx", "A 29135-2022")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 29135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 29135-2022.docx", "A 29135-2022")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 29135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 29135-2022.docx", "A 29135-2022")</f>
         <v/>
       </c>
     </row>
@@ -4104,7 +4105,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4158,27 +4159,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 59291-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 59291-2022.xlsx", "A 59291-2022")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 59291-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 59291-2022.png", "A 59291-2022")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 59291-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 59291-2022.docx", "A 59291-2022")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 59291-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 59291-2022.docx", "A 59291-2022")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 59291-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 59291-2022.docx", "A 59291-2022")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 59291-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 59291-2022.docx", "A 59291-2022")</f>
         <v/>
       </c>
     </row>
@@ -4192,7 +4193,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4251,27 +4252,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 2962-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 2962-2023.xlsx", "A 2962-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 2962-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 2962-2023.png", "A 2962-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 2962-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 2962-2023.docx", "A 2962-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 2962-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 2962-2023.docx", "A 2962-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 2962-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 2962-2023.docx", "A 2962-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 2962-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 2962-2023.docx", "A 2962-2023")</f>
         <v/>
       </c>
     </row>
@@ -4285,7 +4286,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4338,27 +4339,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 23410-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 23410-2019.xlsx", "A 23410-2019")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 23410-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 23410-2019.png", "A 23410-2019")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 23410-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 23410-2019.docx", "A 23410-2019")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 23410-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 23410-2019.docx", "A 23410-2019")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 23410-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 23410-2019.docx", "A 23410-2019")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 23410-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 23410-2019.docx", "A 23410-2019")</f>
         <v/>
       </c>
     </row>
@@ -4372,7 +4373,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4430,27 +4431,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 26741-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 26741-2019.xlsx", "A 26741-2019")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 26741-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 26741-2019.png", "A 26741-2019")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 26741-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 26741-2019.docx", "A 26741-2019")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 26741-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 26741-2019.docx", "A 26741-2019")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 26741-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 26741-2019.docx", "A 26741-2019")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 26741-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 26741-2019.docx", "A 26741-2019")</f>
         <v/>
       </c>
     </row>
@@ -4464,7 +4465,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4522,27 +4523,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 36815-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 36815-2019.xlsx", "A 36815-2019")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 36815-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 36815-2019.png", "A 36815-2019")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 36815-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 36815-2019.docx", "A 36815-2019")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 36815-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 36815-2019.docx", "A 36815-2019")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 36815-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 36815-2019.docx", "A 36815-2019")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 36815-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 36815-2019.docx", "A 36815-2019")</f>
         <v/>
       </c>
     </row>
@@ -4556,7 +4557,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4609,27 +4610,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 62240-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 62240-2019.xlsx", "A 62240-2019")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 62240-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 62240-2019.png", "A 62240-2019")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 62240-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 62240-2019.docx", "A 62240-2019")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 62240-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 62240-2019.docx", "A 62240-2019")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 62240-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 62240-2019.docx", "A 62240-2019")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 62240-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 62240-2019.docx", "A 62240-2019")</f>
         <v/>
       </c>
     </row>
@@ -4643,7 +4644,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4696,31 +4697,31 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 7877-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 7877-2021.xlsx", "A 7877-2021")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 7877-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 7877-2021.png", "A 7877-2021")</f>
         <v/>
       </c>
       <c r="U44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 7877-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 7877-2021.png", "A 7877-2021")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 7877-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 7877-2021.docx", "A 7877-2021")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 7877-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 7877-2021.docx", "A 7877-2021")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 7877-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 7877-2021.docx", "A 7877-2021")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 7877-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 7877-2021.docx", "A 7877-2021")</f>
         <v/>
       </c>
     </row>
@@ -4734,7 +4735,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4787,27 +4788,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 29349-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 29349-2022.xlsx", "A 29349-2022")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 29349-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 29349-2022.png", "A 29349-2022")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 29349-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 29349-2022.docx", "A 29349-2022")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 29349-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 29349-2022.docx", "A 29349-2022")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 29349-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 29349-2022.docx", "A 29349-2022")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 29349-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 29349-2022.docx", "A 29349-2022")</f>
         <v/>
       </c>
     </row>
@@ -4821,7 +4822,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4874,31 +4875,31 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 39641-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 39641-2022.xlsx", "A 39641-2022")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 39641-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 39641-2022.png", "A 39641-2022")</f>
         <v/>
       </c>
       <c r="U46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 39641-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 39641-2022.png", "A 39641-2022")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 39641-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 39641-2022.docx", "A 39641-2022")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 39641-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 39641-2022.docx", "A 39641-2022")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 39641-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 39641-2022.docx", "A 39641-2022")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 39641-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 39641-2022.docx", "A 39641-2022")</f>
         <v/>
       </c>
     </row>
@@ -4912,7 +4913,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4965,27 +4966,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 60565-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 60565-2022.xlsx", "A 60565-2022")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 60565-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 60565-2022.png", "A 60565-2022")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 60565-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 60565-2022.docx", "A 60565-2022")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 60565-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 60565-2022.docx", "A 60565-2022")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 60565-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 60565-2022.docx", "A 60565-2022")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 60565-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 60565-2022.docx", "A 60565-2022")</f>
         <v/>
       </c>
     </row>
@@ -4999,7 +5000,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5052,27 +5053,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 5100-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 5100-2023.xlsx", "A 5100-2023")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 5100-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 5100-2023.png", "A 5100-2023")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 5100-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 5100-2023.docx", "A 5100-2023")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 5100-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 5100-2023.docx", "A 5100-2023")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 5100-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 5100-2023.docx", "A 5100-2023")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 5100-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 5100-2023.docx", "A 5100-2023")</f>
         <v/>
       </c>
     </row>
@@ -5086,7 +5087,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5139,27 +5140,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 19520-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 19520-2023.xlsx", "A 19520-2023")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 19520-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 19520-2023.png", "A 19520-2023")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 19520-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 19520-2023.docx", "A 19520-2023")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 19520-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 19520-2023.docx", "A 19520-2023")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 19520-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 19520-2023.docx", "A 19520-2023")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 19520-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 19520-2023.docx", "A 19520-2023")</f>
         <v/>
       </c>
     </row>
@@ -5173,7 +5174,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5226,31 +5227,31 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 21752-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 21752-2023.xlsx", "A 21752-2023")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 21752-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 21752-2023.png", "A 21752-2023")</f>
         <v/>
       </c>
       <c r="U50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 21752-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 21752-2023.png", "A 21752-2023")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 21752-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 21752-2023.docx", "A 21752-2023")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 21752-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 21752-2023.docx", "A 21752-2023")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 21752-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 21752-2023.docx", "A 21752-2023")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 21752-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 21752-2023.docx", "A 21752-2023")</f>
         <v/>
       </c>
     </row>
@@ -5264,7 +5265,7 @@
         <v>43378</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5316,27 +5317,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 50332-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 50332-2018.xlsx", "A 50332-2018")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 50332-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 50332-2018.png", "A 50332-2018")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 50332-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 50332-2018.docx", "A 50332-2018")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 50332-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 50332-2018.docx", "A 50332-2018")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 50332-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 50332-2018.docx", "A 50332-2018")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 50332-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 50332-2018.docx", "A 50332-2018")</f>
         <v/>
       </c>
     </row>
@@ -5350,7 +5351,7 @@
         <v>43446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5402,27 +5403,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 70401-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 70401-2018.xlsx", "A 70401-2018")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 70401-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 70401-2018.png", "A 70401-2018")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 70401-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 70401-2018.docx", "A 70401-2018")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 70401-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 70401-2018.docx", "A 70401-2018")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 70401-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 70401-2018.docx", "A 70401-2018")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 70401-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 70401-2018.docx", "A 70401-2018")</f>
         <v/>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
         <v>43656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5493,27 +5494,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 35996-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 35996-2019.xlsx", "A 35996-2019")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 35996-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 35996-2019.png", "A 35996-2019")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 35996-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 35996-2019.docx", "A 35996-2019")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 35996-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 35996-2019.docx", "A 35996-2019")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 35996-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 35996-2019.docx", "A 35996-2019")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 35996-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 35996-2019.docx", "A 35996-2019")</f>
         <v/>
       </c>
     </row>
@@ -5527,7 +5528,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5579,27 +5580,27 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 29583-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 29583-2021.xlsx", "A 29583-2021")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 29583-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 29583-2021.png", "A 29583-2021")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 29583-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 29583-2021.docx", "A 29583-2021")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 29583-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 29583-2021.docx", "A 29583-2021")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 29583-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 29583-2021.docx", "A 29583-2021")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 29583-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 29583-2021.docx", "A 29583-2021")</f>
         <v/>
       </c>
     </row>
@@ -5613,7 +5614,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5665,27 +5666,27 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 30105-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 30105-2021.xlsx", "A 30105-2021")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 30105-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 30105-2021.png", "A 30105-2021")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 30105-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 30105-2021.docx", "A 30105-2021")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 30105-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 30105-2021.docx", "A 30105-2021")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 30105-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 30105-2021.docx", "A 30105-2021")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 30105-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 30105-2021.docx", "A 30105-2021")</f>
         <v/>
       </c>
     </row>
@@ -5699,7 +5700,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5751,27 +5752,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 46105-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 46105-2021.xlsx", "A 46105-2021")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 46105-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 46105-2021.png", "A 46105-2021")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 46105-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 46105-2021.docx", "A 46105-2021")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 46105-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 46105-2021.docx", "A 46105-2021")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 46105-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 46105-2021.docx", "A 46105-2021")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 46105-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 46105-2021.docx", "A 46105-2021")</f>
         <v/>
       </c>
     </row>
@@ -5785,7 +5786,7 @@
         <v>44508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5842,27 +5843,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 63601-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 63601-2021.xlsx", "A 63601-2021")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 63601-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 63601-2021.png", "A 63601-2021")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 63601-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 63601-2021.docx", "A 63601-2021")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 63601-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 63601-2021.docx", "A 63601-2021")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 63601-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 63601-2021.docx", "A 63601-2021")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 63601-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 63601-2021.docx", "A 63601-2021")</f>
         <v/>
       </c>
     </row>
@@ -5876,7 +5877,7 @@
         <v>44693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5928,31 +5929,31 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 19511-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 19511-2022.xlsx", "A 19511-2022")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 19511-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 19511-2022.png", "A 19511-2022")</f>
         <v/>
       </c>
       <c r="U58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 19511-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 19511-2022.png", "A 19511-2022")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 19511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 19511-2022.docx", "A 19511-2022")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 19511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 19511-2022.docx", "A 19511-2022")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 19511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 19511-2022.docx", "A 19511-2022")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 19511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 19511-2022.docx", "A 19511-2022")</f>
         <v/>
       </c>
     </row>
@@ -5966,7 +5967,7 @@
         <v>44853</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6018,31 +6019,31 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 47385-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 47385-2022.xlsx", "A 47385-2022")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 47385-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 47385-2022.png", "A 47385-2022")</f>
         <v/>
       </c>
       <c r="U59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 47385-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 47385-2022.png", "A 47385-2022")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 47385-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 47385-2022.docx", "A 47385-2022")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 47385-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 47385-2022.docx", "A 47385-2022")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 47385-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 47385-2022.docx", "A 47385-2022")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 47385-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 47385-2022.docx", "A 47385-2022")</f>
         <v/>
       </c>
     </row>
@@ -6056,7 +6057,7 @@
         <v>44904</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6108,27 +6109,27 @@
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 60534-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 60534-2022.xlsx", "A 60534-2022")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 60534-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 60534-2022.png", "A 60534-2022")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 60534-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 60534-2022.docx", "A 60534-2022")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 60534-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 60534-2022.docx", "A 60534-2022")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 60534-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 60534-2022.docx", "A 60534-2022")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 60534-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 60534-2022.docx", "A 60534-2022")</f>
         <v/>
       </c>
     </row>
@@ -6142,7 +6143,7 @@
         <v>44908</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6194,27 +6195,27 @@
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 59793-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 59793-2022.xlsx", "A 59793-2022")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 59793-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 59793-2022.png", "A 59793-2022")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 59793-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 59793-2022.docx", "A 59793-2022")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 59793-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 59793-2022.docx", "A 59793-2022")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 59793-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 59793-2022.docx", "A 59793-2022")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 59793-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 59793-2022.docx", "A 59793-2022")</f>
         <v/>
       </c>
     </row>
@@ -6228,7 +6229,7 @@
         <v>44911</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6280,27 +6281,27 @@
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 60614-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 60614-2022.xlsx", "A 60614-2022")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 60614-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 60614-2022.png", "A 60614-2022")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 60614-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 60614-2022.docx", "A 60614-2022")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 60614-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 60614-2022.docx", "A 60614-2022")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 60614-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 60614-2022.docx", "A 60614-2022")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 60614-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 60614-2022.docx", "A 60614-2022")</f>
         <v/>
       </c>
     </row>
@@ -6314,7 +6315,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6366,27 +6367,27 @@
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 19147-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 19147-2023.xlsx", "A 19147-2023")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 19147-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 19147-2023.png", "A 19147-2023")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 19147-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 19147-2023.docx", "A 19147-2023")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 19147-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 19147-2023.docx", "A 19147-2023")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 19147-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 19147-2023.docx", "A 19147-2023")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 19147-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 19147-2023.docx", "A 19147-2023")</f>
         <v/>
       </c>
     </row>
@@ -6400,7 +6401,7 @@
         <v>45161</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6452,27 +6453,27 @@
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 38334-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 38334-2023.xlsx", "A 38334-2023")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 38334-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 38334-2023.png", "A 38334-2023")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 38334-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 38334-2023.docx", "A 38334-2023")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 38334-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 38334-2023.docx", "A 38334-2023")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 38334-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 38334-2023.docx", "A 38334-2023")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 38334-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 38334-2023.docx", "A 38334-2023")</f>
         <v/>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6542,27 +6543,27 @@
         </is>
       </c>
       <c r="S65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 59147-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 59147-2018.xlsx", "A 59147-2018")</f>
         <v/>
       </c>
       <c r="T65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 59147-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 59147-2018.png", "A 59147-2018")</f>
         <v/>
       </c>
       <c r="V65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 59147-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 59147-2018.docx", "A 59147-2018")</f>
         <v/>
       </c>
       <c r="W65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 59147-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 59147-2018.docx", "A 59147-2018")</f>
         <v/>
       </c>
       <c r="X65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 59147-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 59147-2018.docx", "A 59147-2018")</f>
         <v/>
       </c>
       <c r="Y65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 59147-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 59147-2018.docx", "A 59147-2018")</f>
         <v/>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6632,27 +6633,27 @@
         </is>
       </c>
       <c r="S66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 30941-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 30941-2019.xlsx", "A 30941-2019")</f>
         <v/>
       </c>
       <c r="T66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 30941-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 30941-2019.png", "A 30941-2019")</f>
         <v/>
       </c>
       <c r="V66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 30941-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 30941-2019.docx", "A 30941-2019")</f>
         <v/>
       </c>
       <c r="W66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 30941-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 30941-2019.docx", "A 30941-2019")</f>
         <v/>
       </c>
       <c r="X66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 30941-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 30941-2019.docx", "A 30941-2019")</f>
         <v/>
       </c>
       <c r="Y66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 30941-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 30941-2019.docx", "A 30941-2019")</f>
         <v/>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
         <v>43768</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6717,27 +6718,27 @@
         </is>
       </c>
       <c r="S67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 57757-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 57757-2019.xlsx", "A 57757-2019")</f>
         <v/>
       </c>
       <c r="T67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 57757-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 57757-2019.png", "A 57757-2019")</f>
         <v/>
       </c>
       <c r="V67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 57757-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 57757-2019.docx", "A 57757-2019")</f>
         <v/>
       </c>
       <c r="W67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 57757-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 57757-2019.docx", "A 57757-2019")</f>
         <v/>
       </c>
       <c r="X67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 57757-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 57757-2019.docx", "A 57757-2019")</f>
         <v/>
       </c>
       <c r="Y67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 57757-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 57757-2019.docx", "A 57757-2019")</f>
         <v/>
       </c>
     </row>
@@ -6751,7 +6752,7 @@
         <v>43784</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6802,27 +6803,27 @@
         </is>
       </c>
       <c r="S68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 61628-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 61628-2019.xlsx", "A 61628-2019")</f>
         <v/>
       </c>
       <c r="T68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 61628-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 61628-2019.png", "A 61628-2019")</f>
         <v/>
       </c>
       <c r="V68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 61628-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 61628-2019.docx", "A 61628-2019")</f>
         <v/>
       </c>
       <c r="W68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 61628-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 61628-2019.docx", "A 61628-2019")</f>
         <v/>
       </c>
       <c r="X68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 61628-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 61628-2019.docx", "A 61628-2019")</f>
         <v/>
       </c>
       <c r="Y68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 61628-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 61628-2019.docx", "A 61628-2019")</f>
         <v/>
       </c>
     </row>
@@ -6836,7 +6837,7 @@
         <v>43893</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6887,27 +6888,27 @@
         </is>
       </c>
       <c r="S69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 11561-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 11561-2020.xlsx", "A 11561-2020")</f>
         <v/>
       </c>
       <c r="T69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 11561-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 11561-2020.png", "A 11561-2020")</f>
         <v/>
       </c>
       <c r="V69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 11561-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 11561-2020.docx", "A 11561-2020")</f>
         <v/>
       </c>
       <c r="W69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 11561-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 11561-2020.docx", "A 11561-2020")</f>
         <v/>
       </c>
       <c r="X69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 11561-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 11561-2020.docx", "A 11561-2020")</f>
         <v/>
       </c>
       <c r="Y69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 11561-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 11561-2020.docx", "A 11561-2020")</f>
         <v/>
       </c>
     </row>
@@ -6921,7 +6922,7 @@
         <v>44047</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6972,31 +6973,31 @@
         </is>
       </c>
       <c r="S70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 35980-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 35980-2020.xlsx", "A 35980-2020")</f>
         <v/>
       </c>
       <c r="T70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 35980-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 35980-2020.png", "A 35980-2020")</f>
         <v/>
       </c>
       <c r="U70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 35980-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 35980-2020.png", "A 35980-2020")</f>
         <v/>
       </c>
       <c r="V70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 35980-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 35980-2020.docx", "A 35980-2020")</f>
         <v/>
       </c>
       <c r="W70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 35980-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 35980-2020.docx", "A 35980-2020")</f>
         <v/>
       </c>
       <c r="X70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 35980-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 35980-2020.docx", "A 35980-2020")</f>
         <v/>
       </c>
       <c r="Y70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 35980-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 35980-2020.docx", "A 35980-2020")</f>
         <v/>
       </c>
     </row>
@@ -7010,7 +7011,7 @@
         <v>44165</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7061,27 +7062,27 @@
         </is>
       </c>
       <c r="S71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 63775-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 63775-2020.xlsx", "A 63775-2020")</f>
         <v/>
       </c>
       <c r="T71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 63775-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 63775-2020.png", "A 63775-2020")</f>
         <v/>
       </c>
       <c r="V71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 63775-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 63775-2020.docx", "A 63775-2020")</f>
         <v/>
       </c>
       <c r="W71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 63775-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 63775-2020.docx", "A 63775-2020")</f>
         <v/>
       </c>
       <c r="X71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 63775-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 63775-2020.docx", "A 63775-2020")</f>
         <v/>
       </c>
       <c r="Y71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 63775-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 63775-2020.docx", "A 63775-2020")</f>
         <v/>
       </c>
     </row>
@@ -7095,7 +7096,7 @@
         <v>44272</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7146,27 +7147,27 @@
         </is>
       </c>
       <c r="S72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 13362-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 13362-2021.xlsx", "A 13362-2021")</f>
         <v/>
       </c>
       <c r="T72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 13362-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 13362-2021.png", "A 13362-2021")</f>
         <v/>
       </c>
       <c r="V72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 13362-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 13362-2021.docx", "A 13362-2021")</f>
         <v/>
       </c>
       <c r="W72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 13362-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 13362-2021.docx", "A 13362-2021")</f>
         <v/>
       </c>
       <c r="X72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 13362-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 13362-2021.docx", "A 13362-2021")</f>
         <v/>
       </c>
       <c r="Y72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 13362-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 13362-2021.docx", "A 13362-2021")</f>
         <v/>
       </c>
     </row>
@@ -7180,7 +7181,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7231,27 +7232,27 @@
         </is>
       </c>
       <c r="S73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 25839-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 25839-2021.xlsx", "A 25839-2021")</f>
         <v/>
       </c>
       <c r="T73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 25839-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 25839-2021.png", "A 25839-2021")</f>
         <v/>
       </c>
       <c r="V73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 25839-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 25839-2021.docx", "A 25839-2021")</f>
         <v/>
       </c>
       <c r="W73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 25839-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 25839-2021.docx", "A 25839-2021")</f>
         <v/>
       </c>
       <c r="X73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 25839-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 25839-2021.docx", "A 25839-2021")</f>
         <v/>
       </c>
       <c r="Y73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 25839-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 25839-2021.docx", "A 25839-2021")</f>
         <v/>
       </c>
     </row>
@@ -7265,7 +7266,7 @@
         <v>44355</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7316,27 +7317,27 @@
         </is>
       </c>
       <c r="S74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 28287-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 28287-2021.xlsx", "A 28287-2021")</f>
         <v/>
       </c>
       <c r="T74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 28287-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 28287-2021.png", "A 28287-2021")</f>
         <v/>
       </c>
       <c r="V74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 28287-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 28287-2021.docx", "A 28287-2021")</f>
         <v/>
       </c>
       <c r="W74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 28287-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 28287-2021.docx", "A 28287-2021")</f>
         <v/>
       </c>
       <c r="X74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 28287-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 28287-2021.docx", "A 28287-2021")</f>
         <v/>
       </c>
       <c r="Y74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 28287-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 28287-2021.docx", "A 28287-2021")</f>
         <v/>
       </c>
     </row>
@@ -7350,7 +7351,7 @@
         <v>44355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7401,27 +7402,27 @@
         </is>
       </c>
       <c r="S75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 28286-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 28286-2021.xlsx", "A 28286-2021")</f>
         <v/>
       </c>
       <c r="T75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 28286-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 28286-2021.png", "A 28286-2021")</f>
         <v/>
       </c>
       <c r="V75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 28286-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 28286-2021.docx", "A 28286-2021")</f>
         <v/>
       </c>
       <c r="W75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 28286-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 28286-2021.docx", "A 28286-2021")</f>
         <v/>
       </c>
       <c r="X75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 28286-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 28286-2021.docx", "A 28286-2021")</f>
         <v/>
       </c>
       <c r="Y75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 28286-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 28286-2021.docx", "A 28286-2021")</f>
         <v/>
       </c>
     </row>
@@ -7435,7 +7436,7 @@
         <v>44368</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7486,27 +7487,27 @@
         </is>
       </c>
       <c r="S76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 31328-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 31328-2021.xlsx", "A 31328-2021")</f>
         <v/>
       </c>
       <c r="T76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 31328-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 31328-2021.png", "A 31328-2021")</f>
         <v/>
       </c>
       <c r="V76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 31328-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 31328-2021.docx", "A 31328-2021")</f>
         <v/>
       </c>
       <c r="W76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 31328-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 31328-2021.docx", "A 31328-2021")</f>
         <v/>
       </c>
       <c r="X76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 31328-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 31328-2021.docx", "A 31328-2021")</f>
         <v/>
       </c>
       <c r="Y76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 31328-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 31328-2021.docx", "A 31328-2021")</f>
         <v/>
       </c>
     </row>
@@ -7520,7 +7521,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7576,27 +7577,27 @@
         </is>
       </c>
       <c r="S77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 33137-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 33137-2021.xlsx", "A 33137-2021")</f>
         <v/>
       </c>
       <c r="T77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 33137-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 33137-2021.png", "A 33137-2021")</f>
         <v/>
       </c>
       <c r="V77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 33137-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 33137-2021.docx", "A 33137-2021")</f>
         <v/>
       </c>
       <c r="W77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 33137-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 33137-2021.docx", "A 33137-2021")</f>
         <v/>
       </c>
       <c r="X77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 33137-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 33137-2021.docx", "A 33137-2021")</f>
         <v/>
       </c>
       <c r="Y77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 33137-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 33137-2021.docx", "A 33137-2021")</f>
         <v/>
       </c>
     </row>
@@ -7610,7 +7611,7 @@
         <v>44441</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7661,27 +7662,27 @@
         </is>
       </c>
       <c r="S78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 46163-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 46163-2021.xlsx", "A 46163-2021")</f>
         <v/>
       </c>
       <c r="T78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 46163-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 46163-2021.png", "A 46163-2021")</f>
         <v/>
       </c>
       <c r="V78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 46163-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 46163-2021.docx", "A 46163-2021")</f>
         <v/>
       </c>
       <c r="W78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 46163-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 46163-2021.docx", "A 46163-2021")</f>
         <v/>
       </c>
       <c r="X78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 46163-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 46163-2021.docx", "A 46163-2021")</f>
         <v/>
       </c>
       <c r="Y78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 46163-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 46163-2021.docx", "A 46163-2021")</f>
         <v/>
       </c>
     </row>
@@ -7695,7 +7696,7 @@
         <v>44476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7746,27 +7747,27 @@
         </is>
       </c>
       <c r="S79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 55821-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 55821-2021.xlsx", "A 55821-2021")</f>
         <v/>
       </c>
       <c r="T79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 55821-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 55821-2021.png", "A 55821-2021")</f>
         <v/>
       </c>
       <c r="V79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 55821-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 55821-2021.docx", "A 55821-2021")</f>
         <v/>
       </c>
       <c r="W79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 55821-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 55821-2021.docx", "A 55821-2021")</f>
         <v/>
       </c>
       <c r="X79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 55821-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 55821-2021.docx", "A 55821-2021")</f>
         <v/>
       </c>
       <c r="Y79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 55821-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 55821-2021.docx", "A 55821-2021")</f>
         <v/>
       </c>
     </row>
@@ -7780,7 +7781,7 @@
         <v>44491</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7836,27 +7837,27 @@
         </is>
       </c>
       <c r="S80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 59433-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 59433-2021.xlsx", "A 59433-2021")</f>
         <v/>
       </c>
       <c r="T80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 59433-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 59433-2021.png", "A 59433-2021")</f>
         <v/>
       </c>
       <c r="V80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 59433-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 59433-2021.docx", "A 59433-2021")</f>
         <v/>
       </c>
       <c r="W80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 59433-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 59433-2021.docx", "A 59433-2021")</f>
         <v/>
       </c>
       <c r="X80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 59433-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 59433-2021.docx", "A 59433-2021")</f>
         <v/>
       </c>
       <c r="Y80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 59433-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 59433-2021.docx", "A 59433-2021")</f>
         <v/>
       </c>
     </row>
@@ -7870,7 +7871,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7926,27 +7927,27 @@
         </is>
       </c>
       <c r="S81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 9739-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 9739-2022.xlsx", "A 9739-2022")</f>
         <v/>
       </c>
       <c r="T81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 9739-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 9739-2022.png", "A 9739-2022")</f>
         <v/>
       </c>
       <c r="V81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 9739-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 9739-2022.docx", "A 9739-2022")</f>
         <v/>
       </c>
       <c r="W81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 9739-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 9739-2022.docx", "A 9739-2022")</f>
         <v/>
       </c>
       <c r="X81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 9739-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 9739-2022.docx", "A 9739-2022")</f>
         <v/>
       </c>
       <c r="Y81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 9739-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 9739-2022.docx", "A 9739-2022")</f>
         <v/>
       </c>
     </row>
@@ -7960,7 +7961,7 @@
         <v>44623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8011,27 +8012,27 @@
         </is>
       </c>
       <c r="S82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 10336-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 10336-2022.xlsx", "A 10336-2022")</f>
         <v/>
       </c>
       <c r="T82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 10336-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 10336-2022.png", "A 10336-2022")</f>
         <v/>
       </c>
       <c r="V82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 10336-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 10336-2022.docx", "A 10336-2022")</f>
         <v/>
       </c>
       <c r="W82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 10336-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 10336-2022.docx", "A 10336-2022")</f>
         <v/>
       </c>
       <c r="X82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 10336-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 10336-2022.docx", "A 10336-2022")</f>
         <v/>
       </c>
       <c r="Y82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 10336-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 10336-2022.docx", "A 10336-2022")</f>
         <v/>
       </c>
     </row>
@@ -8045,7 +8046,7 @@
         <v>44694</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8101,27 +8102,27 @@
         </is>
       </c>
       <c r="S83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 19798-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 19798-2022.xlsx", "A 19798-2022")</f>
         <v/>
       </c>
       <c r="T83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 19798-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 19798-2022.png", "A 19798-2022")</f>
         <v/>
       </c>
       <c r="V83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 19798-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 19798-2022.docx", "A 19798-2022")</f>
         <v/>
       </c>
       <c r="W83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 19798-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 19798-2022.docx", "A 19798-2022")</f>
         <v/>
       </c>
       <c r="X83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 19798-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 19798-2022.docx", "A 19798-2022")</f>
         <v/>
       </c>
       <c r="Y83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 19798-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 19798-2022.docx", "A 19798-2022")</f>
         <v/>
       </c>
     </row>
@@ -8135,7 +8136,7 @@
         <v>44694</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8191,27 +8192,27 @@
         </is>
       </c>
       <c r="S84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 19796-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 19796-2022.xlsx", "A 19796-2022")</f>
         <v/>
       </c>
       <c r="T84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 19796-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 19796-2022.png", "A 19796-2022")</f>
         <v/>
       </c>
       <c r="V84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 19796-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 19796-2022.docx", "A 19796-2022")</f>
         <v/>
       </c>
       <c r="W84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 19796-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 19796-2022.docx", "A 19796-2022")</f>
         <v/>
       </c>
       <c r="X84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 19796-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 19796-2022.docx", "A 19796-2022")</f>
         <v/>
       </c>
       <c r="Y84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 19796-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 19796-2022.docx", "A 19796-2022")</f>
         <v/>
       </c>
     </row>
@@ -8225,7 +8226,7 @@
         <v>44742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8281,31 +8282,31 @@
         </is>
       </c>
       <c r="S85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 27576-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 27576-2022.xlsx", "A 27576-2022")</f>
         <v/>
       </c>
       <c r="T85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 27576-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 27576-2022.png", "A 27576-2022")</f>
         <v/>
       </c>
       <c r="U85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 27576-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 27576-2022.png", "A 27576-2022")</f>
         <v/>
       </c>
       <c r="V85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 27576-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 27576-2022.docx", "A 27576-2022")</f>
         <v/>
       </c>
       <c r="W85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 27576-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 27576-2022.docx", "A 27576-2022")</f>
         <v/>
       </c>
       <c r="X85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 27576-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 27576-2022.docx", "A 27576-2022")</f>
         <v/>
       </c>
       <c r="Y85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 27576-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 27576-2022.docx", "A 27576-2022")</f>
         <v/>
       </c>
     </row>
@@ -8319,7 +8320,7 @@
         <v>44742</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8375,27 +8376,27 @@
         </is>
       </c>
       <c r="S86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 27578-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 27578-2022.xlsx", "A 27578-2022")</f>
         <v/>
       </c>
       <c r="T86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 27578-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 27578-2022.png", "A 27578-2022")</f>
         <v/>
       </c>
       <c r="V86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 27578-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 27578-2022.docx", "A 27578-2022")</f>
         <v/>
       </c>
       <c r="W86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 27578-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 27578-2022.docx", "A 27578-2022")</f>
         <v/>
       </c>
       <c r="X86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 27578-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 27578-2022.docx", "A 27578-2022")</f>
         <v/>
       </c>
       <c r="Y86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 27578-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 27578-2022.docx", "A 27578-2022")</f>
         <v/>
       </c>
     </row>
@@ -8409,7 +8410,7 @@
         <v>44755</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8465,27 +8466,27 @@
         </is>
       </c>
       <c r="S87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 29827-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 29827-2022.xlsx", "A 29827-2022")</f>
         <v/>
       </c>
       <c r="T87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 29827-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 29827-2022.png", "A 29827-2022")</f>
         <v/>
       </c>
       <c r="V87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 29827-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 29827-2022.docx", "A 29827-2022")</f>
         <v/>
       </c>
       <c r="W87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 29827-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 29827-2022.docx", "A 29827-2022")</f>
         <v/>
       </c>
       <c r="X87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 29827-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 29827-2022.docx", "A 29827-2022")</f>
         <v/>
       </c>
       <c r="Y87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 29827-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 29827-2022.docx", "A 29827-2022")</f>
         <v/>
       </c>
     </row>
@@ -8499,7 +8500,7 @@
         <v>44785</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8550,27 +8551,27 @@
         </is>
       </c>
       <c r="S88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 33267-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 33267-2022.xlsx", "A 33267-2022")</f>
         <v/>
       </c>
       <c r="T88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 33267-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 33267-2022.png", "A 33267-2022")</f>
         <v/>
       </c>
       <c r="V88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 33267-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 33267-2022.docx", "A 33267-2022")</f>
         <v/>
       </c>
       <c r="W88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 33267-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 33267-2022.docx", "A 33267-2022")</f>
         <v/>
       </c>
       <c r="X88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 33267-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 33267-2022.docx", "A 33267-2022")</f>
         <v/>
       </c>
       <c r="Y88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 33267-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 33267-2022.docx", "A 33267-2022")</f>
         <v/>
       </c>
     </row>
@@ -8584,7 +8585,7 @@
         <v>44844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8640,27 +8641,27 @@
         </is>
       </c>
       <c r="S89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 45441-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 45441-2022.xlsx", "A 45441-2022")</f>
         <v/>
       </c>
       <c r="T89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 45441-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 45441-2022.png", "A 45441-2022")</f>
         <v/>
       </c>
       <c r="V89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 45441-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 45441-2022.docx", "A 45441-2022")</f>
         <v/>
       </c>
       <c r="W89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 45441-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 45441-2022.docx", "A 45441-2022")</f>
         <v/>
       </c>
       <c r="X89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 45441-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 45441-2022.docx", "A 45441-2022")</f>
         <v/>
       </c>
       <c r="Y89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 45441-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 45441-2022.docx", "A 45441-2022")</f>
         <v/>
       </c>
     </row>
@@ -8674,7 +8675,7 @@
         <v>44890</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8730,27 +8731,27 @@
         </is>
       </c>
       <c r="S90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 56245-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 56245-2022.xlsx", "A 56245-2022")</f>
         <v/>
       </c>
       <c r="T90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 56245-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 56245-2022.png", "A 56245-2022")</f>
         <v/>
       </c>
       <c r="V90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 56245-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 56245-2022.docx", "A 56245-2022")</f>
         <v/>
       </c>
       <c r="W90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 56245-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 56245-2022.docx", "A 56245-2022")</f>
         <v/>
       </c>
       <c r="X90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 56245-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 56245-2022.docx", "A 56245-2022")</f>
         <v/>
       </c>
       <c r="Y90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 56245-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 56245-2022.docx", "A 56245-2022")</f>
         <v/>
       </c>
     </row>
@@ -8764,7 +8765,7 @@
         <v>44900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8815,27 +8816,27 @@
         </is>
       </c>
       <c r="S91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 58181-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 58181-2022.xlsx", "A 58181-2022")</f>
         <v/>
       </c>
       <c r="T91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 58181-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 58181-2022.png", "A 58181-2022")</f>
         <v/>
       </c>
       <c r="V91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 58181-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 58181-2022.docx", "A 58181-2022")</f>
         <v/>
       </c>
       <c r="W91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 58181-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 58181-2022.docx", "A 58181-2022")</f>
         <v/>
       </c>
       <c r="X91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 58181-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 58181-2022.docx", "A 58181-2022")</f>
         <v/>
       </c>
       <c r="Y91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 58181-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 58181-2022.docx", "A 58181-2022")</f>
         <v/>
       </c>
     </row>
@@ -8849,7 +8850,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8905,27 +8906,27 @@
         </is>
       </c>
       <c r="S92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 59739-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 59739-2022.xlsx", "A 59739-2022")</f>
         <v/>
       </c>
       <c r="T92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 59739-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 59739-2022.png", "A 59739-2022")</f>
         <v/>
       </c>
       <c r="V92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 59739-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 59739-2022.docx", "A 59739-2022")</f>
         <v/>
       </c>
       <c r="W92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 59739-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 59739-2022.docx", "A 59739-2022")</f>
         <v/>
       </c>
       <c r="X92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 59739-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 59739-2022.docx", "A 59739-2022")</f>
         <v/>
       </c>
       <c r="Y92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 59739-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 59739-2022.docx", "A 59739-2022")</f>
         <v/>
       </c>
     </row>
@@ -8939,7 +8940,7 @@
         <v>45096</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8990,27 +8991,27 @@
         </is>
       </c>
       <c r="S93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 28980-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/artfynd/A 28980-2023.xlsx", "A 28980-2023")</f>
         <v/>
       </c>
       <c r="T93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 28980-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/kartor/A 28980-2023.png", "A 28980-2023")</f>
         <v/>
       </c>
       <c r="V93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 28980-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 28980-2023.docx", "A 28980-2023")</f>
         <v/>
       </c>
       <c r="W93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 28980-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 28980-2023.docx", "A 28980-2023")</f>
         <v/>
       </c>
       <c r="X93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 28980-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 28980-2023.docx", "A 28980-2023")</f>
         <v/>
       </c>
       <c r="Y93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 28980-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 28980-2023.docx", "A 28980-2023")</f>
         <v/>
       </c>
     </row>
@@ -9024,7 +9025,7 @@
         <v>43314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9081,7 +9082,7 @@
         <v>43314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9138,7 +9139,7 @@
         <v>43321</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9195,7 +9196,7 @@
         <v>43321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9252,7 +9253,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9309,7 +9310,7 @@
         <v>43333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9366,7 +9367,7 @@
         <v>43336</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9428,7 +9429,7 @@
         <v>43364</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9485,7 +9486,7 @@
         <v>43364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9542,7 +9543,7 @@
         <v>43371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9599,7 +9600,7 @@
         <v>43371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9656,7 +9657,7 @@
         <v>43371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9713,7 +9714,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9770,7 +9771,7 @@
         <v>43381</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9827,7 +9828,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9889,7 +9890,7 @@
         <v>43398</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9951,7 +9952,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10008,7 +10009,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10065,7 +10066,7 @@
         <v>43402</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10122,7 +10123,7 @@
         <v>43411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10179,7 +10180,7 @@
         <v>43412</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10236,7 +10237,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10293,7 +10294,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10350,7 +10351,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10407,7 +10408,7 @@
         <v>43426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10464,7 +10465,7 @@
         <v>43439</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10521,7 +10522,7 @@
         <v>43440</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10578,7 +10579,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10635,7 +10636,7 @@
         <v>43451</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10692,7 +10693,7 @@
         <v>43451</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10749,7 +10750,7 @@
         <v>43452</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10806,7 +10807,7 @@
         <v>43454</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10863,7 +10864,7 @@
         <v>43454</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10920,7 +10921,7 @@
         <v>43455</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10977,7 +10978,7 @@
         <v>43472</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11034,7 +11035,7 @@
         <v>43472</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11091,7 +11092,7 @@
         <v>43475</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11148,7 +11149,7 @@
         <v>43476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11205,7 +11206,7 @@
         <v>43478</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11262,7 +11263,7 @@
         <v>43487</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11319,7 +11320,7 @@
         <v>43489</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11376,7 +11377,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11433,7 +11434,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11490,7 +11491,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11547,7 +11548,7 @@
         <v>43494</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11604,7 +11605,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11661,7 +11662,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11718,7 +11719,7 @@
         <v>43503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11775,7 +11776,7 @@
         <v>43514</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11832,7 +11833,7 @@
         <v>43530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11889,7 +11890,7 @@
         <v>43542</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11946,7 +11947,7 @@
         <v>43550</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12003,7 +12004,7 @@
         <v>43571</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12060,7 +12061,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12117,7 +12118,7 @@
         <v>43581</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12179,7 +12180,7 @@
         <v>43584</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12236,7 +12237,7 @@
         <v>43584</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12293,7 +12294,7 @@
         <v>43594</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12350,7 +12351,7 @@
         <v>43595</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12412,7 +12413,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12469,7 +12470,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12526,7 +12527,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12583,7 +12584,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12640,7 +12641,7 @@
         <v>43620</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12697,7 +12698,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12754,7 +12755,7 @@
         <v>43635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12811,7 +12812,7 @@
         <v>43636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12873,7 +12874,7 @@
         <v>43640</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12930,7 +12931,7 @@
         <v>43640</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12987,7 +12988,7 @@
         <v>43650</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13044,7 +13045,7 @@
         <v>43651</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13106,7 +13107,7 @@
         <v>43654</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13168,7 +13169,7 @@
         <v>43654</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13225,7 +13226,7 @@
         <v>43655</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13282,7 +13283,7 @@
         <v>43656</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13339,7 +13340,7 @@
         <v>43656</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13396,7 +13397,7 @@
         <v>43657</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13453,7 +13454,7 @@
         <v>43670</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13510,7 +13511,7 @@
         <v>43676</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13567,7 +13568,7 @@
         <v>43684</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13624,7 +13625,7 @@
         <v>43686</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13681,7 +13682,7 @@
         <v>43696</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13743,7 +13744,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13805,7 +13806,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13862,7 +13863,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13924,7 +13925,7 @@
         <v>43699</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13981,7 +13982,7 @@
         <v>43703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14038,7 +14039,7 @@
         <v>43703</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14095,7 +14096,7 @@
         <v>43718</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14157,7 +14158,7 @@
         <v>43724</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14219,7 +14220,7 @@
         <v>43725</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14281,7 +14282,7 @@
         <v>43727</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14338,7 +14339,7 @@
         <v>43732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14400,7 +14401,7 @@
         <v>43732</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14457,7 +14458,7 @@
         <v>43733</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14519,7 +14520,7 @@
         <v>43735</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14576,7 +14577,7 @@
         <v>43738</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14638,7 +14639,7 @@
         <v>43738</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14695,7 +14696,7 @@
         <v>43747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14752,7 +14753,7 @@
         <v>43748</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14809,7 +14810,7 @@
         <v>43749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14866,7 +14867,7 @@
         <v>43752</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14928,7 +14929,7 @@
         <v>43761</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14985,7 +14986,7 @@
         <v>43762</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15047,7 +15048,7 @@
         <v>43768</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15104,7 +15105,7 @@
         <v>43770</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15161,7 +15162,7 @@
         <v>43770</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15218,7 +15219,7 @@
         <v>43773</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15275,7 +15276,7 @@
         <v>43776</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15332,7 +15333,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15389,7 +15390,7 @@
         <v>43781</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15446,7 +15447,7 @@
         <v>43781</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15503,7 +15504,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15560,7 +15561,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15622,7 +15623,7 @@
         <v>43794</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15679,7 +15680,7 @@
         <v>43802</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15736,7 +15737,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15793,7 +15794,7 @@
         <v>43809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15850,7 +15851,7 @@
         <v>43809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15907,7 +15908,7 @@
         <v>43817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15964,7 +15965,7 @@
         <v>43838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16021,7 +16022,7 @@
         <v>43840</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16078,7 +16079,7 @@
         <v>43840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16135,7 +16136,7 @@
         <v>43840</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16192,7 +16193,7 @@
         <v>43861</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16249,7 +16250,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16306,7 +16307,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16363,7 +16364,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16420,7 +16421,7 @@
         <v>43871</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16477,7 +16478,7 @@
         <v>43871</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16534,7 +16535,7 @@
         <v>43875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16591,7 +16592,7 @@
         <v>43895</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16648,7 +16649,7 @@
         <v>43901</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16705,7 +16706,7 @@
         <v>43906</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16762,7 +16763,7 @@
         <v>43909</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16819,7 +16820,7 @@
         <v>43910</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16881,7 +16882,7 @@
         <v>43917</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16938,7 +16939,7 @@
         <v>43928</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16995,7 +16996,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17052,7 +17053,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17109,7 +17110,7 @@
         <v>43943</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17166,7 +17167,7 @@
         <v>43944</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17223,7 +17224,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17280,7 +17281,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17337,7 +17338,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17394,7 +17395,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17451,7 +17452,7 @@
         <v>43978</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17508,7 +17509,7 @@
         <v>43986</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17565,7 +17566,7 @@
         <v>43992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17622,7 +17623,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17679,7 +17680,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17736,7 +17737,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17793,7 +17794,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17850,7 +17851,7 @@
         <v>44027</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17912,7 +17913,7 @@
         <v>44035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17969,7 +17970,7 @@
         <v>44055</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18026,7 +18027,7 @@
         <v>44057</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18088,7 +18089,7 @@
         <v>44076</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18145,7 +18146,7 @@
         <v>44077</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18207,7 +18208,7 @@
         <v>44077</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18269,7 +18270,7 @@
         <v>44082</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18326,7 +18327,7 @@
         <v>44090</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18388,7 +18389,7 @@
         <v>44106</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18450,7 +18451,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18512,7 +18513,7 @@
         <v>44106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18574,7 +18575,7 @@
         <v>44110</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18636,7 +18637,7 @@
         <v>44113</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18693,7 +18694,7 @@
         <v>44118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18750,7 +18751,7 @@
         <v>44118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18807,7 +18808,7 @@
         <v>44118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18864,7 +18865,7 @@
         <v>44123</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18926,7 +18927,7 @@
         <v>44125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18983,7 +18984,7 @@
         <v>44126</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19040,7 +19041,7 @@
         <v>44126</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19097,7 +19098,7 @@
         <v>44133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19154,7 +19155,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19211,7 +19212,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19273,7 +19274,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19335,7 +19336,7 @@
         <v>44140</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19397,7 +19398,7 @@
         <v>44140</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19459,7 +19460,7 @@
         <v>44141</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19521,7 +19522,7 @@
         <v>44141</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19583,7 +19584,7 @@
         <v>44151</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19645,7 +19646,7 @@
         <v>44152</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19702,7 +19703,7 @@
         <v>44173</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19764,7 +19765,7 @@
         <v>44174</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19826,7 +19827,7 @@
         <v>44174</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19888,7 +19889,7 @@
         <v>44174</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19950,7 +19951,7 @@
         <v>44180</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20007,7 +20008,7 @@
         <v>44180</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20064,7 +20065,7 @@
         <v>44186</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20121,7 +20122,7 @@
         <v>44187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20178,7 +20179,7 @@
         <v>44200</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20235,7 +20236,7 @@
         <v>44200</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20292,7 +20293,7 @@
         <v>44208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20349,7 +20350,7 @@
         <v>44214</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20406,7 +20407,7 @@
         <v>44229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20463,7 +20464,7 @@
         <v>44236</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20520,7 +20521,7 @@
         <v>44238</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20577,7 +20578,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20634,7 +20635,7 @@
         <v>44259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20691,7 +20692,7 @@
         <v>44259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20753,7 +20754,7 @@
         <v>44270</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20810,7 +20811,7 @@
         <v>44270</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20867,7 +20868,7 @@
         <v>44298</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20924,7 +20925,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20981,7 +20982,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21038,7 +21039,7 @@
         <v>44299</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21095,7 +21096,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21157,7 +21158,7 @@
         <v>44316</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21214,7 +21215,7 @@
         <v>44320</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21271,7 +21272,7 @@
         <v>44322</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21328,7 +21329,7 @@
         <v>44323</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21385,7 +21386,7 @@
         <v>44328</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21442,7 +21443,7 @@
         <v>44335</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21499,7 +21500,7 @@
         <v>44336</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21556,7 +21557,7 @@
         <v>44340</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21613,7 +21614,7 @@
         <v>44340</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21670,7 +21671,7 @@
         <v>44347</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21727,7 +21728,7 @@
         <v>44347</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21784,7 +21785,7 @@
         <v>44349</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21841,7 +21842,7 @@
         <v>44349</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21898,7 +21899,7 @@
         <v>44355</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21955,7 +21956,7 @@
         <v>44362</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22012,7 +22013,7 @@
         <v>44368</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22069,7 +22070,7 @@
         <v>44375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22126,7 +22127,7 @@
         <v>44375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22183,7 +22184,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22240,7 +22241,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22297,7 +22298,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22354,7 +22355,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22411,7 +22412,7 @@
         <v>44378</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22468,7 +22469,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22525,7 +22526,7 @@
         <v>44405</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22582,7 +22583,7 @@
         <v>44414</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22639,7 +22640,7 @@
         <v>44425</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22696,7 +22697,7 @@
         <v>44427</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22753,7 +22754,7 @@
         <v>44428</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22810,7 +22811,7 @@
         <v>44430</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22867,7 +22868,7 @@
         <v>44432</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22929,7 +22930,7 @@
         <v>44434</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22986,7 +22987,7 @@
         <v>44434</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23043,7 +23044,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23100,7 +23101,7 @@
         <v>44441</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23157,7 +23158,7 @@
         <v>44441</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23214,7 +23215,7 @@
         <v>44448</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23271,7 +23272,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23328,7 +23329,7 @@
         <v>44466</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23385,7 +23386,7 @@
         <v>44475</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23442,7 +23443,7 @@
         <v>44501</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23499,7 +23500,7 @@
         <v>44515</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23561,7 +23562,7 @@
         <v>44516</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23618,7 +23619,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23675,7 +23676,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23732,7 +23733,7 @@
         <v>44533</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23789,7 +23790,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23846,7 +23847,7 @@
         <v>44539</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23903,7 +23904,7 @@
         <v>44540</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23960,7 +23961,7 @@
         <v>44540</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24017,7 +24018,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24074,7 +24075,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24131,7 +24132,7 @@
         <v>44544</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24188,7 +24189,7 @@
         <v>44547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24245,7 +24246,7 @@
         <v>44550</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24302,7 +24303,7 @@
         <v>44550</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24359,7 +24360,7 @@
         <v>44553</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24416,7 +24417,7 @@
         <v>44561</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24473,7 +24474,7 @@
         <v>44566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24530,7 +24531,7 @@
         <v>44566</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24587,7 +24588,7 @@
         <v>44579</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24644,7 +24645,7 @@
         <v>44580</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24706,7 +24707,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24763,7 +24764,7 @@
         <v>44585</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24820,7 +24821,7 @@
         <v>44594</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24877,7 +24878,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24934,7 +24935,7 @@
         <v>44607</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24991,7 +24992,7 @@
         <v>44609</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25048,7 +25049,7 @@
         <v>44613</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25105,7 +25106,7 @@
         <v>44635</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25162,7 +25163,7 @@
         <v>44637</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25219,7 +25220,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25276,7 +25277,7 @@
         <v>44643</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25333,7 +25334,7 @@
         <v>44655</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25390,7 +25391,7 @@
         <v>44665</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25447,7 +25448,7 @@
         <v>44680</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25504,7 +25505,7 @@
         <v>44690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25561,7 +25562,7 @@
         <v>44706</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25618,7 +25619,7 @@
         <v>44711</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25675,7 +25676,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25732,7 +25733,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25789,7 +25790,7 @@
         <v>44721</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25846,7 +25847,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25903,7 +25904,7 @@
         <v>44722</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25965,7 +25966,7 @@
         <v>44734</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26022,7 +26023,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26079,7 +26080,7 @@
         <v>44735</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26136,7 +26137,7 @@
         <v>44742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26198,7 +26199,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26255,7 +26256,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26307,23 +26308,23 @@
       </c>
       <c r="R392" s="2" t="inlineStr"/>
       <c r="U392">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 27575-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/knärot/A 27575-2022.png", "A 27575-2022")</f>
         <v/>
       </c>
       <c r="V392">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 27575-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomål/A 27575-2022.docx", "A 27575-2022")</f>
         <v/>
       </c>
       <c r="W392">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 27575-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/klagomålsmail/A 27575-2022.docx", "A 27575-2022")</f>
         <v/>
       </c>
       <c r="X392">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 27575-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsyn/A 27575-2022.docx", "A 27575-2022")</f>
         <v/>
       </c>
       <c r="Y392">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 27575-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTERSUND/tillsynsmail/A 27575-2022.docx", "A 27575-2022")</f>
         <v/>
       </c>
     </row>
@@ -26337,7 +26338,7 @@
         <v>44743</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26394,7 +26395,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26451,7 +26452,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26508,7 +26509,7 @@
         <v>44750</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26565,7 +26566,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26622,7 +26623,7 @@
         <v>44755</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26684,7 +26685,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26746,7 +26747,7 @@
         <v>44790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26803,7 +26804,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26860,7 +26861,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26917,7 +26918,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26974,7 +26975,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27031,7 +27032,7 @@
         <v>44799</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27088,7 +27089,7 @@
         <v>44817</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27145,7 +27146,7 @@
         <v>44820</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27202,7 +27203,7 @@
         <v>44838</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27264,7 +27265,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27326,7 +27327,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27388,7 +27389,7 @@
         <v>44840</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27445,7 +27446,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27502,7 +27503,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27559,7 +27560,7 @@
         <v>44851</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27616,7 +27617,7 @@
         <v>44852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27673,7 +27674,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27730,7 +27731,7 @@
         <v>44861</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27792,7 +27793,7 @@
         <v>44868</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27849,7 +27850,7 @@
         <v>44872</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27906,7 +27907,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27968,7 +27969,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28025,7 +28026,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28082,7 +28083,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28139,7 +28140,7 @@
         <v>44880</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28196,7 +28197,7 @@
         <v>44882</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28253,7 +28254,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28310,7 +28311,7 @@
         <v>44889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28367,7 +28368,7 @@
         <v>44894</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28424,7 +28425,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28486,7 +28487,7 @@
         <v>44907</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28548,7 +28549,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28605,7 +28606,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28662,7 +28663,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28724,7 +28725,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28781,7 +28782,7 @@
         <v>44922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28838,7 +28839,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28895,7 +28896,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28952,7 +28953,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29009,7 +29010,7 @@
         <v>44928</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29066,7 +29067,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29123,7 +29124,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29180,7 +29181,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29237,7 +29238,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29294,7 +29295,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29351,7 +29352,7 @@
         <v>44952</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29408,7 +29409,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29465,7 +29466,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29522,7 +29523,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29579,7 +29580,7 @@
         <v>44956</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29636,7 +29637,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29693,7 +29694,7 @@
         <v>44957</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29750,7 +29751,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29812,7 +29813,7 @@
         <v>44966</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29874,7 +29875,7 @@
         <v>44970</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29931,7 +29932,7 @@
         <v>44971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29993,7 +29994,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30055,7 +30056,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30112,7 +30113,7 @@
         <v>44977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30174,7 +30175,7 @@
         <v>44986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30236,7 +30237,7 @@
         <v>44993</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30293,7 +30294,7 @@
         <v>45000</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30350,7 +30351,7 @@
         <v>45002</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30407,7 +30408,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30464,7 +30465,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30526,7 +30527,7 @@
         <v>45004</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30583,7 +30584,7 @@
         <v>45008</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30640,7 +30641,7 @@
         <v>45012</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30697,7 +30698,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30754,7 +30755,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30811,7 +30812,7 @@
         <v>45022</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30873,7 +30874,7 @@
         <v>45028</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30930,7 +30931,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30987,7 +30988,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31044,7 +31045,7 @@
         <v>45037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31101,7 +31102,7 @@
         <v>45049</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31158,7 +31159,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31215,7 +31216,7 @@
         <v>45057</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31272,7 +31273,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31334,7 +31335,7 @@
         <v>45077</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31391,7 +31392,7 @@
         <v>45082</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31453,7 +31454,7 @@
         <v>45084</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31510,7 +31511,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31567,7 +31568,7 @@
         <v>45089</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31624,7 +31625,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31686,7 +31687,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31743,7 +31744,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31800,7 +31801,7 @@
         <v>45092</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31857,7 +31858,7 @@
         <v>45096</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31914,7 +31915,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31971,7 +31972,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32028,7 +32029,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32085,7 +32086,7 @@
         <v>45099</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32142,7 +32143,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32199,7 +32200,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32256,7 +32257,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32313,7 +32314,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32370,7 +32371,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32427,7 +32428,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32489,7 +32490,7 @@
         <v>45106</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32546,7 +32547,7 @@
         <v>45107</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32603,7 +32604,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32660,7 +32661,7 @@
         <v>45112</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32717,7 +32718,7 @@
         <v>45117</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32774,7 +32775,7 @@
         <v>45118</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32831,7 +32832,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32888,7 +32889,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32945,7 +32946,7 @@
         <v>45125</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33002,7 +33003,7 @@
         <v>45149</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33059,7 +33060,7 @@
         <v>45154</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33121,7 +33122,7 @@
         <v>45159</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33183,7 +33184,7 @@
         <v>45161</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33240,7 +33241,7 @@
         <v>45163</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33297,7 +33298,7 @@
         <v>45166</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33359,7 +33360,7 @@
         <v>45169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33421,7 +33422,7 @@
         <v>45183</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         <v>70.59999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
         <v>8</v>
@@ -615,7 +615,7 @@
         <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -648,6 +648,7 @@
 Svavelriska
 Trådticka
 Tvåblad
+Skogsrör
 Brudsporre
 Fläcknycklar
 Ängsnycklar</t>
@@ -692,7 +693,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +812,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -927,7 +928,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1033,7 +1034,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1138,7 +1139,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1238,7 +1239,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1337,7 +1338,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1436,7 +1437,7 @@
         <v>44817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1538,7 +1539,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1645,7 +1646,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1746,7 +1747,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1847,7 +1848,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1942,7 +1943,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2046,7 +2047,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2150,7 +2151,7 @@
         <v>44106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2244,7 +2245,7 @@
         <v>45099</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2338,7 +2339,7 @@
         <v>43719</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2431,7 +2432,7 @@
         <v>44706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2528,7 +2529,7 @@
         <v>44578</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2620,7 +2621,7 @@
         <v>44701</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2712,7 +2713,7 @@
         <v>45063</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2808,7 +2809,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2899,7 +2900,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2994,7 +2995,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3089,7 +3090,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3180,7 +3181,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3275,7 +3276,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3371,7 +3372,7 @@
         <v>45028</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3462,7 +3463,7 @@
         <v>44337</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3552,7 +3553,7 @@
         <v>44356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3646,7 +3647,7 @@
         <v>44929</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3736,7 +3737,7 @@
         <v>44742</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3830,7 +3831,7 @@
         <v>44851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3923,7 +3924,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4017,7 +4018,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4105,7 +4106,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4193,7 +4194,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4286,7 +4287,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4373,7 +4374,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4465,7 +4466,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4557,7 +4558,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4644,7 +4645,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4735,7 +4736,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4822,7 +4823,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4913,7 +4914,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5000,7 +5001,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5087,7 +5088,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5174,7 +5175,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5265,7 +5266,7 @@
         <v>43378</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5351,7 +5352,7 @@
         <v>43446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5437,7 +5438,7 @@
         <v>43656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5528,7 +5529,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5614,7 +5615,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5700,7 +5701,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5786,7 +5787,7 @@
         <v>44508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5877,7 +5878,7 @@
         <v>44693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5967,7 +5968,7 @@
         <v>44853</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6057,7 +6058,7 @@
         <v>44904</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6143,7 +6144,7 @@
         <v>44908</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6229,7 +6230,7 @@
         <v>44911</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6315,7 +6316,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6401,7 +6402,7 @@
         <v>45161</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6487,7 +6488,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6577,7 +6578,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6667,7 +6668,7 @@
         <v>43768</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6752,7 +6753,7 @@
         <v>43784</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6837,7 +6838,7 @@
         <v>43893</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6922,7 +6923,7 @@
         <v>44047</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7011,7 +7012,7 @@
         <v>44165</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7096,7 +7097,7 @@
         <v>44272</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7181,7 +7182,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7266,7 +7267,7 @@
         <v>44355</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7351,7 +7352,7 @@
         <v>44355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7436,7 +7437,7 @@
         <v>44368</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7521,7 +7522,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7611,7 +7612,7 @@
         <v>44441</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7696,7 +7697,7 @@
         <v>44476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7781,7 +7782,7 @@
         <v>44491</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7871,7 +7872,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7961,7 +7962,7 @@
         <v>44623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8046,7 +8047,7 @@
         <v>44694</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8136,7 +8137,7 @@
         <v>44694</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8226,7 +8227,7 @@
         <v>44742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8320,7 +8321,7 @@
         <v>44742</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8410,7 +8411,7 @@
         <v>44755</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8500,7 +8501,7 @@
         <v>44785</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8585,7 +8586,7 @@
         <v>44844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8675,7 +8676,7 @@
         <v>44890</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8765,7 +8766,7 @@
         <v>44900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8850,7 +8851,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8940,7 +8941,7 @@
         <v>45096</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9025,7 +9026,7 @@
         <v>43314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9082,7 +9083,7 @@
         <v>43314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9139,7 +9140,7 @@
         <v>43321</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9196,7 +9197,7 @@
         <v>43321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9253,7 +9254,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9310,7 +9311,7 @@
         <v>43333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9367,7 +9368,7 @@
         <v>43336</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9429,7 +9430,7 @@
         <v>43364</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9486,7 +9487,7 @@
         <v>43364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9543,7 +9544,7 @@
         <v>43371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9600,7 +9601,7 @@
         <v>43371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9657,7 +9658,7 @@
         <v>43371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9714,7 +9715,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9771,7 +9772,7 @@
         <v>43381</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9828,7 +9829,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9890,7 +9891,7 @@
         <v>43398</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9952,7 +9953,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10009,7 +10010,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10066,7 +10067,7 @@
         <v>43402</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10123,7 +10124,7 @@
         <v>43411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10180,7 +10181,7 @@
         <v>43412</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10237,7 +10238,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10294,7 +10295,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10351,7 +10352,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10408,7 +10409,7 @@
         <v>43426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10465,7 +10466,7 @@
         <v>43439</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10522,7 +10523,7 @@
         <v>43440</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10579,7 +10580,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10636,7 +10637,7 @@
         <v>43451</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10693,7 +10694,7 @@
         <v>43451</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10750,7 +10751,7 @@
         <v>43452</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10807,7 +10808,7 @@
         <v>43454</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10864,7 +10865,7 @@
         <v>43454</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10921,7 +10922,7 @@
         <v>43455</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10978,7 +10979,7 @@
         <v>43472</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11035,7 +11036,7 @@
         <v>43472</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11092,7 +11093,7 @@
         <v>43475</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11149,7 +11150,7 @@
         <v>43476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11206,7 +11207,7 @@
         <v>43478</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11263,7 +11264,7 @@
         <v>43487</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11320,7 +11321,7 @@
         <v>43489</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11377,7 +11378,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11434,7 +11435,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11491,7 +11492,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11548,7 +11549,7 @@
         <v>43494</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11605,7 +11606,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11662,7 +11663,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11719,7 +11720,7 @@
         <v>43503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11776,7 +11777,7 @@
         <v>43514</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11833,7 +11834,7 @@
         <v>43530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11890,7 +11891,7 @@
         <v>43542</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11947,7 +11948,7 @@
         <v>43550</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12004,7 +12005,7 @@
         <v>43571</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12061,7 +12062,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12118,7 +12119,7 @@
         <v>43581</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12180,7 +12181,7 @@
         <v>43584</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12237,7 +12238,7 @@
         <v>43584</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12294,7 +12295,7 @@
         <v>43594</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12351,7 +12352,7 @@
         <v>43595</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12413,7 +12414,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12470,7 +12471,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12527,7 +12528,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12584,7 +12585,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12641,7 +12642,7 @@
         <v>43620</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12698,7 +12699,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12755,7 +12756,7 @@
         <v>43635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12812,7 +12813,7 @@
         <v>43636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12874,7 +12875,7 @@
         <v>43640</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12931,7 +12932,7 @@
         <v>43640</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12988,7 +12989,7 @@
         <v>43650</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13045,7 +13046,7 @@
         <v>43651</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13107,7 +13108,7 @@
         <v>43654</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13169,7 +13170,7 @@
         <v>43654</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13226,7 +13227,7 @@
         <v>43655</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13283,7 +13284,7 @@
         <v>43656</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13340,7 +13341,7 @@
         <v>43656</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13397,7 +13398,7 @@
         <v>43657</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13454,7 +13455,7 @@
         <v>43670</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13511,7 +13512,7 @@
         <v>43676</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13568,7 +13569,7 @@
         <v>43684</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13625,7 +13626,7 @@
         <v>43686</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13682,7 +13683,7 @@
         <v>43696</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13744,7 +13745,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13806,7 +13807,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13863,7 +13864,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13925,7 +13926,7 @@
         <v>43699</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13982,7 +13983,7 @@
         <v>43703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14039,7 +14040,7 @@
         <v>43703</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14096,7 +14097,7 @@
         <v>43718</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14158,7 +14159,7 @@
         <v>43724</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14220,7 +14221,7 @@
         <v>43725</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14282,7 +14283,7 @@
         <v>43727</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14339,7 +14340,7 @@
         <v>43732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14401,7 +14402,7 @@
         <v>43732</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14458,7 +14459,7 @@
         <v>43733</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14520,7 +14521,7 @@
         <v>43735</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14577,7 +14578,7 @@
         <v>43738</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14639,7 +14640,7 @@
         <v>43738</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14696,7 +14697,7 @@
         <v>43747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14753,7 +14754,7 @@
         <v>43748</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14810,7 +14811,7 @@
         <v>43749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14867,7 +14868,7 @@
         <v>43752</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14929,7 +14930,7 @@
         <v>43761</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14986,7 +14987,7 @@
         <v>43762</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15048,7 +15049,7 @@
         <v>43768</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15105,7 +15106,7 @@
         <v>43770</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15162,7 +15163,7 @@
         <v>43770</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15219,7 +15220,7 @@
         <v>43773</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15276,7 +15277,7 @@
         <v>43776</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15333,7 +15334,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15390,7 +15391,7 @@
         <v>43781</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15447,7 +15448,7 @@
         <v>43781</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15504,7 +15505,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15561,7 +15562,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15623,7 +15624,7 @@
         <v>43794</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15680,7 +15681,7 @@
         <v>43802</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15737,7 +15738,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15794,7 +15795,7 @@
         <v>43809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15851,7 +15852,7 @@
         <v>43809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15908,7 +15909,7 @@
         <v>43817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15965,7 +15966,7 @@
         <v>43838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16022,7 +16023,7 @@
         <v>43840</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16079,7 +16080,7 @@
         <v>43840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16136,7 +16137,7 @@
         <v>43840</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16193,7 +16194,7 @@
         <v>43861</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16250,7 +16251,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16307,7 +16308,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16364,7 +16365,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16421,7 +16422,7 @@
         <v>43871</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16478,7 +16479,7 @@
         <v>43871</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16535,7 +16536,7 @@
         <v>43875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16592,7 +16593,7 @@
         <v>43895</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16649,7 +16650,7 @@
         <v>43901</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16706,7 +16707,7 @@
         <v>43906</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16763,7 +16764,7 @@
         <v>43909</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16820,7 +16821,7 @@
         <v>43910</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16882,7 +16883,7 @@
         <v>43917</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16939,7 +16940,7 @@
         <v>43928</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16996,7 +16997,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17053,7 +17054,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17110,7 +17111,7 @@
         <v>43943</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17167,7 +17168,7 @@
         <v>43944</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17224,7 +17225,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17281,7 +17282,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17338,7 +17339,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17395,7 +17396,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17452,7 +17453,7 @@
         <v>43978</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17509,7 +17510,7 @@
         <v>43986</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17566,7 +17567,7 @@
         <v>43992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17623,7 +17624,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17680,7 +17681,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17737,7 +17738,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17794,7 +17795,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17851,7 +17852,7 @@
         <v>44027</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17913,7 +17914,7 @@
         <v>44035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17970,7 +17971,7 @@
         <v>44055</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18027,7 +18028,7 @@
         <v>44057</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18089,7 +18090,7 @@
         <v>44076</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18146,7 +18147,7 @@
         <v>44077</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18208,7 +18209,7 @@
         <v>44077</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18270,7 +18271,7 @@
         <v>44082</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18327,7 +18328,7 @@
         <v>44090</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18389,7 +18390,7 @@
         <v>44106</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18451,7 +18452,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18513,7 +18514,7 @@
         <v>44106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18575,7 +18576,7 @@
         <v>44110</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18637,7 +18638,7 @@
         <v>44113</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18694,7 +18695,7 @@
         <v>44118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18751,7 +18752,7 @@
         <v>44118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18808,7 +18809,7 @@
         <v>44118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18865,7 +18866,7 @@
         <v>44123</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18927,7 +18928,7 @@
         <v>44125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18984,7 +18985,7 @@
         <v>44126</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19041,7 +19042,7 @@
         <v>44126</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19098,7 +19099,7 @@
         <v>44133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19155,7 +19156,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19212,7 +19213,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19274,7 +19275,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19336,7 +19337,7 @@
         <v>44140</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19398,7 +19399,7 @@
         <v>44140</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19460,7 +19461,7 @@
         <v>44141</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19522,7 +19523,7 @@
         <v>44141</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19584,7 +19585,7 @@
         <v>44151</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19646,7 +19647,7 @@
         <v>44152</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19703,7 +19704,7 @@
         <v>44173</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19765,7 +19766,7 @@
         <v>44174</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19827,7 +19828,7 @@
         <v>44174</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19889,7 +19890,7 @@
         <v>44174</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19951,7 +19952,7 @@
         <v>44180</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20008,7 +20009,7 @@
         <v>44180</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20065,7 +20066,7 @@
         <v>44186</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20122,7 +20123,7 @@
         <v>44187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20179,7 +20180,7 @@
         <v>44200</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20236,7 +20237,7 @@
         <v>44200</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20293,7 +20294,7 @@
         <v>44208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20350,7 +20351,7 @@
         <v>44214</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20407,7 +20408,7 @@
         <v>44229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20464,7 +20465,7 @@
         <v>44236</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20521,7 +20522,7 @@
         <v>44238</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20578,7 +20579,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20635,7 +20636,7 @@
         <v>44259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20692,7 +20693,7 @@
         <v>44259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20754,7 +20755,7 @@
         <v>44270</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20811,7 +20812,7 @@
         <v>44270</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20868,7 +20869,7 @@
         <v>44298</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20925,7 +20926,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20982,7 +20983,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21039,7 +21040,7 @@
         <v>44299</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21096,7 +21097,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21158,7 +21159,7 @@
         <v>44316</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21215,7 +21216,7 @@
         <v>44320</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21272,7 +21273,7 @@
         <v>44322</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21329,7 +21330,7 @@
         <v>44323</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21386,7 +21387,7 @@
         <v>44328</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21443,7 +21444,7 @@
         <v>44335</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21500,7 +21501,7 @@
         <v>44336</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21557,7 +21558,7 @@
         <v>44340</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21614,7 +21615,7 @@
         <v>44340</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21671,7 +21672,7 @@
         <v>44347</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21728,7 +21729,7 @@
         <v>44347</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21785,7 +21786,7 @@
         <v>44349</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21842,7 +21843,7 @@
         <v>44349</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21899,7 +21900,7 @@
         <v>44355</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21956,7 +21957,7 @@
         <v>44362</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22013,7 +22014,7 @@
         <v>44368</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22070,7 +22071,7 @@
         <v>44375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22127,7 +22128,7 @@
         <v>44375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22184,7 +22185,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22241,7 +22242,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22298,7 +22299,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22355,7 +22356,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22412,7 +22413,7 @@
         <v>44378</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22469,7 +22470,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22526,7 +22527,7 @@
         <v>44405</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22583,7 +22584,7 @@
         <v>44414</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22640,7 +22641,7 @@
         <v>44425</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22697,7 +22698,7 @@
         <v>44427</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22754,7 +22755,7 @@
         <v>44428</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22811,7 +22812,7 @@
         <v>44430</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22868,7 +22869,7 @@
         <v>44432</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22930,7 +22931,7 @@
         <v>44434</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22987,7 +22988,7 @@
         <v>44434</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23044,7 +23045,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23101,7 +23102,7 @@
         <v>44441</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23158,7 +23159,7 @@
         <v>44441</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23215,7 +23216,7 @@
         <v>44448</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23272,7 +23273,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23329,7 +23330,7 @@
         <v>44466</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23386,7 +23387,7 @@
         <v>44475</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23443,7 +23444,7 @@
         <v>44501</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23500,7 +23501,7 @@
         <v>44515</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23562,7 +23563,7 @@
         <v>44516</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23619,7 +23620,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23676,7 +23677,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23733,7 +23734,7 @@
         <v>44533</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23790,7 +23791,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23847,7 +23848,7 @@
         <v>44539</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23904,7 +23905,7 @@
         <v>44540</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23961,7 +23962,7 @@
         <v>44540</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24018,7 +24019,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24075,7 +24076,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24132,7 +24133,7 @@
         <v>44544</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24189,7 +24190,7 @@
         <v>44547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24246,7 +24247,7 @@
         <v>44550</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24303,7 +24304,7 @@
         <v>44550</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24360,7 +24361,7 @@
         <v>44553</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24417,7 +24418,7 @@
         <v>44561</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24474,7 +24475,7 @@
         <v>44566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24531,7 +24532,7 @@
         <v>44566</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24588,7 +24589,7 @@
         <v>44579</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24645,7 +24646,7 @@
         <v>44580</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24707,7 +24708,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24764,7 +24765,7 @@
         <v>44585</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24821,7 +24822,7 @@
         <v>44594</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24878,7 +24879,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24935,7 +24936,7 @@
         <v>44607</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24992,7 +24993,7 @@
         <v>44609</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25049,7 +25050,7 @@
         <v>44613</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25106,7 +25107,7 @@
         <v>44635</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25163,7 +25164,7 @@
         <v>44637</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25220,7 +25221,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25277,7 +25278,7 @@
         <v>44643</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25334,7 +25335,7 @@
         <v>44655</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25391,7 +25392,7 @@
         <v>44665</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25448,7 +25449,7 @@
         <v>44680</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25505,7 +25506,7 @@
         <v>44690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25562,7 +25563,7 @@
         <v>44706</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25619,7 +25620,7 @@
         <v>44711</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25676,7 +25677,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25733,7 +25734,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25790,7 +25791,7 @@
         <v>44721</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25847,7 +25848,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25904,7 +25905,7 @@
         <v>44722</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25966,7 +25967,7 @@
         <v>44734</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26023,7 +26024,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26080,7 +26081,7 @@
         <v>44735</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26137,7 +26138,7 @@
         <v>44742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26199,7 +26200,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26256,7 +26257,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26338,7 +26339,7 @@
         <v>44743</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26395,7 +26396,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26452,7 +26453,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26509,7 +26510,7 @@
         <v>44750</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26566,7 +26567,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26623,7 +26624,7 @@
         <v>44755</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26685,7 +26686,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26747,7 +26748,7 @@
         <v>44790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26804,7 +26805,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26861,7 +26862,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26918,7 +26919,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26975,7 +26976,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27032,7 +27033,7 @@
         <v>44799</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27089,7 +27090,7 @@
         <v>44817</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27146,7 +27147,7 @@
         <v>44820</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27203,7 +27204,7 @@
         <v>44838</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27265,7 +27266,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27327,7 +27328,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27389,7 +27390,7 @@
         <v>44840</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27446,7 +27447,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27503,7 +27504,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27560,7 +27561,7 @@
         <v>44851</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27617,7 +27618,7 @@
         <v>44852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27674,7 +27675,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27731,7 +27732,7 @@
         <v>44861</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27793,7 +27794,7 @@
         <v>44868</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27850,7 +27851,7 @@
         <v>44872</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27907,7 +27908,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27969,7 +27970,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28026,7 +28027,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28083,7 +28084,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28140,7 +28141,7 @@
         <v>44880</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28197,7 +28198,7 @@
         <v>44882</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28254,7 +28255,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28311,7 +28312,7 @@
         <v>44889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28368,7 +28369,7 @@
         <v>44894</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28425,7 +28426,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28487,7 +28488,7 @@
         <v>44907</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28549,7 +28550,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28606,7 +28607,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28663,7 +28664,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28725,7 +28726,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28782,7 +28783,7 @@
         <v>44922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28839,7 +28840,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28896,7 +28897,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28953,7 +28954,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29010,7 +29011,7 @@
         <v>44928</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29067,7 +29068,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29124,7 +29125,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29181,7 +29182,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29238,7 +29239,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29295,7 +29296,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29352,7 +29353,7 @@
         <v>44952</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29409,7 +29410,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29466,7 +29467,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29523,7 +29524,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29580,7 +29581,7 @@
         <v>44956</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29637,7 +29638,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29694,7 +29695,7 @@
         <v>44957</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29751,7 +29752,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29813,7 +29814,7 @@
         <v>44966</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29875,7 +29876,7 @@
         <v>44970</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29932,7 +29933,7 @@
         <v>44971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29994,7 +29995,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30056,7 +30057,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30113,7 +30114,7 @@
         <v>44977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30175,7 +30176,7 @@
         <v>44986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30237,7 +30238,7 @@
         <v>44993</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30294,7 +30295,7 @@
         <v>45000</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30351,7 +30352,7 @@
         <v>45002</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30408,7 +30409,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30465,7 +30466,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30527,7 +30528,7 @@
         <v>45004</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30584,7 +30585,7 @@
         <v>45008</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30641,7 +30642,7 @@
         <v>45012</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30698,7 +30699,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30755,7 +30756,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30812,7 +30813,7 @@
         <v>45022</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30874,7 +30875,7 @@
         <v>45028</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30931,7 +30932,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30988,7 +30989,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31045,7 +31046,7 @@
         <v>45037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31102,7 +31103,7 @@
         <v>45049</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31159,7 +31160,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31216,7 +31217,7 @@
         <v>45057</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31273,7 +31274,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31335,7 +31336,7 @@
         <v>45077</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31392,7 +31393,7 @@
         <v>45082</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31454,7 +31455,7 @@
         <v>45084</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31511,7 +31512,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31568,7 +31569,7 @@
         <v>45089</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31625,7 +31626,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31687,7 +31688,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31744,7 +31745,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31801,7 +31802,7 @@
         <v>45092</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31858,7 +31859,7 @@
         <v>45096</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31915,7 +31916,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31972,7 +31973,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32029,7 +32030,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32086,7 +32087,7 @@
         <v>45099</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32143,7 +32144,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32200,7 +32201,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32257,7 +32258,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32314,7 +32315,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32371,7 +32372,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32428,7 +32429,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32490,7 +32491,7 @@
         <v>45106</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32547,7 +32548,7 @@
         <v>45107</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32604,7 +32605,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32661,7 +32662,7 @@
         <v>45112</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32718,7 +32719,7 @@
         <v>45117</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32775,7 +32776,7 @@
         <v>45118</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32832,7 +32833,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32889,7 +32890,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32946,7 +32947,7 @@
         <v>45125</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33003,7 +33004,7 @@
         <v>45149</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33060,7 +33061,7 @@
         <v>45154</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33122,7 +33123,7 @@
         <v>45159</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33184,7 +33185,7 @@
         <v>45161</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33241,7 +33242,7 @@
         <v>45163</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33298,7 +33299,7 @@
         <v>45166</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33360,7 +33361,7 @@
         <v>45169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33422,7 +33423,7 @@
         <v>45183</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45099</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43719</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>44706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44578</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>44701</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45063</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>45028</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44337</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>44929</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44742</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>44851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4823,7 +4823,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43378</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44853</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44904</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44908</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44911</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45161</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>43768</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43784</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43893</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44047</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>44165</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44272</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44355</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>44355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44368</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>44441</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44491</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>44623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44694</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44694</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>44742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44742</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44755</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44785</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>44844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>44890</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45096</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>43314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43321</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43336</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43364</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43381</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43398</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43402</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>43411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>43412</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>43426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>43439</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>43440</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>43451</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43451</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43452</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43454</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43454</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43455</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43472</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43472</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43475</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43478</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43487</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43489</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43494</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43514</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43542</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43550</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43571</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43581</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43584</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43584</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43594</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43595</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43620</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43640</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43640</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43650</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43651</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43654</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43654</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43655</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43656</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43656</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43657</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43670</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43676</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43684</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43686</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43696</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43699</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43703</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43718</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43724</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43725</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43727</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>43732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>43732</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>43733</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43735</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43738</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>43738</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>43747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>43748</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>43749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>43752</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>43761</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>43762</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>43768</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>43770</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>43770</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>43773</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>43776</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>43781</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>43781</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>43794</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>43802</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>43809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>43809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>43817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>43838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>43840</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>43840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>43840</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>43861</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43871</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43871</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>43895</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>43901</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>43906</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>43909</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>43910</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>43917</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>43928</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>43943</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>43944</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>43978</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>43986</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>43992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44027</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44055</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44057</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44076</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>44077</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44077</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44082</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44090</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44106</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44110</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44113</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44123</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44126</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44126</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44140</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>44140</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44141</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44141</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         <v>44151</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44152</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44173</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44174</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44174</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>44174</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44180</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20009,7 +20009,7 @@
         <v>44180</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>44186</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>44187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>44200</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44200</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>44214</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>44229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44236</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>44238</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20579,7 +20579,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20636,7 +20636,7 @@
         <v>44259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>44259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44270</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44270</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44298</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44299</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>44316</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44320</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>44322</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21330,7 +21330,7 @@
         <v>44323</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>44328</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>44335</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         <v>44336</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>44340</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>44340</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>44347</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44347</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>44349</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>44349</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>44355</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>44362</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>44368</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>44375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>44375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>44378</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>44405</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44414</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>44425</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44427</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44428</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>44430</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44432</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44434</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44434</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44441</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44441</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44448</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44466</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44475</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44501</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44515</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>44516</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23620,7 +23620,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23677,7 +23677,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23734,7 +23734,7 @@
         <v>44533</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>44539</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>44540</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44540</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44544</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44550</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44550</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44553</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44561</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44566</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44579</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44580</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24765,7 +24765,7 @@
         <v>44585</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>44594</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24879,7 +24879,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>44607</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24993,7 +24993,7 @@
         <v>44609</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25050,7 +25050,7 @@
         <v>44613</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25107,7 +25107,7 @@
         <v>44635</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25164,7 +25164,7 @@
         <v>44637</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25221,7 +25221,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44643</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44655</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44665</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>44680</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>44690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>44706</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44711</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44721</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>44722</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>44734</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>44735</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>44742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26200,7 +26200,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>44743</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26453,7 +26453,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26510,7 +26510,7 @@
         <v>44750</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26567,7 +26567,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>44755</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>44790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26919,7 +26919,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26976,7 +26976,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27033,7 +27033,7 @@
         <v>44799</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27090,7 +27090,7 @@
         <v>44817</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44820</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44838</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44840</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>44851</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>44852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27675,7 +27675,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27732,7 +27732,7 @@
         <v>44861</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>44868</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>44872</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44880</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44882</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>44889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>44894</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28426,7 +28426,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44907</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28726,7 +28726,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28783,7 +28783,7 @@
         <v>44922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>44928</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44952</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44956</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44957</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29814,7 +29814,7 @@
         <v>44966</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29876,7 +29876,7 @@
         <v>44970</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30057,7 +30057,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30114,7 +30114,7 @@
         <v>44977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30176,7 +30176,7 @@
         <v>44986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44993</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>45000</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>45002</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45004</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45008</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>45012</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>45022</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45028</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31046,7 +31046,7 @@
         <v>45037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31103,7 +31103,7 @@
         <v>45049</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31160,7 +31160,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31217,7 +31217,7 @@
         <v>45057</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>45077</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>45082</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31455,7 +31455,7 @@
         <v>45084</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31512,7 +31512,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31569,7 +31569,7 @@
         <v>45089</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31626,7 +31626,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
         <v>45092</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31859,7 +31859,7 @@
         <v>45096</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31916,7 +31916,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32030,7 +32030,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32087,7 +32087,7 @@
         <v>45099</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32144,7 +32144,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32201,7 +32201,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32258,7 +32258,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32315,7 +32315,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32429,7 +32429,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45106</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45107</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>45112</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>45117</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>45118</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>45125</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>45149</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33061,7 +33061,7 @@
         <v>45154</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>45159</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>45161</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>45163</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>45166</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33361,7 +33361,7 @@
         <v>45169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>45183</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y515"/>
+  <dimension ref="A1:Y516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45099</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43719</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>44706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44578</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>44701</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45063</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>45028</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44337</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>44929</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44742</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>44851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4823,7 +4823,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43378</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44853</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44904</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44908</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44911</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45161</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>43768</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43784</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43893</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44047</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>44165</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44272</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44355</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>44355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44368</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>44441</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44491</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>44623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44694</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44694</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>44742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44742</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44755</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44785</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>44844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>44890</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45096</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>43314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43321</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43336</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43364</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43381</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43398</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43402</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>43411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>43412</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>43426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>43439</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>43440</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>43451</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43451</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43452</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43454</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43454</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43455</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43472</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43472</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43475</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43478</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43487</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43489</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43494</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43514</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43542</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43550</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43571</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43581</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43584</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43584</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43594</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43595</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43620</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43640</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43640</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43650</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43651</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43654</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43654</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43655</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43656</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43656</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43657</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43670</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43676</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43684</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43686</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43696</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43699</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43703</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43718</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43724</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43725</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43727</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>43732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>43732</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>43733</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43735</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43738</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>43738</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>43747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>43748</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>43749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>43752</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>43761</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>43762</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>43768</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>43770</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>43770</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>43773</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>43776</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>43781</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>43781</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>43794</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>43802</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>43809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>43809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>43817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>43838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>43840</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>43840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>43840</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>43861</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43871</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43871</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>43895</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>43901</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>43906</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>43909</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>43910</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>43917</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>43928</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>43943</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>43944</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>43978</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>43986</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>43992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44027</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44055</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44057</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44076</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>44077</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44077</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44082</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44090</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44106</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44110</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44113</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44123</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44126</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44126</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44140</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>44140</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44141</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44141</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         <v>44151</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44152</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44173</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44174</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44174</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>44174</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44180</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20009,7 +20009,7 @@
         <v>44180</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>44186</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>44187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>44200</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44200</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>44214</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>44229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44236</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>44238</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20579,7 +20579,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20636,7 +20636,7 @@
         <v>44259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>44259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44270</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44270</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44298</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44299</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>44316</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44320</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>44322</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21330,7 +21330,7 @@
         <v>44323</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>44328</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>44335</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         <v>44336</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>44340</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>44340</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>44347</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44347</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>44349</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>44349</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>44355</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>44362</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>44368</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>44375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>44375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>44378</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>44405</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44414</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>44425</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44427</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44428</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>44430</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44432</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44434</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44434</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44441</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44441</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44448</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44466</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44475</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44501</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44515</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>44516</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23620,7 +23620,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23677,7 +23677,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23734,7 +23734,7 @@
         <v>44533</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>44539</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>44540</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44540</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44544</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44550</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44550</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44553</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44561</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44566</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44579</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44580</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24765,7 +24765,7 @@
         <v>44585</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>44594</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24879,7 +24879,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>44607</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24993,7 +24993,7 @@
         <v>44609</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25050,7 +25050,7 @@
         <v>44613</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25107,7 +25107,7 @@
         <v>44635</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25164,7 +25164,7 @@
         <v>44637</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25221,7 +25221,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44643</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44655</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44665</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>44680</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>44690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>44706</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44711</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44721</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>44722</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>44734</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>44735</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>44742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26200,7 +26200,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>44743</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26453,7 +26453,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26510,7 +26510,7 @@
         <v>44750</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26567,7 +26567,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>44755</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>44790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26919,7 +26919,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26976,7 +26976,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27033,7 +27033,7 @@
         <v>44799</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27090,7 +27090,7 @@
         <v>44817</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44820</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44838</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44840</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>44851</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>44852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27675,7 +27675,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27732,7 +27732,7 @@
         <v>44861</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>44868</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>44872</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44880</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44882</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>44889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>44894</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28426,7 +28426,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44907</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28726,7 +28726,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28783,7 +28783,7 @@
         <v>44922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>44928</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44952</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44956</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44957</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29814,7 +29814,7 @@
         <v>44966</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29876,7 +29876,7 @@
         <v>44970</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30057,7 +30057,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30114,7 +30114,7 @@
         <v>44977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30176,7 +30176,7 @@
         <v>44986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44993</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>45000</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>45002</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45004</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45008</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>45012</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>45022</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45028</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31046,7 +31046,7 @@
         <v>45037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31103,7 +31103,7 @@
         <v>45049</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31160,7 +31160,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31217,7 +31217,7 @@
         <v>45057</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>45077</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>45082</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31455,7 +31455,7 @@
         <v>45084</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31512,7 +31512,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31569,7 +31569,7 @@
         <v>45089</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31626,7 +31626,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
         <v>45092</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31859,7 +31859,7 @@
         <v>45096</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31916,7 +31916,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32030,7 +32030,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32087,7 +32087,7 @@
         <v>45099</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32144,7 +32144,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32201,7 +32201,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32258,7 +32258,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32315,7 +32315,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32429,7 +32429,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45106</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45107</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>45112</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>45117</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>45118</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>45125</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>45149</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33061,7 +33061,7 @@
         <v>45154</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>45159</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>45161</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>45163</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>45166</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33361,7 +33361,7 @@
         <v>45169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
       </c>
       <c r="R514" s="2" t="inlineStr"/>
     </row>
-    <row r="515">
+    <row r="515" ht="15" customHeight="1">
       <c r="A515" t="inlineStr">
         <is>
           <t>A 43252-2023</t>
@@ -33423,7 +33423,7 @@
         <v>45183</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33469,6 +33469,63 @@
         <v>0</v>
       </c>
       <c r="R515" s="2" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>A 44327-2023</t>
+        </is>
+      </c>
+      <c r="B516" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C516" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G516" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0</v>
+      </c>
+      <c r="J516" t="n">
+        <v>0</v>
+      </c>
+      <c r="K516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N516" t="n">
+        <v>0</v>
+      </c>
+      <c r="O516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R516" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45099</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43719</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>44706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44578</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>44701</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45063</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>45028</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44337</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>44929</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44742</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>44851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4823,7 +4823,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43378</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44693</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44853</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44904</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44908</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44911</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45044</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45161</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>43768</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43784</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43893</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44047</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>44165</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44272</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44355</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>44355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44368</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>44441</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44491</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>44623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44694</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44694</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>44742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44742</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44755</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44785</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>44844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>44890</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45096</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>43314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43321</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43336</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43364</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43364</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43381</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43398</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43402</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>43411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>43412</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>43426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>43439</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>43440</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>43451</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43451</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43452</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43454</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43454</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43455</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43472</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43472</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43475</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43478</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43487</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43489</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43494</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43514</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43542</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43550</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43571</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43581</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43584</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43584</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43594</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43595</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43620</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43640</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43640</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43650</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43651</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43654</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43654</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43655</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43656</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43656</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43657</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43670</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43676</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43684</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43686</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43696</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43699</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43703</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43718</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43724</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43725</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43727</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>43732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>43732</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>43733</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43735</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43738</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>43738</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>43747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>43748</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>43749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>43752</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>43761</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>43762</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>43768</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>43770</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>43770</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>43773</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>43776</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>43781</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>43781</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>43794</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>43802</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>43809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>43809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>43817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>43838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>43840</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>43840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>43840</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>43861</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43871</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43871</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>43895</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>43901</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>43906</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>43909</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>43910</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>43917</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>43928</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>43943</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>43944</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>43978</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>43986</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>43992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44000</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44027</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44055</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44057</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44076</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>44077</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44077</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44082</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44090</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44106</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44110</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44113</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44118</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44123</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44126</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44126</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44140</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>44140</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44141</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44141</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         <v>44151</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44152</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44173</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44174</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44174</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>44174</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44180</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20009,7 +20009,7 @@
         <v>44180</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>44186</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>44187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>44200</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44200</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>44214</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>44229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44236</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>44238</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20579,7 +20579,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20636,7 +20636,7 @@
         <v>44259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>44259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44270</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44270</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44298</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44299</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>44316</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44320</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>44322</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21330,7 +21330,7 @@
         <v>44323</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>44328</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>44335</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         <v>44336</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>44340</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>44340</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>44347</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44347</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>44349</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>44349</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>44355</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>44362</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>44368</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>44375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>44375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>44378</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>44405</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44414</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>44425</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44427</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44428</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>44430</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44432</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44434</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44434</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44441</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44441</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44448</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44453</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44466</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44475</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44501</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44515</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>44516</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23620,7 +23620,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23677,7 +23677,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23734,7 +23734,7 @@
         <v>44533</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>44539</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>44540</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44540</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44544</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44550</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44550</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44553</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44561</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44566</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44579</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44580</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24765,7 +24765,7 @@
         <v>44585</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>44594</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24879,7 +24879,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>44607</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24993,7 +24993,7 @@
         <v>44609</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25050,7 +25050,7 @@
         <v>44613</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25107,7 +25107,7 @@
         <v>44635</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25164,7 +25164,7 @@
         <v>44637</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25221,7 +25221,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44643</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44655</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44665</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>44680</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>44690</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>44706</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44711</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44721</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>44722</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>44734</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>44735</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>44742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26200,7 +26200,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>44743</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26453,7 +26453,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26510,7 +26510,7 @@
         <v>44750</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26567,7 +26567,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>44755</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>44790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26919,7 +26919,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26976,7 +26976,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27033,7 +27033,7 @@
         <v>44799</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27090,7 +27090,7 @@
         <v>44817</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44820</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44838</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44840</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>44851</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>44852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27675,7 +27675,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27732,7 +27732,7 @@
         <v>44861</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>44868</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>44872</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44880</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44882</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44887</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>44889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>44894</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28426,7 +28426,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44907</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28726,7 +28726,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28783,7 +28783,7 @@
         <v>44922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>44928</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44952</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44956</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44957</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29814,7 +29814,7 @@
         <v>44966</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29876,7 +29876,7 @@
         <v>44970</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30057,7 +30057,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30114,7 +30114,7 @@
         <v>44977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30176,7 +30176,7 @@
         <v>44986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44993</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>45000</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>45002</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45004</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45008</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>45012</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>45022</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45028</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31046,7 +31046,7 @@
         <v>45037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31103,7 +31103,7 @@
         <v>45049</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31160,7 +31160,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31217,7 +31217,7 @@
         <v>45057</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>45077</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>45082</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31455,7 +31455,7 @@
         <v>45084</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31512,7 +31512,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31569,7 +31569,7 @@
         <v>45089</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31626,7 +31626,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
         <v>45092</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31859,7 +31859,7 @@
         <v>45096</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31916,7 +31916,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32030,7 +32030,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32087,7 +32087,7 @@
         <v>45099</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32144,7 +32144,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32201,7 +32201,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32258,7 +32258,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32315,7 +32315,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32429,7 +32429,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45106</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45107</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>45112</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>45117</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>45118</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>45125</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>45149</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33061,7 +33061,7 @@
         <v>45154</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>45159</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>45161</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>45163</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>45166</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33361,7 +33361,7 @@
         <v>45169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>45183</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>45188</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44817</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>45099</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43719</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44578</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>44701</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>45063</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45028</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44337</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44929</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>44742</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>45198</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43378</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43446</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44361</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>44363</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44508</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>44693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44853</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44904</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>44908</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>44911</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>45161</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>43417</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43636</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43768</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43784</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43893</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44047</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44165</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>44272</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>44298</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>44343</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44355</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44355</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>44368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44376</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>44476</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44491</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>44585</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>44617</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44623</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>44694</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44694</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>44742</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44742</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44785</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44890</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44900</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>44908</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45096</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>43314</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>43314</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43321</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43321</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43332</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>43333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         <v>43336</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43364</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43364</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43371</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43371</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43381</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43395</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43398</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>43398</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>43399</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43402</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43411</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43412</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43419</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43439</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43440</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43451</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43451</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43452</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43454</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>43454</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>43455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43472</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>43472</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43475</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43478</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43489</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43489</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43494</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43495</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43503</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43530</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43542</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43550</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43571</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43581</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>43584</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>43584</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43595</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43600</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43620</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43621</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43635</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43640</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43650</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>43651</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43654</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43654</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43655</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43656</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>43656</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>43670</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>43684</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>43686</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>43703</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>43718</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>43725</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43727</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43732</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43732</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43735</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43747</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43748</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43761</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43762</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43768</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43770</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43770</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43773</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43776</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43777</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43781</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43781</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>43784</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>43794</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>43802</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43805</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>43809</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>43809</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>43817</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>43838</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43840</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43840</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43840</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43861</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>43871</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>43871</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>43875</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>43895</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>43901</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>43906</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>43910</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>43917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>43928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>43930</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>43936</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>43943</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>43944</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>43969</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>43969</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>43970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>43970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>43978</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>43986</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>43992</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44000</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44004</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44008</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44027</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44035</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44057</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18353,7 +18353,7 @@
         <v>44076</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18410,7 +18410,7 @@
         <v>44077</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>44077</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>44082</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44090</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>44106</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44106</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44106</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44110</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18901,7 +18901,7 @@
         <v>44113</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18958,7 +18958,7 @@
         <v>44118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19015,7 +19015,7 @@
         <v>44118</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44118</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
         <v>44123</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44125</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44126</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44126</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44133</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44137</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44137</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44140</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44141</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44151</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>44152</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44173</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44174</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44174</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>44180</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         <v>44187</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         <v>44200</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>44200</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>44208</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44214</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>44229</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>44236</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44238</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44258</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>44259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>44259</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44270</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44270</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44298</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44298</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44299</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44314</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44316</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44320</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>44322</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         <v>44323</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21593,7 +21593,7 @@
         <v>44328</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>44335</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44336</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44340</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>44340</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>44347</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44347</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44349</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44349</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44355</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44362</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44368</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44375</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44375</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44378</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44385</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44405</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44414</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44425</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44427</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44428</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44430</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44432</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44434</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44434</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44441</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44441</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44453</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44475</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>44516</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44529</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>44533</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>44537</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>44539</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44540</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>44540</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>44544</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44547</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44550</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44550</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44553</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44561</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44566</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>44566</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>44579</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>44580</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44581</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44594</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44595</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44607</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44609</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44613</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44635</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44637</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44643</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44655</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44665</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44680</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44690</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44706</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44711</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25940,7 +25940,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>44721</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>44722</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44734</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44735</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>44742</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44743</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44750</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44755</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27125,7 +27125,7 @@
         <v>44790</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>44799</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27239,7 +27239,7 @@
         <v>44817</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>44820</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27353,7 +27353,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>44838</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44851</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44852</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44861</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>44868</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>44872</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44875</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>44880</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>44882</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>44887</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44889</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44894</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>44907</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>44909</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44911</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44922</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44928</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44943</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44949</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29445,7 +29445,7 @@
         <v>44950</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29502,7 +29502,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29559,7 +29559,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         <v>44952</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44956</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44957</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44963</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>44966</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44970</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>44971</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>44977</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30325,7 +30325,7 @@
         <v>44986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44993</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>45000</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>45002</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45004</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45008</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45012</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>45022</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45028</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45037</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>45049</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>45050</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>45057</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31485,7 +31485,7 @@
         <v>45077</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>45082</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>45084</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>45089</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>45090</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         <v>45092</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>45096</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45098</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45099</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>45103</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45106</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32754,7 +32754,7 @@
         <v>45107</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32811,7 +32811,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>45117</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>45118</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33096,7 +33096,7 @@
         <v>45125</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33153,7 +33153,7 @@
         <v>45149</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>45154</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45159</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
         <v>45161</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>45163</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>45166</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>45169</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33572,7 +33572,7 @@
         <v>45183</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>45188</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>45198</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44817</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>45099</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43719</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44578</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>44701</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>45063</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45028</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44337</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44929</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>44742</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>45198</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43378</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43446</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44361</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>44363</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44508</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>44693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44853</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44904</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>44908</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>44911</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>45161</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>43417</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43636</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43768</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43784</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43893</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44047</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44165</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>44272</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>44298</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>44343</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44355</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44355</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>44368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44376</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>44476</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44491</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>44585</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>44617</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44623</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>44694</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44694</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>44742</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44742</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44785</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44890</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44900</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>44908</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45096</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>43314</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>43314</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43321</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43321</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43332</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>43333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         <v>43336</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43364</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43364</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43371</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43371</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43381</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43395</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43398</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>43398</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>43399</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43402</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43411</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43412</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43419</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43439</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43440</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43451</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43451</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43452</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43454</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>43454</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>43455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43472</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>43472</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43475</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43478</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43489</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43489</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43494</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43495</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43503</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43530</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43542</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43550</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43571</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43581</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>43584</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>43584</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43595</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43600</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43620</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43621</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43635</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43640</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43650</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>43651</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43654</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43654</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43655</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43656</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>43656</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>43670</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>43684</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>43686</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>43703</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>43718</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>43725</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43727</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43732</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43732</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43735</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43747</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43748</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43761</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43762</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43768</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43770</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43770</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43773</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43776</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43777</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43781</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43781</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>43784</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>43794</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>43802</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43805</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>43809</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>43809</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>43817</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>43838</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43840</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43840</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43840</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43861</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>43871</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>43871</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>43875</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>43895</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>43901</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>43906</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>43910</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>43917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>43928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>43930</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>43936</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>43943</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>43944</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>43969</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>43969</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>43970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>43970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>43978</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>43986</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>43992</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44000</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44004</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44008</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44027</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44035</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44057</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18353,7 +18353,7 @@
         <v>44076</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18410,7 +18410,7 @@
         <v>44077</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>44077</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>44082</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44090</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>44106</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44106</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44106</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44110</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18901,7 +18901,7 @@
         <v>44113</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18958,7 +18958,7 @@
         <v>44118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19015,7 +19015,7 @@
         <v>44118</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44118</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
         <v>44123</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44125</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44126</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44126</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44133</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44137</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44137</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44140</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44141</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44151</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>44152</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44173</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44174</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44174</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>44180</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         <v>44187</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         <v>44200</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>44200</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>44208</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44214</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>44229</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>44236</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44238</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44258</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>44259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>44259</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44270</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44270</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44298</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44298</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44299</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44314</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44316</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44320</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>44322</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         <v>44323</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21593,7 +21593,7 @@
         <v>44328</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>44335</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44336</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44340</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>44340</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>44347</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44347</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44349</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44349</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44355</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44362</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44368</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44375</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44375</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44378</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44385</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44405</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44414</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44425</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44427</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44428</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44430</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44432</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44434</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44434</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44441</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44441</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44453</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44475</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>44516</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44529</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>44533</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>44537</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>44539</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44540</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>44540</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>44544</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44547</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44550</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44550</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44553</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44561</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44566</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>44566</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>44579</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>44580</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44581</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44594</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44595</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44607</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44609</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44613</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44635</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44637</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44643</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44655</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44665</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44680</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44690</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44706</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44711</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25940,7 +25940,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>44721</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>44722</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44734</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44735</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>44742</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44743</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44750</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44755</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27125,7 +27125,7 @@
         <v>44790</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>44799</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27239,7 +27239,7 @@
         <v>44817</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>44820</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27353,7 +27353,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>44838</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44851</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44852</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44861</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>44868</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>44872</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44875</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>44880</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>44882</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>44887</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44889</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44894</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>44907</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>44909</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44911</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44922</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44928</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44943</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44949</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29445,7 +29445,7 @@
         <v>44950</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29502,7 +29502,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29559,7 +29559,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         <v>44952</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44956</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44957</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44963</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>44966</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44970</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>44971</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>44977</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30325,7 +30325,7 @@
         <v>44986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44993</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>45000</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>45002</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45004</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45008</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45012</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>45022</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45028</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45037</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>45049</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>45050</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>45057</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31485,7 +31485,7 @@
         <v>45077</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>45082</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>45084</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>45089</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>45090</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         <v>45092</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>45096</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45098</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45099</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>45103</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45106</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32754,7 +32754,7 @@
         <v>45107</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32811,7 +32811,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>45117</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>45118</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33096,7 +33096,7 @@
         <v>45125</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33153,7 +33153,7 @@
         <v>45149</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>45154</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45159</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
         <v>45161</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>45163</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>45166</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>45169</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33572,7 +33572,7 @@
         <v>45183</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>45188</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>45198</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y518"/>
+  <dimension ref="A1:Y519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44817</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>45099</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43719</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44578</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>44701</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>45063</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45028</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44337</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44929</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>44742</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>45198</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43378</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43446</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44361</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>44363</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44508</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>44693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44853</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44904</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>44908</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>44911</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>45161</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>43417</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43636</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43768</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43784</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43893</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44047</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44165</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>44272</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>44298</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>44343</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44355</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44355</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>44368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44376</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>44476</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44491</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>44585</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>44617</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44623</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>44694</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44694</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>44742</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44742</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44785</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44890</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44900</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>44908</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45096</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>43314</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>43314</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43321</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43321</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43332</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>43333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         <v>43336</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43364</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43364</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43371</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43371</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43381</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43395</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43398</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>43398</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>43399</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43402</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43411</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43412</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43419</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43439</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43440</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43451</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43451</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43452</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43454</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>43454</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>43455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43472</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>43472</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43475</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43478</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43489</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43489</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43494</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43495</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43503</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43530</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43542</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43550</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43571</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43581</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>43584</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>43584</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43595</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43600</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43620</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43621</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43635</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43640</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43650</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>43651</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43654</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43654</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43655</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43656</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>43656</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>43670</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>43684</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>43686</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>43703</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>43718</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>43725</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43727</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43732</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43732</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43735</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43747</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43748</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43761</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43762</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43768</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43770</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43770</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43773</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43776</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43777</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43781</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43781</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>43784</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>43794</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>43802</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43805</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>43809</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>43809</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>43817</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>43838</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43840</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43840</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43840</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43861</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>43871</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>43871</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>43875</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>43895</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>43901</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>43906</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>43910</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>43917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>43928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>43930</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>43936</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>43943</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>43944</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>43969</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>43969</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>43970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>43970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>43978</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>43986</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>43992</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44000</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44004</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44008</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44027</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44035</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44057</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18353,7 +18353,7 @@
         <v>44076</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18410,7 +18410,7 @@
         <v>44077</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>44077</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>44082</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44090</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>44106</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44106</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44106</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44110</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18901,7 +18901,7 @@
         <v>44113</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18958,7 +18958,7 @@
         <v>44118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19015,7 +19015,7 @@
         <v>44118</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44118</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
         <v>44123</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44125</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44126</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44126</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44133</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44137</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44137</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44140</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44141</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44151</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>44152</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44173</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44174</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44174</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>44180</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         <v>44187</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         <v>44200</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>44200</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>44208</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44214</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>44229</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>44236</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44238</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44258</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>44259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>44259</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44270</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44270</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44298</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44298</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44299</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44314</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44316</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44320</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>44322</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         <v>44323</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21593,7 +21593,7 @@
         <v>44328</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>44335</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44336</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44340</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>44340</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>44347</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44347</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44349</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44349</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44355</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44362</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44368</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44375</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44375</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44378</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44385</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44405</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44414</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44425</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44427</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44428</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44430</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44432</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44434</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44434</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44441</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44441</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44453</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44475</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>44516</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44529</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>44533</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>44537</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>44539</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44540</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>44540</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>44544</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44547</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44550</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44550</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44553</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44561</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44566</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>44566</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>44579</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>44580</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44581</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44594</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44595</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44607</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44609</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44613</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44635</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44637</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44643</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44655</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44665</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44680</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44690</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44706</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44711</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25940,7 +25940,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>44721</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>44722</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44734</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44735</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>44742</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44743</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44750</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44755</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27125,7 +27125,7 @@
         <v>44790</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>44799</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27239,7 +27239,7 @@
         <v>44817</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>44820</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27353,7 +27353,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>44838</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44851</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44852</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44861</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>44868</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>44872</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44875</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>44880</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>44882</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>44887</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44889</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44894</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>44907</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>44909</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44911</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44922</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44928</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44943</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44949</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29445,7 +29445,7 @@
         <v>44950</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29502,7 +29502,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29559,7 +29559,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         <v>44952</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44956</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44957</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44963</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>44966</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44970</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>44971</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>44977</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30325,7 +30325,7 @@
         <v>44986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44993</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>45000</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>45002</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>45002</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>45002</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45004</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45008</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45012</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45012</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>45022</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>45028</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45028</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45037</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>45049</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>45050</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>45057</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31485,7 +31485,7 @@
         <v>45077</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>45082</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45084</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>45084</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45089</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>45089</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>45089</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>45090</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         <v>45092</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>45096</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>45096</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>45096</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45098</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>45099</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>45099</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>45099</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>45099</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>45099</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45099</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>45103</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45106</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>45107</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32754,7 +32754,7 @@
         <v>45107</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32811,7 +32811,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>45117</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>45118</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>45118</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33096,7 +33096,7 @@
         <v>45125</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33153,7 +33153,7 @@
         <v>45149</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>45154</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45159</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
         <v>45161</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>45163</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>45166</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>45169</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33572,7 +33572,7 @@
         <v>45183</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>45188</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
       </c>
       <c r="R517" s="2" t="inlineStr"/>
     </row>
-    <row r="518">
+    <row r="518" ht="15" customHeight="1">
       <c r="A518" t="inlineStr">
         <is>
           <t>A 46748-2023</t>
@@ -33686,7 +33686,7 @@
         <v>45198</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33737,6 +33737,63 @@
         <v>0</v>
       </c>
       <c r="R518" s="2" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>A 47727-2023</t>
+        </is>
+      </c>
+      <c r="B519" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C519" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>ÖSTERSUND</t>
+        </is>
+      </c>
+      <c r="G519" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0</v>
+      </c>
+      <c r="J519" t="n">
+        <v>0</v>
+      </c>
+      <c r="K519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N519" t="n">
+        <v>0</v>
+      </c>
+      <c r="O519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R519" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45155</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>43739</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>43813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44817</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44886</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>44851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44945</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44642</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44890</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>45099</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43719</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44578</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>44701</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>45063</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44945</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>44970</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>45028</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45028</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44337</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44929</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>44742</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44945</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>43607</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>43672</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43784</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>44904</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44956</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>45063</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>45198</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43378</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43446</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44361</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>44363</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44508</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>44693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44853</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44904</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>44908</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>44911</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>45161</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>43417</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43636</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43768</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43784</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43893</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44047</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44165</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>44272</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>44298</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>44343</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44355</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44355</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>44368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44376</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>44476</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44491</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>44585</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>44617</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44623</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>44694</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44694</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>44742</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44742</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44785</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44890</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44900</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>44908</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45096</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>43314</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>43314</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43321</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43321</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43332</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>43333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         <v>43336</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43364</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43364</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43371</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43371</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43381</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43395</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43398</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>43398</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>43399</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43402</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43411</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43412</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43419</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43439</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43440</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43451</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43451</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43452</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43454</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>43454</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>43455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43472</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>43472</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43475</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>43476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>43478</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>43489</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43489</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43494</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43495</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43503</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43530</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43542</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43550</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43571</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>43581</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>43584</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>43584</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43595</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43600</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43620</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43621</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43635</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43640</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43650</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>43651</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43654</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43654</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43655</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43656</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>43656</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>43670</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>43684</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>43686</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>43703</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>43718</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>43725</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43727</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43732</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43732</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43735</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43747</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43748</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43761</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43762</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43768</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43770</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43770</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43773</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43776</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43777</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43781</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43781</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>43784</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>43794</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>43802</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43805</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>43809</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>43809</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>43817</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>43838</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43840</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43840</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43840</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43861</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>43871</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>43871</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>43875</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>43895</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>43901</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>43906</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>43910</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>43917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>43928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>43930</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>43936</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>43943</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>43944</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>43969</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>43969</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>43970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>43970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>43978</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>43986</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>43992</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44000</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44004</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44008</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44027</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44035</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44057</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18353,7 +18353,7 @@
         <v>44076</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18410,7 +18410,7 @@
         <v>44077</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>44077</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>44082</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44090</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>44106</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44106</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44106</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44110</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18901,7 +18901,7 @@
         <v>44113</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18958,7 +18958,7 @@
         <v>44118</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19015,7 +19015,7 @@
         <v>44118</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44118</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
         <v>44123</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44125</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44126</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44126</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44133</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44137</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44137</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44140</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44141</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44141</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44151</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>44152</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44173</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44174</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44174</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>44180</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         <v>44187</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         <v>44200</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>44200</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>44208</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44214</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>44229</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>44236</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44238</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44258</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>44259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>44259</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44270</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44270</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44298</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44298</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44299</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44314</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44316</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44320</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>44322</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         <v>44323</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21593,7 +21593,7 @@
         <v>44328</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>44335</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44336</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44340</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>44340</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>44347</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44347</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44349</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44349</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44355</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44362</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44368</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44375</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44375</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44378</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44385</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44405</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44414</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44425</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44427</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44428</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44430</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44432</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>44434</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44434</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44434</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44441</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44441</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44448</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44453</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44475</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>44516</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44529</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>44533</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>44537</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>44539</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>44540</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>44540</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44540</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>44540</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>44544</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44547</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44550</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44550</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44553</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44561</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44566</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>44566</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>44579</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>44580</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44581</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44594</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44595</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44607</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44609</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44613</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44635</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44637</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44637</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44643</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44655</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44665</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44680</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44690</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44706</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44711</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44711</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25940,7 +25940,7 @@
         <v>44721</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>44721</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>44722</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44734</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44734</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44735</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44742</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>44742</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>44742</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44743</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44743</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44743</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44750</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44750</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44755</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44755</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>44790</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         <v>44790</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27125,7 +27125,7 @@
         <v>44790</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>44799</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27239,7 +27239,7 @@
         <v>44817</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>44820</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27353,7 +27353,7 @@
         <v>44838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>44838</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>44838</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44851</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44852</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44861</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>44868</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>44872</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44875</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44875</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44875</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>44880</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>44882</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>44887</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44889</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44894</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>44907</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>44907</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>44909</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44911</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44922</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44928</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44943</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44949</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>44950</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29445,7 +29445,7 @@
         <v>44950</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29502,7 +29502,7 @@
         <v>44952</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29559,7 +29559,7 @@
         <v>44952</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         <v>44952</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44956</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44957</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44963</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>44966</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44970</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44971</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44971</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>44971</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>44977</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30325,7 +30325,7 @@
         <v>44986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44993</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>45000</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30501,7 +30501,